--- a/Gantt/Diagramme de Gantt simple.xlsx
+++ b/Gantt/Diagramme de Gantt simple.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900DDD4B-0A5C-4584-B765-5DC1BB998253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF3DFDC-146F-4794-8618-13C557A2A062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>Créez un planning de projet dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -203,9 +203,6 @@
     <t>Test et découverte des différentes options et services</t>
   </si>
   <si>
-    <t>Mission 1</t>
-  </si>
-  <si>
     <t>Dell vxRail installation et configuration</t>
   </si>
   <si>
@@ -230,9 +227,6 @@
     <t>Configuration des serveurs (Stockage, iDrac)</t>
   </si>
   <si>
-    <t>Stage IESN - Infrastructure VMware HCI</t>
-  </si>
-  <si>
     <t>Création plan logique et d'adressage</t>
   </si>
   <si>
@@ -243,6 +237,15 @@
   </si>
   <si>
     <t>Phase de test</t>
+  </si>
+  <si>
+    <t>Stage IESN - DELL vxRail &amp; Vmware HCI</t>
+  </si>
+  <si>
+    <t>Mission 1: Prise en main</t>
+  </si>
+  <si>
+    <t>Préparation des serveurs DNS et de vSphere</t>
   </si>
 </sst>
 </file>
@@ -484,7 +487,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="49">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -757,6 +760,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1182,7 +1191,7 @@
     <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1311,18 +1320,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="11">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="12" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="12" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="12" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="12" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="12">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -1386,6 +1383,69 @@
     <xf numFmtId="169" fontId="11" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="47" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1404,92 +1464,80 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="47" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1548,97 +1596,7 @@
     <cellStyle name="Vérification" xfId="25" builtinId="23" customBuiltin="1"/>
     <cellStyle name="zTexteMasqué" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -1765,15 +1723,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ListeTâches" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="20"/>
-      <tableStyleElement type="headerRow" dxfId="19"/>
-      <tableStyleElement type="totalRow" dxfId="18"/>
-      <tableStyleElement type="firstColumn" dxfId="17"/>
-      <tableStyleElement type="lastColumn" dxfId="16"/>
-      <tableStyleElement type="firstRowStripe" dxfId="15"/>
-      <tableStyleElement type="secondRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="12"/>
+      <tableStyleElement type="wholeTable" dxfId="11"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="totalRow" dxfId="9"/>
+      <tableStyleElement type="firstColumn" dxfId="8"/>
+      <tableStyleElement type="lastColumn" dxfId="7"/>
+      <tableStyleElement type="firstRowStripe" dxfId="6"/>
+      <tableStyleElement type="secondRowStripe" dxfId="5"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="4"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="3"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2132,11 +2090,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL38"/>
+  <dimension ref="A1:BL39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="96" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AK24" sqref="AK24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2158,14 +2116,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="4"/>
       <c r="F1" s="31"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="49" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2176,7 +2134,7 @@
       <c r="B2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="50" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2184,345 +2142,345 @@
       <c r="A3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="107" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="77" t="s">
+      <c r="B3" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="76">
+      <c r="D3" s="95"/>
+      <c r="E3" s="93">
         <f>DATE(2024,2,12)</f>
         <v>45334</v>
       </c>
-      <c r="F3" s="76"/>
+      <c r="F3" s="93"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="106" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="77" t="s">
+      <c r="B4" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="78"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="73">
+      <c r="I4" s="90">
         <f>I5</f>
         <v>45334</v>
       </c>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="73">
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="90">
         <f>P5</f>
         <v>45341</v>
       </c>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="74"/>
-      <c r="U4" s="74"/>
-      <c r="V4" s="75"/>
-      <c r="W4" s="73">
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="91"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="91"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="90">
         <f>W5</f>
         <v>45348</v>
       </c>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="74"/>
-      <c r="AC4" s="75"/>
-      <c r="AD4" s="73">
+      <c r="X4" s="91"/>
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="91"/>
+      <c r="AB4" s="91"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="90">
         <f>AD5</f>
         <v>45355</v>
       </c>
-      <c r="AE4" s="74"/>
-      <c r="AF4" s="74"/>
-      <c r="AG4" s="74"/>
-      <c r="AH4" s="74"/>
-      <c r="AI4" s="74"/>
-      <c r="AJ4" s="75"/>
-      <c r="AK4" s="73">
+      <c r="AE4" s="91"/>
+      <c r="AF4" s="91"/>
+      <c r="AG4" s="91"/>
+      <c r="AH4" s="91"/>
+      <c r="AI4" s="91"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="90">
         <f>AK5</f>
         <v>45362</v>
       </c>
-      <c r="AL4" s="74"/>
-      <c r="AM4" s="74"/>
-      <c r="AN4" s="74"/>
-      <c r="AO4" s="74"/>
-      <c r="AP4" s="74"/>
-      <c r="AQ4" s="75"/>
-      <c r="AR4" s="73">
+      <c r="AL4" s="91"/>
+      <c r="AM4" s="91"/>
+      <c r="AN4" s="91"/>
+      <c r="AO4" s="91"/>
+      <c r="AP4" s="91"/>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="90">
         <f>AR5</f>
         <v>45369</v>
       </c>
-      <c r="AS4" s="74"/>
-      <c r="AT4" s="74"/>
-      <c r="AU4" s="74"/>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="75"/>
-      <c r="AY4" s="73">
+      <c r="AS4" s="91"/>
+      <c r="AT4" s="91"/>
+      <c r="AU4" s="91"/>
+      <c r="AV4" s="91"/>
+      <c r="AW4" s="91"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="90">
         <f>AY5</f>
         <v>45376</v>
       </c>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="74"/>
-      <c r="BC4" s="74"/>
-      <c r="BD4" s="74"/>
-      <c r="BE4" s="75"/>
-      <c r="BF4" s="73">
+      <c r="AZ4" s="91"/>
+      <c r="BA4" s="91"/>
+      <c r="BB4" s="91"/>
+      <c r="BC4" s="91"/>
+      <c r="BD4" s="91"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="90">
         <f>BF5</f>
         <v>45383</v>
       </c>
-      <c r="BG4" s="74"/>
-      <c r="BH4" s="74"/>
-      <c r="BI4" s="74"/>
-      <c r="BJ4" s="74"/>
-      <c r="BK4" s="74"/>
-      <c r="BL4" s="75"/>
+      <c r="BG4" s="91"/>
+      <c r="BH4" s="91"/>
+      <c r="BI4" s="91"/>
+      <c r="BJ4" s="91"/>
+      <c r="BK4" s="91"/>
+      <c r="BL4" s="92"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="I5" s="70">
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="I5" s="66">
         <f>Début_Projet-WEEKDAY(Début_Projet,1)+2+7*(Semaine_Affichage-1)</f>
         <v>45334</v>
       </c>
-      <c r="J5" s="71">
+      <c r="J5" s="67">
         <f>I5+1</f>
         <v>45335</v>
       </c>
-      <c r="K5" s="71">
+      <c r="K5" s="67">
         <f t="shared" ref="K5:AX5" si="0">J5+1</f>
         <v>45336</v>
       </c>
-      <c r="L5" s="71">
+      <c r="L5" s="67">
         <f t="shared" si="0"/>
         <v>45337</v>
       </c>
-      <c r="M5" s="71">
+      <c r="M5" s="67">
         <f t="shared" si="0"/>
         <v>45338</v>
       </c>
-      <c r="N5" s="71">
+      <c r="N5" s="67">
         <f t="shared" si="0"/>
         <v>45339</v>
       </c>
-      <c r="O5" s="72">
+      <c r="O5" s="68">
         <f t="shared" si="0"/>
         <v>45340</v>
       </c>
-      <c r="P5" s="70">
+      <c r="P5" s="66">
         <f>O5+1</f>
         <v>45341</v>
       </c>
-      <c r="Q5" s="71">
+      <c r="Q5" s="67">
         <f>P5+1</f>
         <v>45342</v>
       </c>
-      <c r="R5" s="71">
+      <c r="R5" s="67">
         <f t="shared" si="0"/>
         <v>45343</v>
       </c>
-      <c r="S5" s="71">
+      <c r="S5" s="67">
         <f t="shared" si="0"/>
         <v>45344</v>
       </c>
-      <c r="T5" s="71">
+      <c r="T5" s="67">
         <f t="shared" si="0"/>
         <v>45345</v>
       </c>
-      <c r="U5" s="71">
+      <c r="U5" s="67">
         <f t="shared" si="0"/>
         <v>45346</v>
       </c>
-      <c r="V5" s="72">
+      <c r="V5" s="68">
         <f t="shared" si="0"/>
         <v>45347</v>
       </c>
-      <c r="W5" s="70">
+      <c r="W5" s="66">
         <f>V5+1</f>
         <v>45348</v>
       </c>
-      <c r="X5" s="71">
+      <c r="X5" s="67">
         <f>W5+1</f>
         <v>45349</v>
       </c>
-      <c r="Y5" s="71">
+      <c r="Y5" s="67">
         <f t="shared" si="0"/>
         <v>45350</v>
       </c>
-      <c r="Z5" s="71">
+      <c r="Z5" s="67">
         <f t="shared" si="0"/>
         <v>45351</v>
       </c>
-      <c r="AA5" s="71">
+      <c r="AA5" s="67">
         <f t="shared" si="0"/>
         <v>45352</v>
       </c>
-      <c r="AB5" s="71">
+      <c r="AB5" s="67">
         <f t="shared" si="0"/>
         <v>45353</v>
       </c>
-      <c r="AC5" s="72">
+      <c r="AC5" s="68">
         <f t="shared" si="0"/>
         <v>45354</v>
       </c>
-      <c r="AD5" s="70">
+      <c r="AD5" s="66">
         <f>AC5+1</f>
         <v>45355</v>
       </c>
-      <c r="AE5" s="71">
+      <c r="AE5" s="67">
         <f>AD5+1</f>
         <v>45356</v>
       </c>
-      <c r="AF5" s="71">
+      <c r="AF5" s="67">
         <f t="shared" si="0"/>
         <v>45357</v>
       </c>
-      <c r="AG5" s="71">
+      <c r="AG5" s="67">
         <f t="shared" si="0"/>
         <v>45358</v>
       </c>
-      <c r="AH5" s="71">
+      <c r="AH5" s="67">
         <f t="shared" si="0"/>
         <v>45359</v>
       </c>
-      <c r="AI5" s="71">
+      <c r="AI5" s="67">
         <f t="shared" si="0"/>
         <v>45360</v>
       </c>
-      <c r="AJ5" s="72">
+      <c r="AJ5" s="68">
         <f t="shared" si="0"/>
         <v>45361</v>
       </c>
-      <c r="AK5" s="70">
+      <c r="AK5" s="66">
         <f>AJ5+1</f>
         <v>45362</v>
       </c>
-      <c r="AL5" s="71">
+      <c r="AL5" s="67">
         <f>AK5+1</f>
         <v>45363</v>
       </c>
-      <c r="AM5" s="71">
+      <c r="AM5" s="67">
         <f t="shared" si="0"/>
         <v>45364</v>
       </c>
-      <c r="AN5" s="71">
+      <c r="AN5" s="67">
         <f t="shared" si="0"/>
         <v>45365</v>
       </c>
-      <c r="AO5" s="71">
+      <c r="AO5" s="67">
         <f t="shared" si="0"/>
         <v>45366</v>
       </c>
-      <c r="AP5" s="71">
+      <c r="AP5" s="67">
         <f t="shared" si="0"/>
         <v>45367</v>
       </c>
-      <c r="AQ5" s="72">
+      <c r="AQ5" s="68">
         <f t="shared" si="0"/>
         <v>45368</v>
       </c>
-      <c r="AR5" s="70">
+      <c r="AR5" s="66">
         <f>AQ5+1</f>
         <v>45369</v>
       </c>
-      <c r="AS5" s="71">
+      <c r="AS5" s="67">
         <f>AR5+1</f>
         <v>45370</v>
       </c>
-      <c r="AT5" s="71">
+      <c r="AT5" s="67">
         <f t="shared" si="0"/>
         <v>45371</v>
       </c>
-      <c r="AU5" s="71">
+      <c r="AU5" s="67">
         <f t="shared" si="0"/>
         <v>45372</v>
       </c>
-      <c r="AV5" s="71">
+      <c r="AV5" s="67">
         <f t="shared" si="0"/>
         <v>45373</v>
       </c>
-      <c r="AW5" s="71">
+      <c r="AW5" s="67">
         <f t="shared" si="0"/>
         <v>45374</v>
       </c>
-      <c r="AX5" s="72">
+      <c r="AX5" s="68">
         <f t="shared" si="0"/>
         <v>45375</v>
       </c>
-      <c r="AY5" s="70">
+      <c r="AY5" s="66">
         <f>AX5+1</f>
         <v>45376</v>
       </c>
-      <c r="AZ5" s="71">
+      <c r="AZ5" s="67">
         <f>AY5+1</f>
         <v>45377</v>
       </c>
-      <c r="BA5" s="71">
+      <c r="BA5" s="67">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
         <v>45378</v>
       </c>
-      <c r="BB5" s="71">
+      <c r="BB5" s="67">
         <f t="shared" si="1"/>
         <v>45379</v>
       </c>
-      <c r="BC5" s="71">
+      <c r="BC5" s="67">
         <f t="shared" si="1"/>
         <v>45380</v>
       </c>
-      <c r="BD5" s="71">
+      <c r="BD5" s="67">
         <f t="shared" si="1"/>
         <v>45381</v>
       </c>
-      <c r="BE5" s="72">
+      <c r="BE5" s="68">
         <f t="shared" si="1"/>
         <v>45382</v>
       </c>
-      <c r="BF5" s="70">
+      <c r="BF5" s="66">
         <f>BE5+1</f>
         <v>45383</v>
       </c>
-      <c r="BG5" s="71">
+      <c r="BG5" s="67">
         <f>BF5+1</f>
         <v>45384</v>
       </c>
-      <c r="BH5" s="71">
+      <c r="BH5" s="67">
         <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
         <v>45385</v>
       </c>
-      <c r="BI5" s="71">
+      <c r="BI5" s="67">
         <f t="shared" si="2"/>
         <v>45386</v>
       </c>
-      <c r="BJ5" s="71">
+      <c r="BJ5" s="67">
         <f t="shared" si="2"/>
         <v>45387</v>
       </c>
-      <c r="BK5" s="71">
+      <c r="BK5" s="67">
         <f t="shared" si="2"/>
         <v>45388</v>
       </c>
-      <c r="BL5" s="72">
+      <c r="BL5" s="68">
         <f t="shared" si="2"/>
         <v>45389</v>
       </c>
@@ -2568,11 +2526,11 @@
         <f t="shared" si="3"/>
         <v>v</v>
       </c>
-      <c r="N6" s="102" t="str">
+      <c r="N6" s="74" t="str">
         <f t="shared" si="3"/>
         <v>s</v>
       </c>
-      <c r="O6" s="102" t="str">
+      <c r="O6" s="74" t="str">
         <f t="shared" si="3"/>
         <v>d</v>
       </c>
@@ -2596,11 +2554,11 @@
         <f t="shared" si="3"/>
         <v>v</v>
       </c>
-      <c r="U6" s="102" t="str">
+      <c r="U6" s="74" t="str">
         <f t="shared" si="3"/>
         <v>s</v>
       </c>
-      <c r="V6" s="102" t="str">
+      <c r="V6" s="74" t="str">
         <f t="shared" si="3"/>
         <v>d</v>
       </c>
@@ -2624,11 +2582,11 @@
         <f t="shared" si="3"/>
         <v>v</v>
       </c>
-      <c r="AB6" s="102" t="str">
+      <c r="AB6" s="74" t="str">
         <f t="shared" si="3"/>
         <v>s</v>
       </c>
-      <c r="AC6" s="102" t="str">
+      <c r="AC6" s="74" t="str">
         <f t="shared" si="3"/>
         <v>d</v>
       </c>
@@ -2652,11 +2610,11 @@
         <f t="shared" si="3"/>
         <v>v</v>
       </c>
-      <c r="AI6" s="102" t="str">
+      <c r="AI6" s="74" t="str">
         <f t="shared" si="3"/>
         <v>s</v>
       </c>
-      <c r="AJ6" s="102" t="str">
+      <c r="AJ6" s="74" t="str">
         <f t="shared" si="3"/>
         <v>d</v>
       </c>
@@ -2677,14 +2635,14 @@
         <v>j</v>
       </c>
       <c r="AO6" s="10" t="str">
-        <f t="shared" ref="AO6:BT6" si="4">LEFT(TEXT(AO5,"jjj"),1)</f>
+        <f t="shared" ref="AO6:BL6" si="4">LEFT(TEXT(AO5,"jjj"),1)</f>
         <v>v</v>
       </c>
-      <c r="AP6" s="102" t="str">
+      <c r="AP6" s="74" t="str">
         <f t="shared" si="4"/>
         <v>s</v>
       </c>
-      <c r="AQ6" s="102" t="str">
+      <c r="AQ6" s="74" t="str">
         <f t="shared" si="4"/>
         <v>d</v>
       </c>
@@ -2708,11 +2666,11 @@
         <f t="shared" si="4"/>
         <v>v</v>
       </c>
-      <c r="AW6" s="102" t="str">
+      <c r="AW6" s="74" t="str">
         <f t="shared" si="4"/>
         <v>s</v>
       </c>
-      <c r="AX6" s="102" t="str">
+      <c r="AX6" s="74" t="str">
         <f t="shared" si="4"/>
         <v>d</v>
       </c>
@@ -2736,11 +2694,11 @@
         <f t="shared" si="4"/>
         <v>v</v>
       </c>
-      <c r="BD6" s="102" t="str">
+      <c r="BD6" s="74" t="str">
         <f t="shared" si="4"/>
         <v>s</v>
       </c>
-      <c r="BE6" s="102" t="str">
+      <c r="BE6" s="74" t="str">
         <f t="shared" si="4"/>
         <v>d</v>
       </c>
@@ -2764,11 +2722,11 @@
         <f t="shared" si="4"/>
         <v>v</v>
       </c>
-      <c r="BK6" s="102" t="str">
+      <c r="BK6" s="74" t="str">
         <f t="shared" si="4"/>
         <v>s</v>
       </c>
-      <c r="BL6" s="102" t="str">
+      <c r="BL6" s="74" t="str">
         <f t="shared" si="4"/>
         <v>d</v>
       </c>
@@ -2783,62 +2741,62 @@
         <f>IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
         <v/>
       </c>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="79"/>
-      <c r="R7" s="79"/>
-      <c r="S7" s="79"/>
-      <c r="T7" s="79"/>
-      <c r="U7" s="79"/>
-      <c r="V7" s="79"/>
-      <c r="W7" s="79"/>
-      <c r="X7" s="79"/>
-      <c r="Y7" s="79"/>
-      <c r="Z7" s="79"/>
-      <c r="AA7" s="79"/>
-      <c r="AB7" s="79"/>
-      <c r="AC7" s="79"/>
-      <c r="AD7" s="79"/>
-      <c r="AE7" s="79"/>
-      <c r="AF7" s="79"/>
-      <c r="AG7" s="79"/>
-      <c r="AH7" s="79"/>
-      <c r="AI7" s="79"/>
-      <c r="AJ7" s="79"/>
-      <c r="AK7" s="79"/>
-      <c r="AL7" s="79"/>
-      <c r="AM7" s="79"/>
-      <c r="AN7" s="79"/>
-      <c r="AO7" s="79"/>
-      <c r="AP7" s="79"/>
-      <c r="AQ7" s="79"/>
-      <c r="AR7" s="79"/>
-      <c r="AS7" s="79"/>
-      <c r="AT7" s="79"/>
-      <c r="AU7" s="79"/>
-      <c r="AV7" s="79"/>
-      <c r="AW7" s="79"/>
-      <c r="AX7" s="79"/>
-      <c r="AY7" s="79"/>
-      <c r="AZ7" s="79"/>
-      <c r="BA7" s="79"/>
-      <c r="BB7" s="79"/>
-      <c r="BC7" s="79"/>
-      <c r="BD7" s="79"/>
-      <c r="BE7" s="79"/>
-      <c r="BF7" s="79"/>
-      <c r="BG7" s="79"/>
-      <c r="BH7" s="79"/>
-      <c r="BI7" s="79"/>
-      <c r="BJ7" s="79"/>
-      <c r="BK7" s="79"/>
-      <c r="BL7" s="79"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="69"/>
+      <c r="V7" s="69"/>
+      <c r="W7" s="69"/>
+      <c r="X7" s="69"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="69"/>
+      <c r="AB7" s="69"/>
+      <c r="AC7" s="69"/>
+      <c r="AD7" s="69"/>
+      <c r="AE7" s="69"/>
+      <c r="AF7" s="69"/>
+      <c r="AG7" s="69"/>
+      <c r="AH7" s="69"/>
+      <c r="AI7" s="69"/>
+      <c r="AJ7" s="69"/>
+      <c r="AK7" s="69"/>
+      <c r="AL7" s="69"/>
+      <c r="AM7" s="69"/>
+      <c r="AN7" s="69"/>
+      <c r="AO7" s="69"/>
+      <c r="AP7" s="69"/>
+      <c r="AQ7" s="69"/>
+      <c r="AR7" s="69"/>
+      <c r="AS7" s="69"/>
+      <c r="AT7" s="69"/>
+      <c r="AU7" s="69"/>
+      <c r="AV7" s="69"/>
+      <c r="AW7" s="69"/>
+      <c r="AX7" s="69"/>
+      <c r="AY7" s="69"/>
+      <c r="AZ7" s="69"/>
+      <c r="BA7" s="69"/>
+      <c r="BB7" s="69"/>
+      <c r="BC7" s="69"/>
+      <c r="BD7" s="69"/>
+      <c r="BE7" s="69"/>
+      <c r="BF7" s="69"/>
+      <c r="BG7" s="69"/>
+      <c r="BH7" s="69"/>
+      <c r="BI7" s="69"/>
+      <c r="BJ7" s="69"/>
+      <c r="BK7" s="69"/>
+      <c r="BL7" s="69"/>
     </row>
     <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
@@ -2849,450 +2807,450 @@
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="88"/>
-      <c r="S8" s="88"/>
-      <c r="T8" s="88"/>
-      <c r="U8" s="88"/>
-      <c r="V8" s="88"/>
-      <c r="W8" s="88"/>
-      <c r="X8" s="88"/>
-      <c r="Y8" s="88"/>
-      <c r="Z8" s="88"/>
-      <c r="AA8" s="88"/>
-      <c r="AB8" s="88"/>
-      <c r="AC8" s="89"/>
-      <c r="AD8" s="82"/>
-      <c r="AE8" s="82"/>
-      <c r="AF8" s="82"/>
-      <c r="AG8" s="82"/>
-      <c r="AH8" s="82"/>
-      <c r="AI8" s="96"/>
-      <c r="AJ8" s="97"/>
-      <c r="AK8" s="82"/>
-      <c r="AL8" s="82"/>
-      <c r="AM8" s="82"/>
-      <c r="AN8" s="82"/>
-      <c r="AO8" s="82"/>
-      <c r="AP8" s="96"/>
-      <c r="AQ8" s="97"/>
-      <c r="AR8" s="82"/>
-      <c r="AS8" s="82"/>
-      <c r="AT8" s="82"/>
-      <c r="AU8" s="82"/>
-      <c r="AV8" s="82"/>
-      <c r="AW8" s="96"/>
-      <c r="AX8" s="97"/>
-      <c r="AY8" s="82"/>
-      <c r="AZ8" s="82"/>
-      <c r="BA8" s="82"/>
-      <c r="BB8" s="82"/>
-      <c r="BC8" s="82"/>
-      <c r="BD8" s="96"/>
-      <c r="BE8" s="97"/>
-      <c r="BF8" s="82"/>
-      <c r="BG8" s="82"/>
-      <c r="BH8" s="82"/>
-      <c r="BI8" s="82"/>
-      <c r="BJ8" s="82"/>
-      <c r="BK8" s="96"/>
-      <c r="BL8" s="97"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="115"/>
+      <c r="U8" s="115"/>
+      <c r="V8" s="115"/>
+      <c r="W8" s="115"/>
+      <c r="X8" s="115"/>
+      <c r="Y8" s="115"/>
+      <c r="Z8" s="115"/>
+      <c r="AA8" s="115"/>
+      <c r="AB8" s="115"/>
+      <c r="AC8" s="116"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="72"/>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="72"/>
+      <c r="AI8" s="102"/>
+      <c r="AJ8" s="103"/>
+      <c r="AK8" s="72"/>
+      <c r="AL8" s="72"/>
+      <c r="AM8" s="72"/>
+      <c r="AN8" s="72"/>
+      <c r="AO8" s="72"/>
+      <c r="AP8" s="102"/>
+      <c r="AQ8" s="103"/>
+      <c r="AR8" s="72"/>
+      <c r="AS8" s="72"/>
+      <c r="AT8" s="72"/>
+      <c r="AU8" s="72"/>
+      <c r="AV8" s="72"/>
+      <c r="AW8" s="102"/>
+      <c r="AX8" s="103"/>
+      <c r="AY8" s="72"/>
+      <c r="AZ8" s="72"/>
+      <c r="BA8" s="72"/>
+      <c r="BB8" s="72"/>
+      <c r="BC8" s="72"/>
+      <c r="BD8" s="77"/>
+      <c r="BE8" s="78"/>
+      <c r="BF8" s="72"/>
+      <c r="BG8" s="72"/>
+      <c r="BH8" s="72"/>
+      <c r="BI8" s="72"/>
+      <c r="BJ8" s="72"/>
+      <c r="BK8" s="77"/>
+      <c r="BL8" s="78"/>
     </row>
     <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="120" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="39"/>
       <c r="D9" s="16">
         <v>1</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="53">
         <f>Début_Projet</f>
         <v>45334</v>
       </c>
-      <c r="F9" s="57">
-        <f>E9+3</f>
-        <v>45337</v>
-      </c>
-      <c r="G9" s="82"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="82"/>
-      <c r="T9" s="82"/>
-      <c r="U9" s="96"/>
-      <c r="V9" s="97"/>
-      <c r="W9" s="82"/>
-      <c r="X9" s="82"/>
-      <c r="Y9" s="82"/>
-      <c r="Z9" s="82"/>
-      <c r="AA9" s="82"/>
-      <c r="AB9" s="96"/>
-      <c r="AC9" s="97"/>
-      <c r="AD9" s="82"/>
-      <c r="AE9" s="82"/>
-      <c r="AF9" s="82"/>
-      <c r="AG9" s="82"/>
-      <c r="AH9" s="82"/>
-      <c r="AI9" s="98"/>
-      <c r="AJ9" s="99"/>
-      <c r="AK9" s="82"/>
-      <c r="AL9" s="82"/>
-      <c r="AM9" s="82"/>
-      <c r="AN9" s="82"/>
-      <c r="AO9" s="82"/>
-      <c r="AP9" s="98"/>
-      <c r="AQ9" s="99"/>
-      <c r="AR9" s="82"/>
-      <c r="AS9" s="82"/>
-      <c r="AT9" s="82"/>
-      <c r="AU9" s="82"/>
-      <c r="AV9" s="82"/>
-      <c r="AW9" s="98"/>
-      <c r="AX9" s="99"/>
-      <c r="AY9" s="82"/>
-      <c r="AZ9" s="82"/>
-      <c r="BA9" s="82"/>
-      <c r="BB9" s="82"/>
-      <c r="BC9" s="82"/>
-      <c r="BD9" s="98"/>
-      <c r="BE9" s="99"/>
-      <c r="BF9" s="82"/>
-      <c r="BG9" s="82"/>
-      <c r="BH9" s="82"/>
-      <c r="BI9" s="82"/>
-      <c r="BJ9" s="82"/>
-      <c r="BK9" s="98"/>
-      <c r="BL9" s="99"/>
+      <c r="F9" s="53">
+        <f>E9+4</f>
+        <v>45338</v>
+      </c>
+      <c r="G9" s="72"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="102"/>
+      <c r="V9" s="103"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="72"/>
+      <c r="AB9" s="102"/>
+      <c r="AC9" s="103"/>
+      <c r="AD9" s="72"/>
+      <c r="AE9" s="72"/>
+      <c r="AF9" s="72"/>
+      <c r="AG9" s="72"/>
+      <c r="AH9" s="72"/>
+      <c r="AI9" s="104"/>
+      <c r="AJ9" s="105"/>
+      <c r="AK9" s="72"/>
+      <c r="AL9" s="72"/>
+      <c r="AM9" s="72"/>
+      <c r="AN9" s="72"/>
+      <c r="AO9" s="72"/>
+      <c r="AP9" s="104"/>
+      <c r="AQ9" s="105"/>
+      <c r="AR9" s="72"/>
+      <c r="AS9" s="72"/>
+      <c r="AT9" s="72"/>
+      <c r="AU9" s="72"/>
+      <c r="AV9" s="72"/>
+      <c r="AW9" s="104"/>
+      <c r="AX9" s="105"/>
+      <c r="AY9" s="72"/>
+      <c r="AZ9" s="72"/>
+      <c r="BA9" s="72"/>
+      <c r="BB9" s="72"/>
+      <c r="BC9" s="72"/>
+      <c r="BD9" s="79"/>
+      <c r="BE9" s="80"/>
+      <c r="BF9" s="72"/>
+      <c r="BG9" s="72"/>
+      <c r="BH9" s="72"/>
+      <c r="BI9" s="72"/>
+      <c r="BJ9" s="72"/>
+      <c r="BK9" s="79"/>
+      <c r="BL9" s="80"/>
     </row>
     <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="120" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="39"/>
       <c r="D10" s="16">
         <v>1</v>
       </c>
-      <c r="E10" s="57">
-        <f>F9</f>
-        <v>45337</v>
-      </c>
-      <c r="F10" s="57">
-        <f>E10+2</f>
-        <v>45339</v>
-      </c>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="98"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="82"/>
-      <c r="T10" s="82"/>
-      <c r="U10" s="98"/>
-      <c r="V10" s="99"/>
-      <c r="W10" s="82"/>
-      <c r="X10" s="82"/>
-      <c r="Y10" s="82"/>
-      <c r="Z10" s="82"/>
-      <c r="AA10" s="82"/>
-      <c r="AB10" s="98"/>
-      <c r="AC10" s="99"/>
-      <c r="AD10" s="82"/>
-      <c r="AE10" s="82"/>
-      <c r="AF10" s="82"/>
-      <c r="AG10" s="82"/>
-      <c r="AH10" s="82"/>
-      <c r="AI10" s="98"/>
-      <c r="AJ10" s="99"/>
-      <c r="AK10" s="82"/>
-      <c r="AL10" s="82"/>
-      <c r="AM10" s="82"/>
-      <c r="AN10" s="82"/>
-      <c r="AO10" s="82"/>
-      <c r="AP10" s="98"/>
-      <c r="AQ10" s="99"/>
-      <c r="AR10" s="82"/>
-      <c r="AS10" s="82"/>
-      <c r="AT10" s="82"/>
-      <c r="AU10" s="82"/>
-      <c r="AV10" s="82"/>
-      <c r="AW10" s="98"/>
-      <c r="AX10" s="99"/>
-      <c r="AY10" s="82"/>
-      <c r="AZ10" s="82"/>
-      <c r="BA10" s="82"/>
-      <c r="BB10" s="82"/>
-      <c r="BC10" s="82"/>
-      <c r="BD10" s="98"/>
-      <c r="BE10" s="99"/>
-      <c r="BF10" s="82"/>
-      <c r="BG10" s="82"/>
-      <c r="BH10" s="82"/>
-      <c r="BI10" s="82"/>
-      <c r="BJ10" s="82"/>
-      <c r="BK10" s="98"/>
-      <c r="BL10" s="99"/>
+      <c r="E10" s="53">
+        <f>Début_Projet</f>
+        <v>45334</v>
+      </c>
+      <c r="F10" s="53">
+        <f>E10+4</f>
+        <v>45338</v>
+      </c>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="105"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="104"/>
+      <c r="V10" s="105"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="72"/>
+      <c r="Z10" s="72"/>
+      <c r="AA10" s="72"/>
+      <c r="AB10" s="104"/>
+      <c r="AC10" s="105"/>
+      <c r="AD10" s="72"/>
+      <c r="AE10" s="72"/>
+      <c r="AF10" s="72"/>
+      <c r="AG10" s="72"/>
+      <c r="AH10" s="72"/>
+      <c r="AI10" s="104"/>
+      <c r="AJ10" s="105"/>
+      <c r="AK10" s="72"/>
+      <c r="AL10" s="72"/>
+      <c r="AM10" s="72"/>
+      <c r="AN10" s="72"/>
+      <c r="AO10" s="72"/>
+      <c r="AP10" s="104"/>
+      <c r="AQ10" s="105"/>
+      <c r="AR10" s="72"/>
+      <c r="AS10" s="72"/>
+      <c r="AT10" s="72"/>
+      <c r="AU10" s="72"/>
+      <c r="AV10" s="72"/>
+      <c r="AW10" s="104"/>
+      <c r="AX10" s="105"/>
+      <c r="AY10" s="72"/>
+      <c r="AZ10" s="72"/>
+      <c r="BA10" s="72"/>
+      <c r="BB10" s="72"/>
+      <c r="BC10" s="72"/>
+      <c r="BD10" s="79"/>
+      <c r="BE10" s="80"/>
+      <c r="BF10" s="72"/>
+      <c r="BG10" s="72"/>
+      <c r="BH10" s="72"/>
+      <c r="BI10" s="72"/>
+      <c r="BJ10" s="72"/>
+      <c r="BK10" s="79"/>
+      <c r="BL10" s="80"/>
     </row>
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="32"/>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="120" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="16">
         <v>1</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="53">
         <f>F10</f>
-        <v>45339</v>
-      </c>
-      <c r="F11" s="57">
-        <f>E11+4</f>
+        <v>45338</v>
+      </c>
+      <c r="F11" s="53">
+        <f>E11+5</f>
         <v>45343</v>
       </c>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="86"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="82"/>
-      <c r="U11" s="98"/>
-      <c r="V11" s="99"/>
-      <c r="W11" s="82"/>
-      <c r="X11" s="82"/>
-      <c r="Y11" s="82"/>
-      <c r="Z11" s="82"/>
-      <c r="AA11" s="82"/>
-      <c r="AB11" s="98"/>
-      <c r="AC11" s="99"/>
-      <c r="AD11" s="82"/>
-      <c r="AE11" s="82"/>
-      <c r="AF11" s="82"/>
-      <c r="AG11" s="82"/>
-      <c r="AH11" s="82"/>
-      <c r="AI11" s="98"/>
-      <c r="AJ11" s="99"/>
-      <c r="AK11" s="82"/>
-      <c r="AL11" s="82"/>
-      <c r="AM11" s="82"/>
-      <c r="AN11" s="82"/>
-      <c r="AO11" s="82"/>
-      <c r="AP11" s="98"/>
-      <c r="AQ11" s="99"/>
-      <c r="AR11" s="82"/>
-      <c r="AS11" s="82"/>
-      <c r="AT11" s="82"/>
-      <c r="AU11" s="82"/>
-      <c r="AV11" s="82"/>
-      <c r="AW11" s="98"/>
-      <c r="AX11" s="99"/>
-      <c r="AY11" s="82"/>
-      <c r="AZ11" s="82"/>
-      <c r="BA11" s="82"/>
-      <c r="BB11" s="82"/>
-      <c r="BC11" s="82"/>
-      <c r="BD11" s="98"/>
-      <c r="BE11" s="99"/>
-      <c r="BF11" s="82"/>
-      <c r="BG11" s="82"/>
-      <c r="BH11" s="82"/>
-      <c r="BI11" s="82"/>
-      <c r="BJ11" s="82"/>
-      <c r="BK11" s="98"/>
-      <c r="BL11" s="99"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="105"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="98"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="104"/>
+      <c r="V11" s="105"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="72"/>
+      <c r="Y11" s="72"/>
+      <c r="Z11" s="72"/>
+      <c r="AA11" s="72"/>
+      <c r="AB11" s="104"/>
+      <c r="AC11" s="105"/>
+      <c r="AD11" s="72"/>
+      <c r="AE11" s="72"/>
+      <c r="AF11" s="72"/>
+      <c r="AG11" s="72"/>
+      <c r="AH11" s="72"/>
+      <c r="AI11" s="104"/>
+      <c r="AJ11" s="105"/>
+      <c r="AK11" s="72"/>
+      <c r="AL11" s="72"/>
+      <c r="AM11" s="72"/>
+      <c r="AN11" s="72"/>
+      <c r="AO11" s="72"/>
+      <c r="AP11" s="104"/>
+      <c r="AQ11" s="105"/>
+      <c r="AR11" s="72"/>
+      <c r="AS11" s="72"/>
+      <c r="AT11" s="72"/>
+      <c r="AU11" s="72"/>
+      <c r="AV11" s="72"/>
+      <c r="AW11" s="104"/>
+      <c r="AX11" s="105"/>
+      <c r="AY11" s="72"/>
+      <c r="AZ11" s="72"/>
+      <c r="BA11" s="72"/>
+      <c r="BB11" s="72"/>
+      <c r="BC11" s="72"/>
+      <c r="BD11" s="79"/>
+      <c r="BE11" s="80"/>
+      <c r="BF11" s="72"/>
+      <c r="BG11" s="72"/>
+      <c r="BH11" s="72"/>
+      <c r="BI11" s="72"/>
+      <c r="BJ11" s="72"/>
+      <c r="BK11" s="79"/>
+      <c r="BL11" s="80"/>
     </row>
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="32"/>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="120" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="39"/>
       <c r="D12" s="16">
         <v>1</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="53">
         <f>F11</f>
         <v>45343</v>
       </c>
-      <c r="F12" s="57">
+      <c r="F12" s="53">
         <f>E12+5</f>
         <v>45348</v>
       </c>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="84"/>
-      <c r="S12" s="85"/>
-      <c r="T12" s="86"/>
-      <c r="U12" s="98"/>
-      <c r="V12" s="99"/>
-      <c r="W12" s="82"/>
-      <c r="X12" s="82"/>
-      <c r="Y12" s="82"/>
-      <c r="Z12" s="82"/>
-      <c r="AA12" s="82"/>
-      <c r="AB12" s="98"/>
-      <c r="AC12" s="99"/>
-      <c r="AD12" s="82"/>
-      <c r="AE12" s="82"/>
-      <c r="AF12" s="82"/>
-      <c r="AG12" s="82"/>
-      <c r="AH12" s="82"/>
-      <c r="AI12" s="98"/>
-      <c r="AJ12" s="99"/>
-      <c r="AK12" s="82"/>
-      <c r="AL12" s="82"/>
-      <c r="AM12" s="82"/>
-      <c r="AN12" s="82"/>
-      <c r="AO12" s="82"/>
-      <c r="AP12" s="98"/>
-      <c r="AQ12" s="99"/>
-      <c r="AR12" s="82"/>
-      <c r="AS12" s="82"/>
-      <c r="AT12" s="82"/>
-      <c r="AU12" s="82"/>
-      <c r="AV12" s="82"/>
-      <c r="AW12" s="98"/>
-      <c r="AX12" s="99"/>
-      <c r="AY12" s="82"/>
-      <c r="AZ12" s="82"/>
-      <c r="BA12" s="82"/>
-      <c r="BB12" s="82"/>
-      <c r="BC12" s="82"/>
-      <c r="BD12" s="98"/>
-      <c r="BE12" s="99"/>
-      <c r="BF12" s="82"/>
-      <c r="BG12" s="82"/>
-      <c r="BH12" s="82"/>
-      <c r="BI12" s="82"/>
-      <c r="BJ12" s="82"/>
-      <c r="BK12" s="98"/>
-      <c r="BL12" s="99"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="105"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="96"/>
+      <c r="S12" s="97"/>
+      <c r="T12" s="98"/>
+      <c r="U12" s="104"/>
+      <c r="V12" s="105"/>
+      <c r="W12" s="72"/>
+      <c r="X12" s="72"/>
+      <c r="Y12" s="72"/>
+      <c r="Z12" s="72"/>
+      <c r="AA12" s="72"/>
+      <c r="AB12" s="104"/>
+      <c r="AC12" s="105"/>
+      <c r="AD12" s="72"/>
+      <c r="AE12" s="72"/>
+      <c r="AF12" s="72"/>
+      <c r="AG12" s="72"/>
+      <c r="AH12" s="72"/>
+      <c r="AI12" s="104"/>
+      <c r="AJ12" s="105"/>
+      <c r="AK12" s="72"/>
+      <c r="AL12" s="72"/>
+      <c r="AM12" s="72"/>
+      <c r="AN12" s="72"/>
+      <c r="AO12" s="72"/>
+      <c r="AP12" s="104"/>
+      <c r="AQ12" s="105"/>
+      <c r="AR12" s="72"/>
+      <c r="AS12" s="72"/>
+      <c r="AT12" s="72"/>
+      <c r="AU12" s="72"/>
+      <c r="AV12" s="72"/>
+      <c r="AW12" s="104"/>
+      <c r="AX12" s="105"/>
+      <c r="AY12" s="72"/>
+      <c r="AZ12" s="72"/>
+      <c r="BA12" s="72"/>
+      <c r="BB12" s="72"/>
+      <c r="BC12" s="72"/>
+      <c r="BD12" s="79"/>
+      <c r="BE12" s="80"/>
+      <c r="BF12" s="72"/>
+      <c r="BG12" s="72"/>
+      <c r="BH12" s="72"/>
+      <c r="BI12" s="72"/>
+      <c r="BJ12" s="72"/>
+      <c r="BK12" s="79"/>
+      <c r="BL12" s="80"/>
     </row>
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="32"/>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="120" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="16">
-        <v>0.7</v>
-      </c>
-      <c r="E13" s="57">
-        <f>E10+1</f>
-        <v>45338</v>
-      </c>
-      <c r="F13" s="57">
-        <f>E13+2</f>
-        <v>45340</v>
-      </c>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="85"/>
-      <c r="T13" s="86"/>
-      <c r="U13" s="98"/>
-      <c r="V13" s="99"/>
-      <c r="W13" s="90"/>
-      <c r="X13" s="91"/>
-      <c r="Y13" s="91"/>
-      <c r="Z13" s="91"/>
-      <c r="AA13" s="92"/>
-      <c r="AB13" s="98"/>
-      <c r="AC13" s="99"/>
-      <c r="AD13" s="82"/>
-      <c r="AE13" s="82"/>
-      <c r="AF13" s="82"/>
-      <c r="AG13" s="82"/>
-      <c r="AH13" s="82"/>
-      <c r="AI13" s="98"/>
-      <c r="AJ13" s="99"/>
-      <c r="AK13" s="82"/>
-      <c r="AL13" s="82"/>
-      <c r="AM13" s="82"/>
-      <c r="AN13" s="82"/>
-      <c r="AO13" s="82"/>
-      <c r="AP13" s="98"/>
-      <c r="AQ13" s="99"/>
-      <c r="AR13" s="82"/>
-      <c r="AS13" s="82"/>
-      <c r="AT13" s="82"/>
-      <c r="AU13" s="82"/>
-      <c r="AV13" s="82"/>
-      <c r="AW13" s="98"/>
-      <c r="AX13" s="99"/>
-      <c r="AY13" s="82"/>
-      <c r="AZ13" s="82"/>
-      <c r="BA13" s="82"/>
-      <c r="BB13" s="82"/>
-      <c r="BC13" s="82"/>
-      <c r="BD13" s="98"/>
-      <c r="BE13" s="99"/>
-      <c r="BF13" s="82"/>
-      <c r="BG13" s="82"/>
-      <c r="BH13" s="82"/>
-      <c r="BI13" s="82"/>
-      <c r="BJ13" s="82"/>
-      <c r="BK13" s="98"/>
-      <c r="BL13" s="99"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="53">
+        <f>E12</f>
+        <v>45343</v>
+      </c>
+      <c r="F13" s="53">
+        <f>E13+9</f>
+        <v>45352</v>
+      </c>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="106"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="96"/>
+      <c r="S13" s="97"/>
+      <c r="T13" s="98"/>
+      <c r="U13" s="104"/>
+      <c r="V13" s="105"/>
+      <c r="W13" s="89"/>
+      <c r="X13" s="88"/>
+      <c r="Y13" s="88"/>
+      <c r="Z13" s="88"/>
+      <c r="AA13" s="88"/>
+      <c r="AB13" s="104"/>
+      <c r="AC13" s="105"/>
+      <c r="AD13" s="72"/>
+      <c r="AE13" s="72"/>
+      <c r="AF13" s="72"/>
+      <c r="AG13" s="72"/>
+      <c r="AH13" s="72"/>
+      <c r="AI13" s="104"/>
+      <c r="AJ13" s="105"/>
+      <c r="AK13" s="72"/>
+      <c r="AL13" s="72"/>
+      <c r="AM13" s="72"/>
+      <c r="AN13" s="72"/>
+      <c r="AO13" s="72"/>
+      <c r="AP13" s="104"/>
+      <c r="AQ13" s="105"/>
+      <c r="AR13" s="72"/>
+      <c r="AS13" s="72"/>
+      <c r="AT13" s="72"/>
+      <c r="AU13" s="72"/>
+      <c r="AV13" s="72"/>
+      <c r="AW13" s="104"/>
+      <c r="AX13" s="105"/>
+      <c r="AY13" s="72"/>
+      <c r="AZ13" s="72"/>
+      <c r="BA13" s="72"/>
+      <c r="BB13" s="72"/>
+      <c r="BC13" s="72"/>
+      <c r="BD13" s="79"/>
+      <c r="BE13" s="80"/>
+      <c r="BF13" s="72"/>
+      <c r="BG13" s="72"/>
+      <c r="BH13" s="72"/>
+      <c r="BI13" s="72"/>
+      <c r="BJ13" s="72"/>
+      <c r="BK13" s="79"/>
+      <c r="BL13" s="80"/>
     </row>
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
@@ -3303,1640 +3261,1688 @@
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="94"/>
-      <c r="T14" s="95"/>
-      <c r="U14" s="98"/>
-      <c r="V14" s="99"/>
-      <c r="W14" s="82"/>
-      <c r="X14" s="82"/>
-      <c r="Y14" s="82"/>
-      <c r="Z14" s="82"/>
-      <c r="AA14" s="82"/>
-      <c r="AB14" s="98"/>
-      <c r="AC14" s="99"/>
-      <c r="AD14" s="82"/>
-      <c r="AE14" s="82"/>
-      <c r="AF14" s="82"/>
-      <c r="AG14" s="82"/>
-      <c r="AH14" s="82"/>
-      <c r="AI14" s="98"/>
-      <c r="AJ14" s="99"/>
-      <c r="AK14" s="82"/>
-      <c r="AL14" s="82"/>
-      <c r="AM14" s="82"/>
-      <c r="AN14" s="82"/>
-      <c r="AO14" s="82"/>
-      <c r="AP14" s="98"/>
-      <c r="AQ14" s="99"/>
-      <c r="AR14" s="82"/>
-      <c r="AS14" s="82"/>
-      <c r="AT14" s="82"/>
-      <c r="AU14" s="82"/>
-      <c r="AV14" s="82"/>
-      <c r="AW14" s="98"/>
-      <c r="AX14" s="99"/>
-      <c r="AY14" s="82"/>
-      <c r="AZ14" s="82"/>
-      <c r="BA14" s="82"/>
-      <c r="BB14" s="82"/>
-      <c r="BC14" s="82"/>
-      <c r="BD14" s="98"/>
-      <c r="BE14" s="99"/>
-      <c r="BF14" s="82"/>
-      <c r="BG14" s="82"/>
-      <c r="BH14" s="82"/>
-      <c r="BI14" s="82"/>
-      <c r="BJ14" s="82"/>
-      <c r="BK14" s="98"/>
-      <c r="BL14" s="99"/>
+        <v>56</v>
+      </c>
+      <c r="E14" s="54"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="100"/>
+      <c r="P14" s="100"/>
+      <c r="Q14" s="100"/>
+      <c r="R14" s="100"/>
+      <c r="S14" s="100"/>
+      <c r="T14" s="101"/>
+      <c r="U14" s="104"/>
+      <c r="V14" s="105"/>
+      <c r="W14" s="72"/>
+      <c r="X14" s="72"/>
+      <c r="Y14" s="72"/>
+      <c r="Z14" s="72"/>
+      <c r="AA14" s="72"/>
+      <c r="AB14" s="104"/>
+      <c r="AC14" s="105"/>
+      <c r="AD14" s="72"/>
+      <c r="AE14" s="72"/>
+      <c r="AF14" s="72"/>
+      <c r="AG14" s="72"/>
+      <c r="AH14" s="72"/>
+      <c r="AI14" s="104"/>
+      <c r="AJ14" s="105"/>
+      <c r="AK14" s="72"/>
+      <c r="AL14" s="72"/>
+      <c r="AM14" s="72"/>
+      <c r="AN14" s="72"/>
+      <c r="AO14" s="72"/>
+      <c r="AP14" s="104"/>
+      <c r="AQ14" s="105"/>
+      <c r="AR14" s="72"/>
+      <c r="AS14" s="72"/>
+      <c r="AT14" s="72"/>
+      <c r="AU14" s="72"/>
+      <c r="AV14" s="72"/>
+      <c r="AW14" s="104"/>
+      <c r="AX14" s="105"/>
+      <c r="AY14" s="72"/>
+      <c r="AZ14" s="72"/>
+      <c r="BA14" s="72"/>
+      <c r="BB14" s="72"/>
+      <c r="BC14" s="72"/>
+      <c r="BD14" s="79"/>
+      <c r="BE14" s="80"/>
+      <c r="BF14" s="72"/>
+      <c r="BG14" s="72"/>
+      <c r="BH14" s="72"/>
+      <c r="BI14" s="72"/>
+      <c r="BJ14" s="72"/>
+      <c r="BK14" s="79"/>
+      <c r="BL14" s="80"/>
     </row>
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33"/>
-      <c r="B15" s="48" t="s">
-        <v>53</v>
+      <c r="B15" s="117" t="s">
+        <v>51</v>
       </c>
       <c r="C15" s="41"/>
       <c r="D15" s="19">
         <v>1</v>
       </c>
-      <c r="E15" s="60">
-        <f>E13+1</f>
-        <v>45339</v>
-      </c>
-      <c r="F15" s="60">
-        <f>E15+4</f>
-        <v>45343</v>
-      </c>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="96"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="82"/>
-      <c r="S15" s="82"/>
-      <c r="T15" s="82"/>
-      <c r="U15" s="98"/>
-      <c r="V15" s="99"/>
-      <c r="W15" s="82"/>
-      <c r="X15" s="82"/>
-      <c r="Y15" s="82"/>
-      <c r="Z15" s="82"/>
-      <c r="AA15" s="82"/>
-      <c r="AB15" s="98"/>
-      <c r="AC15" s="99"/>
-      <c r="AD15" s="82"/>
-      <c r="AE15" s="82"/>
-      <c r="AF15" s="82"/>
-      <c r="AG15" s="82"/>
-      <c r="AH15" s="82"/>
-      <c r="AI15" s="98"/>
-      <c r="AJ15" s="99"/>
-      <c r="AK15" s="82"/>
-      <c r="AL15" s="82"/>
-      <c r="AM15" s="82"/>
-      <c r="AN15" s="82"/>
-      <c r="AO15" s="82"/>
-      <c r="AP15" s="98"/>
-      <c r="AQ15" s="99"/>
-      <c r="AR15" s="82"/>
-      <c r="AS15" s="82"/>
-      <c r="AT15" s="82"/>
-      <c r="AU15" s="82"/>
-      <c r="AV15" s="82"/>
-      <c r="AW15" s="98"/>
-      <c r="AX15" s="99"/>
-      <c r="AY15" s="82"/>
-      <c r="AZ15" s="82"/>
-      <c r="BA15" s="82"/>
-      <c r="BB15" s="82"/>
-      <c r="BC15" s="82"/>
-      <c r="BD15" s="98"/>
-      <c r="BE15" s="99"/>
-      <c r="BF15" s="82"/>
-      <c r="BG15" s="82"/>
-      <c r="BH15" s="82"/>
-      <c r="BI15" s="82"/>
-      <c r="BJ15" s="82"/>
-      <c r="BK15" s="98"/>
-      <c r="BL15" s="99"/>
+      <c r="E15" s="56">
+        <f>E11</f>
+        <v>45338</v>
+      </c>
+      <c r="F15" s="56">
+        <f>E15</f>
+        <v>45338</v>
+      </c>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="102"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="104"/>
+      <c r="V15" s="105"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="72"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="72"/>
+      <c r="AA15" s="72"/>
+      <c r="AB15" s="104"/>
+      <c r="AC15" s="105"/>
+      <c r="AD15" s="72"/>
+      <c r="AE15" s="72"/>
+      <c r="AF15" s="72"/>
+      <c r="AG15" s="72"/>
+      <c r="AH15" s="72"/>
+      <c r="AI15" s="104"/>
+      <c r="AJ15" s="105"/>
+      <c r="AK15" s="72"/>
+      <c r="AL15" s="72"/>
+      <c r="AM15" s="72"/>
+      <c r="AN15" s="72"/>
+      <c r="AO15" s="72"/>
+      <c r="AP15" s="104"/>
+      <c r="AQ15" s="105"/>
+      <c r="AR15" s="72"/>
+      <c r="AS15" s="72"/>
+      <c r="AT15" s="72"/>
+      <c r="AU15" s="72"/>
+      <c r="AV15" s="72"/>
+      <c r="AW15" s="104"/>
+      <c r="AX15" s="105"/>
+      <c r="AY15" s="72"/>
+      <c r="AZ15" s="72"/>
+      <c r="BA15" s="72"/>
+      <c r="BB15" s="72"/>
+      <c r="BC15" s="72"/>
+      <c r="BD15" s="79"/>
+      <c r="BE15" s="80"/>
+      <c r="BF15" s="72"/>
+      <c r="BG15" s="72"/>
+      <c r="BH15" s="72"/>
+      <c r="BI15" s="72"/>
+      <c r="BJ15" s="72"/>
+      <c r="BK15" s="79"/>
+      <c r="BL15" s="80"/>
     </row>
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="32"/>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="117" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="41"/>
       <c r="D16" s="19">
         <v>1</v>
       </c>
-      <c r="E16" s="60">
-        <f>E15+2</f>
-        <v>45341</v>
-      </c>
-      <c r="F16" s="60">
-        <f>E16+5</f>
-        <v>45346</v>
-      </c>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="82"/>
-      <c r="Q16" s="82"/>
-      <c r="R16" s="82"/>
-      <c r="S16" s="82"/>
-      <c r="T16" s="82"/>
-      <c r="U16" s="98"/>
-      <c r="V16" s="99"/>
-      <c r="W16" s="82"/>
-      <c r="X16" s="82"/>
-      <c r="Y16" s="82"/>
-      <c r="Z16" s="82"/>
-      <c r="AA16" s="82"/>
-      <c r="AB16" s="98"/>
-      <c r="AC16" s="99"/>
-      <c r="AD16" s="82"/>
-      <c r="AE16" s="82"/>
-      <c r="AF16" s="82"/>
-      <c r="AG16" s="82"/>
-      <c r="AH16" s="82"/>
-      <c r="AI16" s="98"/>
-      <c r="AJ16" s="99"/>
-      <c r="AK16" s="82"/>
-      <c r="AL16" s="82"/>
-      <c r="AM16" s="82"/>
-      <c r="AN16" s="82"/>
-      <c r="AO16" s="82"/>
-      <c r="AP16" s="98"/>
-      <c r="AQ16" s="99"/>
-      <c r="AR16" s="82"/>
-      <c r="AS16" s="82"/>
-      <c r="AT16" s="82"/>
-      <c r="AU16" s="82"/>
-      <c r="AV16" s="82"/>
-      <c r="AW16" s="98"/>
-      <c r="AX16" s="99"/>
-      <c r="AY16" s="82"/>
-      <c r="AZ16" s="82"/>
-      <c r="BA16" s="82"/>
-      <c r="BB16" s="82"/>
-      <c r="BC16" s="82"/>
-      <c r="BD16" s="98"/>
-      <c r="BE16" s="99"/>
-      <c r="BF16" s="82"/>
-      <c r="BG16" s="82"/>
-      <c r="BH16" s="82"/>
-      <c r="BI16" s="82"/>
-      <c r="BJ16" s="82"/>
-      <c r="BK16" s="98"/>
-      <c r="BL16" s="99"/>
+      <c r="E16" s="56">
+        <f>E15</f>
+        <v>45338</v>
+      </c>
+      <c r="F16" s="56">
+        <f>E16</f>
+        <v>45338</v>
+      </c>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="105"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="104"/>
+      <c r="V16" s="105"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="104"/>
+      <c r="AC16" s="105"/>
+      <c r="AD16" s="72"/>
+      <c r="AE16" s="72"/>
+      <c r="AF16" s="72"/>
+      <c r="AG16" s="72"/>
+      <c r="AH16" s="72"/>
+      <c r="AI16" s="104"/>
+      <c r="AJ16" s="105"/>
+      <c r="AK16" s="72"/>
+      <c r="AL16" s="72"/>
+      <c r="AM16" s="72"/>
+      <c r="AN16" s="72"/>
+      <c r="AO16" s="72"/>
+      <c r="AP16" s="104"/>
+      <c r="AQ16" s="105"/>
+      <c r="AR16" s="72"/>
+      <c r="AS16" s="72"/>
+      <c r="AT16" s="72"/>
+      <c r="AU16" s="72"/>
+      <c r="AV16" s="72"/>
+      <c r="AW16" s="104"/>
+      <c r="AX16" s="105"/>
+      <c r="AY16" s="72"/>
+      <c r="AZ16" s="72"/>
+      <c r="BA16" s="72"/>
+      <c r="BB16" s="72"/>
+      <c r="BC16" s="72"/>
+      <c r="BD16" s="79"/>
+      <c r="BE16" s="80"/>
+      <c r="BF16" s="72"/>
+      <c r="BG16" s="72"/>
+      <c r="BH16" s="72"/>
+      <c r="BI16" s="72"/>
+      <c r="BJ16" s="72"/>
+      <c r="BK16" s="79"/>
+      <c r="BL16" s="80"/>
     </row>
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="32"/>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="117" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="41"/>
       <c r="D17" s="19">
         <v>1</v>
       </c>
-      <c r="E17" s="60">
-        <f>F16</f>
-        <v>45346</v>
-      </c>
-      <c r="F17" s="60">
-        <f>E17+3</f>
-        <v>45349</v>
-      </c>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="98"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="82"/>
-      <c r="S17" s="82"/>
-      <c r="T17" s="82"/>
-      <c r="U17" s="98"/>
-      <c r="V17" s="99"/>
-      <c r="W17" s="82"/>
-      <c r="X17" s="82"/>
-      <c r="Y17" s="82"/>
-      <c r="Z17" s="82"/>
-      <c r="AA17" s="82"/>
-      <c r="AB17" s="98"/>
-      <c r="AC17" s="99"/>
-      <c r="AD17" s="82"/>
-      <c r="AE17" s="82"/>
-      <c r="AF17" s="82"/>
-      <c r="AG17" s="82"/>
-      <c r="AH17" s="82"/>
-      <c r="AI17" s="98"/>
-      <c r="AJ17" s="99"/>
-      <c r="AK17" s="82"/>
-      <c r="AL17" s="82"/>
-      <c r="AM17" s="82"/>
-      <c r="AN17" s="82"/>
-      <c r="AO17" s="82"/>
-      <c r="AP17" s="98"/>
-      <c r="AQ17" s="99"/>
-      <c r="AR17" s="82"/>
-      <c r="AS17" s="82"/>
-      <c r="AT17" s="82"/>
-      <c r="AU17" s="82"/>
-      <c r="AV17" s="82"/>
-      <c r="AW17" s="98"/>
-      <c r="AX17" s="99"/>
-      <c r="AY17" s="82"/>
-      <c r="AZ17" s="82"/>
-      <c r="BA17" s="82"/>
-      <c r="BB17" s="82"/>
-      <c r="BC17" s="82"/>
-      <c r="BD17" s="98"/>
-      <c r="BE17" s="99"/>
-      <c r="BF17" s="82"/>
-      <c r="BG17" s="82"/>
-      <c r="BH17" s="82"/>
-      <c r="BI17" s="82"/>
-      <c r="BJ17" s="82"/>
-      <c r="BK17" s="98"/>
-      <c r="BL17" s="99"/>
+      <c r="E17" s="56">
+        <f>F16+3</f>
+        <v>45341</v>
+      </c>
+      <c r="F17" s="56">
+        <f>E17+1</f>
+        <v>45342</v>
+      </c>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="105"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="98"/>
+      <c r="R17" s="72"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="104"/>
+      <c r="V17" s="105"/>
+      <c r="W17" s="72"/>
+      <c r="X17" s="72"/>
+      <c r="Y17" s="72"/>
+      <c r="Z17" s="72"/>
+      <c r="AA17" s="72"/>
+      <c r="AB17" s="104"/>
+      <c r="AC17" s="105"/>
+      <c r="AD17" s="72"/>
+      <c r="AE17" s="72"/>
+      <c r="AF17" s="72"/>
+      <c r="AG17" s="72"/>
+      <c r="AH17" s="72"/>
+      <c r="AI17" s="104"/>
+      <c r="AJ17" s="105"/>
+      <c r="AK17" s="72"/>
+      <c r="AL17" s="72"/>
+      <c r="AM17" s="72"/>
+      <c r="AN17" s="72"/>
+      <c r="AO17" s="72"/>
+      <c r="AP17" s="104"/>
+      <c r="AQ17" s="105"/>
+      <c r="AR17" s="72"/>
+      <c r="AS17" s="72"/>
+      <c r="AT17" s="72"/>
+      <c r="AU17" s="72"/>
+      <c r="AV17" s="72"/>
+      <c r="AW17" s="104"/>
+      <c r="AX17" s="105"/>
+      <c r="AY17" s="72"/>
+      <c r="AZ17" s="72"/>
+      <c r="BA17" s="72"/>
+      <c r="BB17" s="72"/>
+      <c r="BC17" s="72"/>
+      <c r="BD17" s="79"/>
+      <c r="BE17" s="80"/>
+      <c r="BF17" s="72"/>
+      <c r="BG17" s="72"/>
+      <c r="BH17" s="72"/>
+      <c r="BI17" s="72"/>
+      <c r="BJ17" s="72"/>
+      <c r="BK17" s="79"/>
+      <c r="BL17" s="80"/>
     </row>
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="32"/>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="117" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="41"/>
       <c r="D18" s="19">
         <v>1</v>
       </c>
-      <c r="E18" s="60">
-        <f>E17</f>
-        <v>45346</v>
-      </c>
-      <c r="F18" s="60">
-        <f>E18+2</f>
-        <v>45348</v>
-      </c>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="98"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="82"/>
-      <c r="Q18" s="82"/>
-      <c r="R18" s="83"/>
-      <c r="S18" s="82"/>
-      <c r="T18" s="82"/>
-      <c r="U18" s="98"/>
-      <c r="V18" s="99"/>
-      <c r="W18" s="82"/>
-      <c r="X18" s="82"/>
-      <c r="Y18" s="82"/>
-      <c r="Z18" s="82"/>
-      <c r="AA18" s="82"/>
-      <c r="AB18" s="98"/>
-      <c r="AC18" s="99"/>
-      <c r="AD18" s="82"/>
-      <c r="AE18" s="82"/>
-      <c r="AF18" s="82"/>
-      <c r="AG18" s="82"/>
-      <c r="AH18" s="82"/>
-      <c r="AI18" s="98"/>
-      <c r="AJ18" s="99"/>
-      <c r="AK18" s="82"/>
-      <c r="AL18" s="82"/>
-      <c r="AM18" s="82"/>
-      <c r="AN18" s="82"/>
-      <c r="AO18" s="82"/>
-      <c r="AP18" s="98"/>
-      <c r="AQ18" s="99"/>
-      <c r="AR18" s="82"/>
-      <c r="AS18" s="82"/>
-      <c r="AT18" s="82"/>
-      <c r="AU18" s="82"/>
-      <c r="AV18" s="82"/>
-      <c r="AW18" s="98"/>
-      <c r="AX18" s="99"/>
-      <c r="AY18" s="82"/>
-      <c r="AZ18" s="82"/>
-      <c r="BA18" s="82"/>
-      <c r="BB18" s="82"/>
-      <c r="BC18" s="82"/>
-      <c r="BD18" s="98"/>
-      <c r="BE18" s="99"/>
-      <c r="BF18" s="82"/>
-      <c r="BG18" s="82"/>
-      <c r="BH18" s="82"/>
-      <c r="BI18" s="82"/>
-      <c r="BJ18" s="82"/>
-      <c r="BK18" s="98"/>
-      <c r="BL18" s="99"/>
+      <c r="E18" s="56">
+        <f>F17+1</f>
+        <v>45343</v>
+      </c>
+      <c r="F18" s="56">
+        <f>E18</f>
+        <v>45343</v>
+      </c>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="105"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="72"/>
+      <c r="U18" s="104"/>
+      <c r="V18" s="105"/>
+      <c r="W18" s="72"/>
+      <c r="X18" s="72"/>
+      <c r="Y18" s="72"/>
+      <c r="Z18" s="72"/>
+      <c r="AA18" s="72"/>
+      <c r="AB18" s="104"/>
+      <c r="AC18" s="105"/>
+      <c r="AD18" s="72"/>
+      <c r="AE18" s="72"/>
+      <c r="AF18" s="72"/>
+      <c r="AG18" s="72"/>
+      <c r="AH18" s="72"/>
+      <c r="AI18" s="104"/>
+      <c r="AJ18" s="105"/>
+      <c r="AK18" s="72"/>
+      <c r="AL18" s="72"/>
+      <c r="AM18" s="72"/>
+      <c r="AN18" s="72"/>
+      <c r="AO18" s="72"/>
+      <c r="AP18" s="104"/>
+      <c r="AQ18" s="105"/>
+      <c r="AR18" s="72"/>
+      <c r="AS18" s="72"/>
+      <c r="AT18" s="72"/>
+      <c r="AU18" s="72"/>
+      <c r="AV18" s="72"/>
+      <c r="AW18" s="104"/>
+      <c r="AX18" s="105"/>
+      <c r="AY18" s="72"/>
+      <c r="AZ18" s="72"/>
+      <c r="BA18" s="72"/>
+      <c r="BB18" s="72"/>
+      <c r="BC18" s="72"/>
+      <c r="BD18" s="79"/>
+      <c r="BE18" s="80"/>
+      <c r="BF18" s="72"/>
+      <c r="BG18" s="72"/>
+      <c r="BH18" s="72"/>
+      <c r="BI18" s="72"/>
+      <c r="BJ18" s="72"/>
+      <c r="BK18" s="79"/>
+      <c r="BL18" s="80"/>
     </row>
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="32"/>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="117" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="41"/>
       <c r="D19" s="19">
         <v>1</v>
       </c>
-      <c r="E19" s="60">
-        <f>E18</f>
-        <v>45346</v>
-      </c>
-      <c r="F19" s="60">
-        <f>E19+3</f>
-        <v>45349</v>
-      </c>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="98"/>
-      <c r="O19" s="99"/>
-      <c r="P19" s="82"/>
-      <c r="Q19" s="82"/>
-      <c r="R19" s="82"/>
-      <c r="S19" s="83"/>
-      <c r="T19" s="82"/>
-      <c r="U19" s="98"/>
-      <c r="V19" s="99"/>
-      <c r="W19" s="82"/>
-      <c r="X19" s="82"/>
-      <c r="Y19" s="82"/>
-      <c r="Z19" s="82"/>
-      <c r="AA19" s="82"/>
-      <c r="AB19" s="98"/>
-      <c r="AC19" s="99"/>
-      <c r="AD19" s="82"/>
-      <c r="AE19" s="82"/>
-      <c r="AF19" s="82"/>
-      <c r="AG19" s="82"/>
-      <c r="AH19" s="82"/>
-      <c r="AI19" s="98"/>
-      <c r="AJ19" s="99"/>
-      <c r="AK19" s="82"/>
-      <c r="AL19" s="82"/>
-      <c r="AM19" s="82"/>
-      <c r="AN19" s="82"/>
-      <c r="AO19" s="82"/>
-      <c r="AP19" s="98"/>
-      <c r="AQ19" s="99"/>
-      <c r="AR19" s="82"/>
-      <c r="AS19" s="82"/>
-      <c r="AT19" s="82"/>
-      <c r="AU19" s="82"/>
-      <c r="AV19" s="82"/>
-      <c r="AW19" s="98"/>
-      <c r="AX19" s="99"/>
-      <c r="AY19" s="82"/>
-      <c r="AZ19" s="82"/>
-      <c r="BA19" s="82"/>
-      <c r="BB19" s="82"/>
-      <c r="BC19" s="82"/>
-      <c r="BD19" s="98"/>
-      <c r="BE19" s="99"/>
-      <c r="BF19" s="82"/>
-      <c r="BG19" s="82"/>
-      <c r="BH19" s="82"/>
-      <c r="BI19" s="82"/>
-      <c r="BJ19" s="82"/>
-      <c r="BK19" s="98"/>
-      <c r="BL19" s="99"/>
+      <c r="E19" s="56">
+        <f>E18+1</f>
+        <v>45344</v>
+      </c>
+      <c r="F19" s="56">
+        <f>E19</f>
+        <v>45344</v>
+      </c>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="105"/>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="72"/>
+      <c r="R19" s="72"/>
+      <c r="S19" s="73"/>
+      <c r="T19" s="72"/>
+      <c r="U19" s="104"/>
+      <c r="V19" s="105"/>
+      <c r="W19" s="72"/>
+      <c r="X19" s="72"/>
+      <c r="Y19" s="72"/>
+      <c r="Z19" s="72"/>
+      <c r="AA19" s="72"/>
+      <c r="AB19" s="104"/>
+      <c r="AC19" s="105"/>
+      <c r="AD19" s="72"/>
+      <c r="AE19" s="72"/>
+      <c r="AF19" s="72"/>
+      <c r="AG19" s="72"/>
+      <c r="AH19" s="72"/>
+      <c r="AI19" s="104"/>
+      <c r="AJ19" s="105"/>
+      <c r="AK19" s="72"/>
+      <c r="AL19" s="72"/>
+      <c r="AM19" s="72"/>
+      <c r="AN19" s="72"/>
+      <c r="AO19" s="72"/>
+      <c r="AP19" s="104"/>
+      <c r="AQ19" s="105"/>
+      <c r="AR19" s="72"/>
+      <c r="AS19" s="72"/>
+      <c r="AT19" s="72"/>
+      <c r="AU19" s="72"/>
+      <c r="AV19" s="72"/>
+      <c r="AW19" s="104"/>
+      <c r="AX19" s="105"/>
+      <c r="AY19" s="72"/>
+      <c r="AZ19" s="72"/>
+      <c r="BA19" s="72"/>
+      <c r="BB19" s="72"/>
+      <c r="BC19" s="72"/>
+      <c r="BD19" s="79"/>
+      <c r="BE19" s="80"/>
+      <c r="BF19" s="72"/>
+      <c r="BG19" s="72"/>
+      <c r="BH19" s="72"/>
+      <c r="BI19" s="72"/>
+      <c r="BJ19" s="72"/>
+      <c r="BK19" s="79"/>
+      <c r="BL19" s="80"/>
     </row>
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="32"/>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="117" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="41"/>
       <c r="D20" s="19">
         <v>1</v>
       </c>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="100"/>
-      <c r="O20" s="101"/>
-      <c r="P20" s="82"/>
-      <c r="Q20" s="82"/>
-      <c r="R20" s="82"/>
-      <c r="S20" s="82"/>
-      <c r="T20" s="83"/>
-      <c r="U20" s="100"/>
-      <c r="V20" s="101"/>
-      <c r="W20" s="82"/>
-      <c r="X20" s="82"/>
-      <c r="Y20" s="82"/>
-      <c r="Z20" s="82"/>
-      <c r="AA20" s="82"/>
-      <c r="AB20" s="100"/>
-      <c r="AC20" s="101"/>
-      <c r="AD20" s="82"/>
-      <c r="AE20" s="82"/>
-      <c r="AF20" s="82"/>
-      <c r="AG20" s="82"/>
-      <c r="AH20" s="82"/>
-      <c r="AI20" s="100"/>
-      <c r="AJ20" s="101"/>
-      <c r="AK20" s="82"/>
-      <c r="AL20" s="82"/>
-      <c r="AM20" s="82"/>
-      <c r="AN20" s="82"/>
-      <c r="AO20" s="82"/>
-      <c r="AP20" s="100"/>
-      <c r="AQ20" s="101"/>
-      <c r="AR20" s="82"/>
-      <c r="AS20" s="82"/>
-      <c r="AT20" s="82"/>
-      <c r="AU20" s="82"/>
-      <c r="AV20" s="82"/>
-      <c r="AW20" s="100"/>
-      <c r="AX20" s="101"/>
-      <c r="AY20" s="82"/>
-      <c r="AZ20" s="82"/>
-      <c r="BA20" s="82"/>
-      <c r="BB20" s="82"/>
-      <c r="BC20" s="82"/>
-      <c r="BD20" s="98"/>
-      <c r="BE20" s="99"/>
-      <c r="BF20" s="82"/>
-      <c r="BG20" s="82"/>
-      <c r="BH20" s="82"/>
-      <c r="BI20" s="82"/>
-      <c r="BJ20" s="82"/>
-      <c r="BK20" s="98"/>
-      <c r="BL20" s="99"/>
+      <c r="E20" s="56">
+        <f>F19+1</f>
+        <v>45345</v>
+      </c>
+      <c r="F20" s="56">
+        <f>E20</f>
+        <v>45345</v>
+      </c>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="106"/>
+      <c r="O20" s="107"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="72"/>
+      <c r="R20" s="72"/>
+      <c r="S20" s="72"/>
+      <c r="T20" s="73"/>
+      <c r="U20" s="106"/>
+      <c r="V20" s="107"/>
+      <c r="W20" s="72"/>
+      <c r="X20" s="72"/>
+      <c r="Y20" s="72"/>
+      <c r="Z20" s="72"/>
+      <c r="AA20" s="72"/>
+      <c r="AB20" s="106"/>
+      <c r="AC20" s="107"/>
+      <c r="AD20" s="72"/>
+      <c r="AE20" s="72"/>
+      <c r="AF20" s="72"/>
+      <c r="AG20" s="72"/>
+      <c r="AH20" s="72"/>
+      <c r="AI20" s="106"/>
+      <c r="AJ20" s="107"/>
+      <c r="AK20" s="72"/>
+      <c r="AL20" s="72"/>
+      <c r="AM20" s="72"/>
+      <c r="AN20" s="72"/>
+      <c r="AO20" s="72"/>
+      <c r="AP20" s="106"/>
+      <c r="AQ20" s="107"/>
+      <c r="AR20" s="72"/>
+      <c r="AS20" s="72"/>
+      <c r="AT20" s="72"/>
+      <c r="AU20" s="72"/>
+      <c r="AV20" s="72"/>
+      <c r="AW20" s="106"/>
+      <c r="AX20" s="107"/>
+      <c r="AY20" s="72"/>
+      <c r="AZ20" s="72"/>
+      <c r="BA20" s="72"/>
+      <c r="BB20" s="72"/>
+      <c r="BC20" s="72"/>
+      <c r="BD20" s="79"/>
+      <c r="BE20" s="80"/>
+      <c r="BF20" s="72"/>
+      <c r="BG20" s="72"/>
+      <c r="BH20" s="72"/>
+      <c r="BI20" s="72"/>
+      <c r="BJ20" s="72"/>
+      <c r="BK20" s="79"/>
+      <c r="BL20" s="80"/>
     </row>
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="32" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="42"/>
       <c r="D21" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="61"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="82"/>
-      <c r="O21" s="82"/>
-      <c r="P21" s="82"/>
-      <c r="Q21" s="82"/>
-      <c r="R21" s="82"/>
-      <c r="S21" s="82"/>
-      <c r="T21" s="82"/>
-      <c r="U21" s="82"/>
-      <c r="V21" s="82"/>
-      <c r="W21" s="103"/>
-      <c r="X21" s="104"/>
-      <c r="Y21" s="104"/>
-      <c r="Z21" s="104"/>
-      <c r="AA21" s="104"/>
-      <c r="AB21" s="104"/>
-      <c r="AC21" s="104"/>
-      <c r="AD21" s="104"/>
-      <c r="AE21" s="104"/>
-      <c r="AF21" s="104"/>
-      <c r="AG21" s="104"/>
-      <c r="AH21" s="104"/>
-      <c r="AI21" s="104"/>
-      <c r="AJ21" s="104"/>
-      <c r="AK21" s="104"/>
-      <c r="AL21" s="104"/>
-      <c r="AM21" s="104"/>
-      <c r="AN21" s="104"/>
-      <c r="AO21" s="104"/>
-      <c r="AP21" s="104"/>
-      <c r="AQ21" s="104"/>
-      <c r="AR21" s="104"/>
-      <c r="AS21" s="104"/>
-      <c r="AT21" s="104"/>
-      <c r="AU21" s="104"/>
-      <c r="AV21" s="104"/>
-      <c r="AW21" s="104"/>
-      <c r="AX21" s="104"/>
-      <c r="AY21" s="104"/>
-      <c r="AZ21" s="104"/>
-      <c r="BA21" s="104"/>
-      <c r="BB21" s="104"/>
-      <c r="BC21" s="105"/>
-      <c r="BD21" s="98"/>
-      <c r="BE21" s="99"/>
-      <c r="BF21" s="82"/>
-      <c r="BG21" s="82"/>
-      <c r="BH21" s="82"/>
-      <c r="BI21" s="82"/>
-      <c r="BJ21" s="82"/>
-      <c r="BK21" s="98"/>
-      <c r="BL21" s="99"/>
+        <v>44</v>
+      </c>
+      <c r="E21" s="57"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="72"/>
+      <c r="Q21" s="72"/>
+      <c r="R21" s="72"/>
+      <c r="S21" s="72"/>
+      <c r="T21" s="72"/>
+      <c r="U21" s="72"/>
+      <c r="V21" s="72"/>
+      <c r="W21" s="108"/>
+      <c r="X21" s="109"/>
+      <c r="Y21" s="109"/>
+      <c r="Z21" s="109"/>
+      <c r="AA21" s="109"/>
+      <c r="AB21" s="109"/>
+      <c r="AC21" s="109"/>
+      <c r="AD21" s="109"/>
+      <c r="AE21" s="109"/>
+      <c r="AF21" s="109"/>
+      <c r="AG21" s="109"/>
+      <c r="AH21" s="109"/>
+      <c r="AI21" s="109"/>
+      <c r="AJ21" s="109"/>
+      <c r="AK21" s="109"/>
+      <c r="AL21" s="109"/>
+      <c r="AM21" s="109"/>
+      <c r="AN21" s="109"/>
+      <c r="AO21" s="109"/>
+      <c r="AP21" s="109"/>
+      <c r="AQ21" s="109"/>
+      <c r="AR21" s="109"/>
+      <c r="AS21" s="109"/>
+      <c r="AT21" s="109"/>
+      <c r="AU21" s="109"/>
+      <c r="AV21" s="109"/>
+      <c r="AW21" s="109"/>
+      <c r="AX21" s="109"/>
+      <c r="AY21" s="109"/>
+      <c r="AZ21" s="109"/>
+      <c r="BA21" s="109"/>
+      <c r="BB21" s="109"/>
+      <c r="BC21" s="110"/>
+      <c r="BD21" s="79"/>
+      <c r="BE21" s="80"/>
+      <c r="BF21" s="72"/>
+      <c r="BG21" s="72"/>
+      <c r="BH21" s="72"/>
+      <c r="BI21" s="72"/>
+      <c r="BJ21" s="72"/>
+      <c r="BK21" s="79"/>
+      <c r="BL21" s="80"/>
     </row>
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="32"/>
-      <c r="B22" s="49" t="s">
-        <v>46</v>
+      <c r="B22" s="118" t="s">
+        <v>45</v>
       </c>
       <c r="C22" s="43"/>
       <c r="D22" s="22"/>
-      <c r="E22" s="63">
-        <f>E9+15</f>
-        <v>45349</v>
-      </c>
-      <c r="F22" s="63">
-        <f>E22+5</f>
-        <v>45354</v>
-      </c>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="82"/>
-      <c r="Q22" s="82"/>
-      <c r="R22" s="82"/>
-      <c r="S22" s="82"/>
-      <c r="T22" s="82"/>
-      <c r="U22" s="82"/>
-      <c r="V22" s="82"/>
-      <c r="W22" s="84"/>
-      <c r="X22" s="86"/>
-      <c r="Y22" s="90"/>
-      <c r="Z22" s="91"/>
-      <c r="AA22" s="92"/>
-      <c r="AB22" s="96"/>
-      <c r="AC22" s="97"/>
-      <c r="AD22" s="82"/>
-      <c r="AE22" s="82"/>
-      <c r="AF22" s="82"/>
-      <c r="AG22" s="82"/>
-      <c r="AH22" s="82"/>
-      <c r="AI22" s="96"/>
-      <c r="AJ22" s="97"/>
-      <c r="AK22" s="82"/>
-      <c r="AL22" s="82"/>
-      <c r="AM22" s="82"/>
-      <c r="AN22" s="82"/>
-      <c r="AO22" s="82"/>
-      <c r="AP22" s="96"/>
-      <c r="AQ22" s="97"/>
-      <c r="AR22" s="82"/>
-      <c r="AS22" s="82"/>
-      <c r="AT22" s="82"/>
-      <c r="AU22" s="82"/>
-      <c r="AV22" s="82"/>
-      <c r="AW22" s="96"/>
-      <c r="AX22" s="97"/>
-      <c r="AY22" s="82"/>
-      <c r="AZ22" s="82"/>
-      <c r="BA22" s="82"/>
-      <c r="BB22" s="82"/>
-      <c r="BC22" s="82"/>
-      <c r="BD22" s="98"/>
-      <c r="BE22" s="99"/>
-      <c r="BF22" s="82"/>
-      <c r="BG22" s="82"/>
-      <c r="BH22" s="82"/>
-      <c r="BI22" s="82"/>
-      <c r="BJ22" s="82"/>
-      <c r="BK22" s="98"/>
-      <c r="BL22" s="99"/>
+      <c r="E22" s="59">
+        <f>F20+3</f>
+        <v>45348</v>
+      </c>
+      <c r="F22" s="59">
+        <f>E22+4</f>
+        <v>45352</v>
+      </c>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="72"/>
+      <c r="P22" s="72"/>
+      <c r="Q22" s="72"/>
+      <c r="R22" s="72"/>
+      <c r="S22" s="72"/>
+      <c r="T22" s="72"/>
+      <c r="U22" s="72"/>
+      <c r="V22" s="72"/>
+      <c r="W22" s="83"/>
+      <c r="X22" s="84"/>
+      <c r="Y22" s="85"/>
+      <c r="Z22" s="86"/>
+      <c r="AA22" s="87"/>
+      <c r="AB22" s="77"/>
+      <c r="AC22" s="78"/>
+      <c r="AD22" s="72"/>
+      <c r="AE22" s="72"/>
+      <c r="AF22" s="72"/>
+      <c r="AG22" s="72"/>
+      <c r="AH22" s="72"/>
+      <c r="AI22" s="77"/>
+      <c r="AJ22" s="78"/>
+      <c r="AK22" s="72"/>
+      <c r="AL22" s="72"/>
+      <c r="AM22" s="72"/>
+      <c r="AN22" s="72"/>
+      <c r="AO22" s="72"/>
+      <c r="AP22" s="77"/>
+      <c r="AQ22" s="78"/>
+      <c r="AR22" s="72"/>
+      <c r="AS22" s="72"/>
+      <c r="AT22" s="72"/>
+      <c r="AU22" s="72"/>
+      <c r="AV22" s="72"/>
+      <c r="AW22" s="77"/>
+      <c r="AX22" s="78"/>
+      <c r="AY22" s="72"/>
+      <c r="AZ22" s="72"/>
+      <c r="BA22" s="72"/>
+      <c r="BB22" s="72"/>
+      <c r="BC22" s="72"/>
+      <c r="BD22" s="79"/>
+      <c r="BE22" s="80"/>
+      <c r="BF22" s="72"/>
+      <c r="BG22" s="72"/>
+      <c r="BH22" s="72"/>
+      <c r="BI22" s="72"/>
+      <c r="BJ22" s="72"/>
+      <c r="BK22" s="79"/>
+      <c r="BL22" s="80"/>
     </row>
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="32"/>
-      <c r="B23" s="49" t="s">
-        <v>49</v>
+      <c r="B23" s="118" t="s">
+        <v>57</v>
       </c>
       <c r="C23" s="43"/>
       <c r="D23" s="22"/>
-      <c r="E23" s="63">
-        <f>F22+1</f>
-        <v>45355</v>
-      </c>
-      <c r="F23" s="63">
-        <f>E23+4</f>
-        <v>45359</v>
-      </c>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="82"/>
-      <c r="O23" s="82"/>
-      <c r="P23" s="82"/>
-      <c r="Q23" s="82"/>
-      <c r="R23" s="82"/>
-      <c r="S23" s="82"/>
-      <c r="T23" s="82"/>
-      <c r="U23" s="82"/>
-      <c r="V23" s="82"/>
-      <c r="W23" s="82"/>
-      <c r="X23" s="82"/>
-      <c r="Y23" s="82"/>
-      <c r="Z23" s="82"/>
-      <c r="AA23" s="82"/>
-      <c r="AB23" s="98"/>
-      <c r="AC23" s="99"/>
-      <c r="AD23" s="82"/>
-      <c r="AE23" s="82"/>
-      <c r="AF23" s="82"/>
-      <c r="AG23" s="82"/>
-      <c r="AH23" s="82"/>
-      <c r="AI23" s="98"/>
-      <c r="AJ23" s="99"/>
-      <c r="AK23" s="82"/>
-      <c r="AL23" s="82"/>
-      <c r="AM23" s="82"/>
-      <c r="AN23" s="82"/>
-      <c r="AO23" s="82"/>
-      <c r="AP23" s="98"/>
-      <c r="AQ23" s="99"/>
-      <c r="AR23" s="82"/>
-      <c r="AS23" s="82"/>
-      <c r="AT23" s="82"/>
-      <c r="AU23" s="82"/>
-      <c r="AV23" s="82"/>
-      <c r="AW23" s="98"/>
-      <c r="AX23" s="99"/>
-      <c r="AY23" s="82"/>
-      <c r="AZ23" s="82"/>
-      <c r="BA23" s="82"/>
-      <c r="BB23" s="82"/>
-      <c r="BC23" s="82"/>
-      <c r="BD23" s="98"/>
-      <c r="BE23" s="99"/>
-      <c r="BF23" s="82"/>
-      <c r="BG23" s="82"/>
-      <c r="BH23" s="82"/>
-      <c r="BI23" s="82"/>
-      <c r="BJ23" s="82"/>
-      <c r="BK23" s="98"/>
-      <c r="BL23" s="99"/>
+      <c r="E23" s="59">
+        <f>E22+1</f>
+        <v>45349</v>
+      </c>
+      <c r="F23" s="59">
+        <f>E23+3</f>
+        <v>45352</v>
+      </c>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="72"/>
+      <c r="Q23" s="72"/>
+      <c r="R23" s="72"/>
+      <c r="S23" s="72"/>
+      <c r="T23" s="72"/>
+      <c r="U23" s="72"/>
+      <c r="V23" s="72"/>
+      <c r="W23" s="72"/>
+      <c r="X23" s="73"/>
+      <c r="Y23" s="111"/>
+      <c r="Z23" s="112"/>
+      <c r="AA23" s="113"/>
+      <c r="AB23" s="79"/>
+      <c r="AC23" s="80"/>
+      <c r="AD23" s="72"/>
+      <c r="AE23" s="72"/>
+      <c r="AF23" s="72"/>
+      <c r="AG23" s="72"/>
+      <c r="AH23" s="72"/>
+      <c r="AI23" s="79"/>
+      <c r="AJ23" s="80"/>
+      <c r="AK23" s="72"/>
+      <c r="AL23" s="72"/>
+      <c r="AM23" s="72"/>
+      <c r="AN23" s="72"/>
+      <c r="AO23" s="72"/>
+      <c r="AP23" s="79"/>
+      <c r="AQ23" s="80"/>
+      <c r="AR23" s="72"/>
+      <c r="AS23" s="72"/>
+      <c r="AT23" s="72"/>
+      <c r="AU23" s="72"/>
+      <c r="AV23" s="72"/>
+      <c r="AW23" s="79"/>
+      <c r="AX23" s="80"/>
+      <c r="AY23" s="72"/>
+      <c r="AZ23" s="72"/>
+      <c r="BA23" s="72"/>
+      <c r="BB23" s="72"/>
+      <c r="BC23" s="72"/>
+      <c r="BD23" s="79"/>
+      <c r="BE23" s="80"/>
+      <c r="BF23" s="72"/>
+      <c r="BG23" s="72"/>
+      <c r="BH23" s="72"/>
+      <c r="BI23" s="72"/>
+      <c r="BJ23" s="72"/>
+      <c r="BK23" s="79"/>
+      <c r="BL23" s="80"/>
     </row>
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="32"/>
-      <c r="B24" s="49" t="s">
-        <v>50</v>
+      <c r="B24" s="118" t="s">
+        <v>48</v>
       </c>
       <c r="C24" s="43"/>
       <c r="D24" s="22"/>
-      <c r="E24" s="63">
-        <f>E23+5</f>
-        <v>45360</v>
-      </c>
-      <c r="F24" s="63">
-        <f>E24+5</f>
-        <v>45365</v>
-      </c>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="82"/>
-      <c r="Q24" s="82"/>
-      <c r="R24" s="82"/>
-      <c r="S24" s="82"/>
-      <c r="T24" s="82"/>
-      <c r="U24" s="82"/>
-      <c r="V24" s="82"/>
-      <c r="W24" s="82"/>
-      <c r="X24" s="82"/>
-      <c r="Y24" s="82"/>
-      <c r="Z24" s="82"/>
-      <c r="AA24" s="82"/>
-      <c r="AB24" s="98"/>
-      <c r="AC24" s="99"/>
-      <c r="AD24" s="82"/>
-      <c r="AE24" s="82"/>
-      <c r="AF24" s="82"/>
-      <c r="AG24" s="82"/>
-      <c r="AH24" s="82"/>
-      <c r="AI24" s="98"/>
-      <c r="AJ24" s="99"/>
-      <c r="AK24" s="82"/>
-      <c r="AL24" s="82"/>
-      <c r="AM24" s="82"/>
-      <c r="AN24" s="82"/>
-      <c r="AO24" s="82"/>
-      <c r="AP24" s="98"/>
-      <c r="AQ24" s="99"/>
-      <c r="AR24" s="82"/>
-      <c r="AS24" s="82"/>
-      <c r="AT24" s="82"/>
-      <c r="AU24" s="82"/>
-      <c r="AV24" s="82"/>
-      <c r="AW24" s="98"/>
-      <c r="AX24" s="99"/>
-      <c r="AY24" s="82"/>
-      <c r="AZ24" s="82"/>
-      <c r="BA24" s="82"/>
-      <c r="BB24" s="82"/>
-      <c r="BC24" s="82"/>
-      <c r="BD24" s="98"/>
-      <c r="BE24" s="99"/>
-      <c r="BF24" s="82"/>
-      <c r="BG24" s="82"/>
-      <c r="BH24" s="82"/>
-      <c r="BI24" s="82"/>
-      <c r="BJ24" s="82"/>
-      <c r="BK24" s="98"/>
-      <c r="BL24" s="99"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="72"/>
+      <c r="S24" s="72"/>
+      <c r="T24" s="72"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="72"/>
+      <c r="W24" s="72"/>
+      <c r="X24" s="72"/>
+      <c r="Y24" s="72"/>
+      <c r="Z24" s="72"/>
+      <c r="AA24" s="72"/>
+      <c r="AB24" s="79"/>
+      <c r="AC24" s="80"/>
+      <c r="AD24" s="72"/>
+      <c r="AE24" s="72"/>
+      <c r="AF24" s="72"/>
+      <c r="AG24" s="72"/>
+      <c r="AH24" s="72"/>
+      <c r="AI24" s="79"/>
+      <c r="AJ24" s="80"/>
+      <c r="AK24" s="72"/>
+      <c r="AL24" s="72"/>
+      <c r="AM24" s="72"/>
+      <c r="AN24" s="72"/>
+      <c r="AO24" s="72"/>
+      <c r="AP24" s="79"/>
+      <c r="AQ24" s="80"/>
+      <c r="AR24" s="72"/>
+      <c r="AS24" s="72"/>
+      <c r="AT24" s="72"/>
+      <c r="AU24" s="72"/>
+      <c r="AV24" s="72"/>
+      <c r="AW24" s="79"/>
+      <c r="AX24" s="80"/>
+      <c r="AY24" s="72"/>
+      <c r="AZ24" s="72"/>
+      <c r="BA24" s="72"/>
+      <c r="BB24" s="72"/>
+      <c r="BC24" s="72"/>
+      <c r="BD24" s="79"/>
+      <c r="BE24" s="80"/>
+      <c r="BF24" s="72"/>
+      <c r="BG24" s="72"/>
+      <c r="BH24" s="72"/>
+      <c r="BI24" s="72"/>
+      <c r="BJ24" s="72"/>
+      <c r="BK24" s="79"/>
+      <c r="BL24" s="80"/>
     </row>
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="32"/>
-      <c r="B25" s="49" t="s">
-        <v>51</v>
+      <c r="B25" s="118" t="s">
+        <v>49</v>
       </c>
       <c r="C25" s="43"/>
       <c r="D25" s="22"/>
-      <c r="E25" s="63">
-        <f>F24+1</f>
-        <v>45366</v>
-      </c>
-      <c r="F25" s="63">
-        <f>E25+4</f>
-        <v>45370</v>
-      </c>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="82"/>
-      <c r="N25" s="82"/>
-      <c r="O25" s="82"/>
-      <c r="P25" s="82"/>
-      <c r="Q25" s="82"/>
-      <c r="R25" s="82"/>
-      <c r="S25" s="82"/>
-      <c r="T25" s="82"/>
-      <c r="U25" s="82"/>
-      <c r="V25" s="82"/>
-      <c r="W25" s="82"/>
-      <c r="X25" s="82"/>
-      <c r="Y25" s="82"/>
-      <c r="Z25" s="82"/>
-      <c r="AA25" s="82"/>
-      <c r="AB25" s="98"/>
-      <c r="AC25" s="99"/>
-      <c r="AD25" s="82"/>
-      <c r="AE25" s="82"/>
-      <c r="AF25" s="82"/>
-      <c r="AG25" s="82"/>
-      <c r="AH25" s="82"/>
-      <c r="AI25" s="98"/>
-      <c r="AJ25" s="99"/>
-      <c r="AK25" s="82"/>
-      <c r="AL25" s="82"/>
-      <c r="AM25" s="82"/>
-      <c r="AN25" s="82"/>
-      <c r="AO25" s="82"/>
-      <c r="AP25" s="98"/>
-      <c r="AQ25" s="99"/>
-      <c r="AR25" s="82"/>
-      <c r="AS25" s="82"/>
-      <c r="AT25" s="82"/>
-      <c r="AU25" s="82"/>
-      <c r="AV25" s="82"/>
-      <c r="AW25" s="98"/>
-      <c r="AX25" s="99"/>
-      <c r="AY25" s="82"/>
-      <c r="AZ25" s="82"/>
-      <c r="BA25" s="82"/>
-      <c r="BB25" s="82"/>
-      <c r="BC25" s="82"/>
-      <c r="BD25" s="98"/>
-      <c r="BE25" s="99"/>
-      <c r="BF25" s="82"/>
-      <c r="BG25" s="82"/>
-      <c r="BH25" s="82"/>
-      <c r="BI25" s="82"/>
-      <c r="BJ25" s="82"/>
-      <c r="BK25" s="98"/>
-      <c r="BL25" s="99"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="72"/>
+      <c r="Q25" s="72"/>
+      <c r="R25" s="72"/>
+      <c r="S25" s="72"/>
+      <c r="T25" s="72"/>
+      <c r="U25" s="72"/>
+      <c r="V25" s="72"/>
+      <c r="W25" s="72"/>
+      <c r="X25" s="72"/>
+      <c r="Y25" s="72"/>
+      <c r="Z25" s="72"/>
+      <c r="AA25" s="72"/>
+      <c r="AB25" s="79"/>
+      <c r="AC25" s="80"/>
+      <c r="AD25" s="72"/>
+      <c r="AE25" s="72"/>
+      <c r="AF25" s="72"/>
+      <c r="AG25" s="72"/>
+      <c r="AH25" s="72"/>
+      <c r="AI25" s="79"/>
+      <c r="AJ25" s="80"/>
+      <c r="AK25" s="72"/>
+      <c r="AL25" s="72"/>
+      <c r="AM25" s="72"/>
+      <c r="AN25" s="72"/>
+      <c r="AO25" s="72"/>
+      <c r="AP25" s="79"/>
+      <c r="AQ25" s="80"/>
+      <c r="AR25" s="72"/>
+      <c r="AS25" s="72"/>
+      <c r="AT25" s="72"/>
+      <c r="AU25" s="72"/>
+      <c r="AV25" s="72"/>
+      <c r="AW25" s="79"/>
+      <c r="AX25" s="80"/>
+      <c r="AY25" s="72"/>
+      <c r="AZ25" s="72"/>
+      <c r="BA25" s="72"/>
+      <c r="BB25" s="72"/>
+      <c r="BC25" s="72"/>
+      <c r="BD25" s="79"/>
+      <c r="BE25" s="80"/>
+      <c r="BF25" s="72"/>
+      <c r="BG25" s="72"/>
+      <c r="BH25" s="72"/>
+      <c r="BI25" s="72"/>
+      <c r="BJ25" s="72"/>
+      <c r="BK25" s="79"/>
+      <c r="BL25" s="80"/>
     </row>
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="32"/>
-      <c r="B26" s="49" t="s">
-        <v>47</v>
+      <c r="B26" s="118" t="s">
+        <v>50</v>
       </c>
       <c r="C26" s="43"/>
       <c r="D26" s="22"/>
-      <c r="E26" s="63">
-        <f>E24</f>
-        <v>45360</v>
-      </c>
-      <c r="F26" s="63">
-        <f>E26+4</f>
-        <v>45364</v>
-      </c>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="82"/>
-      <c r="Q26" s="82"/>
-      <c r="R26" s="82"/>
-      <c r="S26" s="82"/>
-      <c r="T26" s="82"/>
-      <c r="U26" s="82"/>
-      <c r="V26" s="82"/>
-      <c r="W26" s="82"/>
-      <c r="X26" s="82"/>
-      <c r="Y26" s="82"/>
-      <c r="Z26" s="82"/>
-      <c r="AA26" s="82"/>
-      <c r="AB26" s="98"/>
-      <c r="AC26" s="99"/>
-      <c r="AD26" s="82"/>
-      <c r="AE26" s="82"/>
-      <c r="AF26" s="82"/>
-      <c r="AG26" s="82"/>
-      <c r="AH26" s="82"/>
-      <c r="AI26" s="98"/>
-      <c r="AJ26" s="99"/>
-      <c r="AK26" s="82"/>
-      <c r="AL26" s="82"/>
-      <c r="AM26" s="82"/>
-      <c r="AN26" s="82"/>
-      <c r="AO26" s="82"/>
-      <c r="AP26" s="98"/>
-      <c r="AQ26" s="99"/>
-      <c r="AR26" s="82"/>
-      <c r="AS26" s="82"/>
-      <c r="AT26" s="82"/>
-      <c r="AU26" s="82"/>
-      <c r="AV26" s="82"/>
-      <c r="AW26" s="98"/>
-      <c r="AX26" s="99"/>
-      <c r="AY26" s="82"/>
-      <c r="AZ26" s="82"/>
-      <c r="BA26" s="82"/>
-      <c r="BB26" s="82"/>
-      <c r="BC26" s="82"/>
-      <c r="BD26" s="98"/>
-      <c r="BE26" s="99"/>
-      <c r="BF26" s="82"/>
-      <c r="BG26" s="82"/>
-      <c r="BH26" s="82"/>
-      <c r="BI26" s="82"/>
-      <c r="BJ26" s="82"/>
-      <c r="BK26" s="98"/>
-      <c r="BL26" s="99"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="72"/>
+      <c r="S26" s="72"/>
+      <c r="T26" s="72"/>
+      <c r="U26" s="72"/>
+      <c r="V26" s="72"/>
+      <c r="W26" s="72"/>
+      <c r="X26" s="72"/>
+      <c r="Y26" s="72"/>
+      <c r="Z26" s="72"/>
+      <c r="AA26" s="72"/>
+      <c r="AB26" s="79"/>
+      <c r="AC26" s="80"/>
+      <c r="AD26" s="72"/>
+      <c r="AE26" s="72"/>
+      <c r="AF26" s="72"/>
+      <c r="AG26" s="72"/>
+      <c r="AH26" s="72"/>
+      <c r="AI26" s="79"/>
+      <c r="AJ26" s="80"/>
+      <c r="AK26" s="72"/>
+      <c r="AL26" s="72"/>
+      <c r="AM26" s="72"/>
+      <c r="AN26" s="72"/>
+      <c r="AO26" s="72"/>
+      <c r="AP26" s="79"/>
+      <c r="AQ26" s="80"/>
+      <c r="AR26" s="72"/>
+      <c r="AS26" s="72"/>
+      <c r="AT26" s="72"/>
+      <c r="AU26" s="72"/>
+      <c r="AV26" s="72"/>
+      <c r="AW26" s="79"/>
+      <c r="AX26" s="80"/>
+      <c r="AY26" s="72"/>
+      <c r="AZ26" s="72"/>
+      <c r="BA26" s="72"/>
+      <c r="BB26" s="72"/>
+      <c r="BC26" s="72"/>
+      <c r="BD26" s="79"/>
+      <c r="BE26" s="80"/>
+      <c r="BF26" s="72"/>
+      <c r="BG26" s="72"/>
+      <c r="BH26" s="72"/>
+      <c r="BI26" s="72"/>
+      <c r="BJ26" s="72"/>
+      <c r="BK26" s="79"/>
+      <c r="BL26" s="80"/>
     </row>
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="32"/>
-      <c r="B27" s="49" t="s">
-        <v>48</v>
+      <c r="B27" s="118" t="s">
+        <v>46</v>
       </c>
       <c r="C27" s="43"/>
       <c r="D27" s="22"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82"/>
-      <c r="O27" s="82"/>
-      <c r="P27" s="82"/>
-      <c r="Q27" s="82"/>
-      <c r="R27" s="82"/>
-      <c r="S27" s="82"/>
-      <c r="T27" s="82"/>
-      <c r="U27" s="82"/>
-      <c r="V27" s="82"/>
-      <c r="W27" s="82"/>
-      <c r="X27" s="82"/>
-      <c r="Y27" s="82"/>
-      <c r="Z27" s="82"/>
-      <c r="AA27" s="82"/>
-      <c r="AB27" s="100"/>
-      <c r="AC27" s="101"/>
-      <c r="AD27" s="82"/>
-      <c r="AE27" s="82"/>
-      <c r="AF27" s="82"/>
-      <c r="AG27" s="82"/>
-      <c r="AH27" s="82"/>
-      <c r="AI27" s="100"/>
-      <c r="AJ27" s="101"/>
-      <c r="AK27" s="82"/>
-      <c r="AL27" s="82"/>
-      <c r="AM27" s="82"/>
-      <c r="AN27" s="82"/>
-      <c r="AO27" s="82"/>
-      <c r="AP27" s="100"/>
-      <c r="AQ27" s="101"/>
-      <c r="AR27" s="82"/>
-      <c r="AS27" s="82"/>
-      <c r="AT27" s="82"/>
-      <c r="AU27" s="82"/>
-      <c r="AV27" s="82"/>
-      <c r="AW27" s="100"/>
-      <c r="AX27" s="101"/>
-      <c r="AY27" s="82"/>
-      <c r="AZ27" s="82"/>
-      <c r="BA27" s="82"/>
-      <c r="BB27" s="82"/>
-      <c r="BC27" s="82"/>
-      <c r="BD27" s="100"/>
-      <c r="BE27" s="101"/>
-      <c r="BF27" s="82"/>
-      <c r="BG27" s="82"/>
-      <c r="BH27" s="82"/>
-      <c r="BI27" s="82"/>
-      <c r="BJ27" s="82"/>
-      <c r="BK27" s="100"/>
-      <c r="BL27" s="101"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="72"/>
+      <c r="Q27" s="72"/>
+      <c r="R27" s="72"/>
+      <c r="S27" s="72"/>
+      <c r="T27" s="72"/>
+      <c r="U27" s="72"/>
+      <c r="V27" s="72"/>
+      <c r="W27" s="72"/>
+      <c r="X27" s="72"/>
+      <c r="Y27" s="72"/>
+      <c r="Z27" s="72"/>
+      <c r="AA27" s="72"/>
+      <c r="AB27" s="79"/>
+      <c r="AC27" s="80"/>
+      <c r="AD27" s="72"/>
+      <c r="AE27" s="72"/>
+      <c r="AF27" s="72"/>
+      <c r="AG27" s="72"/>
+      <c r="AH27" s="72"/>
+      <c r="AI27" s="79"/>
+      <c r="AJ27" s="80"/>
+      <c r="AK27" s="72"/>
+      <c r="AL27" s="72"/>
+      <c r="AM27" s="72"/>
+      <c r="AN27" s="72"/>
+      <c r="AO27" s="72"/>
+      <c r="AP27" s="79"/>
+      <c r="AQ27" s="80"/>
+      <c r="AR27" s="72"/>
+      <c r="AS27" s="72"/>
+      <c r="AT27" s="72"/>
+      <c r="AU27" s="72"/>
+      <c r="AV27" s="72"/>
+      <c r="AW27" s="79"/>
+      <c r="AX27" s="80"/>
+      <c r="AY27" s="72"/>
+      <c r="AZ27" s="72"/>
+      <c r="BA27" s="72"/>
+      <c r="BB27" s="72"/>
+      <c r="BC27" s="72"/>
+      <c r="BD27" s="79"/>
+      <c r="BE27" s="80"/>
+      <c r="BF27" s="72"/>
+      <c r="BG27" s="72"/>
+      <c r="BH27" s="72"/>
+      <c r="BI27" s="72"/>
+      <c r="BJ27" s="72"/>
+      <c r="BK27" s="79"/>
+      <c r="BL27" s="80"/>
     </row>
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="82"/>
-      <c r="Q28" s="82"/>
-      <c r="R28" s="82"/>
-      <c r="S28" s="82"/>
-      <c r="T28" s="82"/>
-      <c r="U28" s="82"/>
-      <c r="V28" s="82"/>
-      <c r="W28" s="82"/>
-      <c r="X28" s="82"/>
-      <c r="Y28" s="82"/>
-      <c r="Z28" s="82"/>
-      <c r="AA28" s="82"/>
-      <c r="AB28" s="82"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="118" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="43"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="72"/>
+      <c r="R28" s="72"/>
+      <c r="S28" s="72"/>
+      <c r="T28" s="72"/>
+      <c r="U28" s="72"/>
+      <c r="V28" s="72"/>
+      <c r="W28" s="72"/>
+      <c r="X28" s="72"/>
+      <c r="Y28" s="72"/>
+      <c r="Z28" s="72"/>
+      <c r="AA28" s="72"/>
+      <c r="AB28" s="81"/>
       <c r="AC28" s="82"/>
-      <c r="AD28" s="82"/>
-      <c r="AE28" s="82"/>
-      <c r="AF28" s="82"/>
-      <c r="AG28" s="82"/>
-      <c r="AH28" s="82"/>
-      <c r="AI28" s="82"/>
+      <c r="AD28" s="72"/>
+      <c r="AE28" s="72"/>
+      <c r="AF28" s="72"/>
+      <c r="AG28" s="72"/>
+      <c r="AH28" s="72"/>
+      <c r="AI28" s="81"/>
       <c r="AJ28" s="82"/>
-      <c r="AK28" s="82"/>
-      <c r="AL28" s="82"/>
-      <c r="AM28" s="82"/>
-      <c r="AN28" s="82"/>
-      <c r="AO28" s="82"/>
-      <c r="AP28" s="82"/>
+      <c r="AK28" s="72"/>
+      <c r="AL28" s="72"/>
+      <c r="AM28" s="72"/>
+      <c r="AN28" s="72"/>
+      <c r="AO28" s="72"/>
+      <c r="AP28" s="81"/>
       <c r="AQ28" s="82"/>
-      <c r="AR28" s="82"/>
-      <c r="AS28" s="82"/>
-      <c r="AT28" s="82"/>
-      <c r="AU28" s="82"/>
-      <c r="AV28" s="82"/>
-      <c r="AW28" s="82"/>
+      <c r="AR28" s="72"/>
+      <c r="AS28" s="72"/>
+      <c r="AT28" s="72"/>
+      <c r="AU28" s="72"/>
+      <c r="AV28" s="72"/>
+      <c r="AW28" s="81"/>
       <c r="AX28" s="82"/>
-      <c r="AY28" s="82"/>
-      <c r="AZ28" s="82"/>
-      <c r="BA28" s="82"/>
-      <c r="BB28" s="82"/>
-      <c r="BC28" s="82"/>
-      <c r="BD28" s="82"/>
+      <c r="AY28" s="72"/>
+      <c r="AZ28" s="72"/>
+      <c r="BA28" s="72"/>
+      <c r="BB28" s="72"/>
+      <c r="BC28" s="72"/>
+      <c r="BD28" s="81"/>
       <c r="BE28" s="82"/>
-      <c r="BF28" s="82"/>
-      <c r="BG28" s="82"/>
-      <c r="BH28" s="82"/>
-      <c r="BI28" s="82"/>
-      <c r="BJ28" s="82"/>
-      <c r="BK28" s="82"/>
+      <c r="BF28" s="72"/>
+      <c r="BG28" s="72"/>
+      <c r="BH28" s="72"/>
+      <c r="BI28" s="72"/>
+      <c r="BJ28" s="72"/>
+      <c r="BK28" s="81"/>
       <c r="BL28" s="82"/>
     </row>
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="32"/>
-      <c r="B29" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="82"/>
-      <c r="Q29" s="82"/>
-      <c r="R29" s="82"/>
-      <c r="S29" s="82"/>
-      <c r="T29" s="82"/>
-      <c r="U29" s="82"/>
-      <c r="V29" s="82"/>
-      <c r="W29" s="82"/>
-      <c r="X29" s="82"/>
-      <c r="Y29" s="82"/>
-      <c r="Z29" s="82"/>
-      <c r="AA29" s="82"/>
-      <c r="AB29" s="82"/>
-      <c r="AC29" s="82"/>
-      <c r="AD29" s="82"/>
-      <c r="AE29" s="82"/>
-      <c r="AF29" s="82"/>
-      <c r="AG29" s="82"/>
-      <c r="AH29" s="82"/>
-      <c r="AI29" s="82"/>
-      <c r="AJ29" s="82"/>
-      <c r="AK29" s="82"/>
-      <c r="AL29" s="82"/>
-      <c r="AM29" s="82"/>
-      <c r="AN29" s="82"/>
-      <c r="AO29" s="82"/>
-      <c r="AP29" s="82"/>
-      <c r="AQ29" s="82"/>
-      <c r="AR29" s="82"/>
-      <c r="AS29" s="82"/>
-      <c r="AT29" s="82"/>
-      <c r="AU29" s="82"/>
-      <c r="AV29" s="82"/>
-      <c r="AW29" s="82"/>
-      <c r="AX29" s="82"/>
-      <c r="AY29" s="82"/>
-      <c r="AZ29" s="82"/>
-      <c r="BA29" s="82"/>
-      <c r="BB29" s="82"/>
-      <c r="BC29" s="82"/>
-      <c r="BD29" s="82"/>
-      <c r="BE29" s="82"/>
-      <c r="BF29" s="82"/>
-      <c r="BG29" s="82"/>
-      <c r="BH29" s="82"/>
-      <c r="BI29" s="82"/>
-      <c r="BJ29" s="82"/>
-      <c r="BK29" s="82"/>
-      <c r="BL29" s="82"/>
+      <c r="A29" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="44"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="72"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="72"/>
+      <c r="X29" s="72"/>
+      <c r="Y29" s="72"/>
+      <c r="Z29" s="72"/>
+      <c r="AA29" s="72"/>
+      <c r="AB29" s="72"/>
+      <c r="AC29" s="72"/>
+      <c r="AD29" s="72"/>
+      <c r="AE29" s="72"/>
+      <c r="AF29" s="72"/>
+      <c r="AG29" s="72"/>
+      <c r="AH29" s="72"/>
+      <c r="AI29" s="72"/>
+      <c r="AJ29" s="72"/>
+      <c r="AK29" s="72"/>
+      <c r="AL29" s="72"/>
+      <c r="AM29" s="72"/>
+      <c r="AN29" s="72"/>
+      <c r="AO29" s="72"/>
+      <c r="AP29" s="72"/>
+      <c r="AQ29" s="72"/>
+      <c r="AR29" s="72"/>
+      <c r="AS29" s="72"/>
+      <c r="AT29" s="72"/>
+      <c r="AU29" s="72"/>
+      <c r="AV29" s="72"/>
+      <c r="AW29" s="72"/>
+      <c r="AX29" s="72"/>
+      <c r="AY29" s="72"/>
+      <c r="AZ29" s="72"/>
+      <c r="BA29" s="72"/>
+      <c r="BB29" s="72"/>
+      <c r="BC29" s="72"/>
+      <c r="BD29" s="72"/>
+      <c r="BE29" s="72"/>
+      <c r="BF29" s="72"/>
+      <c r="BG29" s="72"/>
+      <c r="BH29" s="72"/>
+      <c r="BI29" s="72"/>
+      <c r="BJ29" s="72"/>
+      <c r="BK29" s="72"/>
+      <c r="BL29" s="72"/>
     </row>
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="32"/>
-      <c r="B30" s="50" t="s">
-        <v>16</v>
+      <c r="B30" s="119" t="s">
+        <v>15</v>
       </c>
       <c r="C30" s="45"/>
       <c r="D30" s="25"/>
-      <c r="E30" s="66" t="s">
+      <c r="E30" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="66" t="s">
+      <c r="F30" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="82"/>
-      <c r="Q30" s="82"/>
-      <c r="R30" s="82"/>
-      <c r="S30" s="82"/>
-      <c r="T30" s="82"/>
-      <c r="U30" s="82"/>
-      <c r="V30" s="82"/>
-      <c r="W30" s="82"/>
-      <c r="X30" s="82"/>
-      <c r="Y30" s="82"/>
-      <c r="Z30" s="82"/>
-      <c r="AA30" s="82"/>
-      <c r="AB30" s="82"/>
-      <c r="AC30" s="82"/>
-      <c r="AD30" s="82"/>
-      <c r="AE30" s="82"/>
-      <c r="AF30" s="82"/>
-      <c r="AG30" s="82"/>
-      <c r="AH30" s="82"/>
-      <c r="AI30" s="82"/>
-      <c r="AJ30" s="82"/>
-      <c r="AK30" s="82"/>
-      <c r="AL30" s="82"/>
-      <c r="AM30" s="82"/>
-      <c r="AN30" s="82"/>
-      <c r="AO30" s="82"/>
-      <c r="AP30" s="82"/>
-      <c r="AQ30" s="82"/>
-      <c r="AR30" s="82"/>
-      <c r="AS30" s="82"/>
-      <c r="AT30" s="82"/>
-      <c r="AU30" s="82"/>
-      <c r="AV30" s="82"/>
-      <c r="AW30" s="82"/>
-      <c r="AX30" s="82"/>
-      <c r="AY30" s="82"/>
-      <c r="AZ30" s="82"/>
-      <c r="BA30" s="82"/>
-      <c r="BB30" s="82"/>
-      <c r="BC30" s="82"/>
-      <c r="BD30" s="82"/>
-      <c r="BE30" s="82"/>
-      <c r="BF30" s="82"/>
-      <c r="BG30" s="82"/>
-      <c r="BH30" s="82"/>
-      <c r="BI30" s="82"/>
-      <c r="BJ30" s="82"/>
-      <c r="BK30" s="82"/>
-      <c r="BL30" s="82"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="72"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="72"/>
+      <c r="S30" s="72"/>
+      <c r="T30" s="72"/>
+      <c r="U30" s="72"/>
+      <c r="V30" s="72"/>
+      <c r="W30" s="72"/>
+      <c r="X30" s="72"/>
+      <c r="Y30" s="72"/>
+      <c r="Z30" s="72"/>
+      <c r="AA30" s="72"/>
+      <c r="AB30" s="72"/>
+      <c r="AC30" s="72"/>
+      <c r="AD30" s="72"/>
+      <c r="AE30" s="72"/>
+      <c r="AF30" s="72"/>
+      <c r="AG30" s="72"/>
+      <c r="AH30" s="72"/>
+      <c r="AI30" s="72"/>
+      <c r="AJ30" s="72"/>
+      <c r="AK30" s="72"/>
+      <c r="AL30" s="72"/>
+      <c r="AM30" s="72"/>
+      <c r="AN30" s="72"/>
+      <c r="AO30" s="72"/>
+      <c r="AP30" s="72"/>
+      <c r="AQ30" s="72"/>
+      <c r="AR30" s="72"/>
+      <c r="AS30" s="72"/>
+      <c r="AT30" s="72"/>
+      <c r="AU30" s="72"/>
+      <c r="AV30" s="72"/>
+      <c r="AW30" s="72"/>
+      <c r="AX30" s="72"/>
+      <c r="AY30" s="72"/>
+      <c r="AZ30" s="72"/>
+      <c r="BA30" s="72"/>
+      <c r="BB30" s="72"/>
+      <c r="BC30" s="72"/>
+      <c r="BD30" s="72"/>
+      <c r="BE30" s="72"/>
+      <c r="BF30" s="72"/>
+      <c r="BG30" s="72"/>
+      <c r="BH30" s="72"/>
+      <c r="BI30" s="72"/>
+      <c r="BJ30" s="72"/>
+      <c r="BK30" s="72"/>
+      <c r="BL30" s="72"/>
     </row>
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="32"/>
-      <c r="B31" s="50" t="s">
-        <v>17</v>
+      <c r="B31" s="119" t="s">
+        <v>16</v>
       </c>
       <c r="C31" s="45"/>
       <c r="D31" s="25"/>
-      <c r="E31" s="66" t="s">
+      <c r="E31" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="66" t="s">
+      <c r="F31" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="G31" s="82"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="82"/>
-      <c r="L31" s="82"/>
-      <c r="M31" s="82"/>
-      <c r="N31" s="82"/>
-      <c r="O31" s="82"/>
-      <c r="P31" s="82"/>
-      <c r="Q31" s="82"/>
-      <c r="R31" s="82"/>
-      <c r="S31" s="82"/>
-      <c r="T31" s="82"/>
-      <c r="U31" s="82"/>
-      <c r="V31" s="82"/>
-      <c r="W31" s="82"/>
-      <c r="X31" s="82"/>
-      <c r="Y31" s="82"/>
-      <c r="Z31" s="82"/>
-      <c r="AA31" s="82"/>
-      <c r="AB31" s="82"/>
-      <c r="AC31" s="82"/>
-      <c r="AD31" s="82"/>
-      <c r="AE31" s="82"/>
-      <c r="AF31" s="82"/>
-      <c r="AG31" s="82"/>
-      <c r="AH31" s="82"/>
-      <c r="AI31" s="82"/>
-      <c r="AJ31" s="82"/>
-      <c r="AK31" s="82"/>
-      <c r="AL31" s="82"/>
-      <c r="AM31" s="82"/>
-      <c r="AN31" s="82"/>
-      <c r="AO31" s="82"/>
-      <c r="AP31" s="82"/>
-      <c r="AQ31" s="82"/>
-      <c r="AR31" s="82"/>
-      <c r="AS31" s="82"/>
-      <c r="AT31" s="82"/>
-      <c r="AU31" s="82"/>
-      <c r="AV31" s="82"/>
-      <c r="AW31" s="82"/>
-      <c r="AX31" s="82"/>
-      <c r="AY31" s="82"/>
-      <c r="AZ31" s="82"/>
-      <c r="BA31" s="82"/>
-      <c r="BB31" s="82"/>
-      <c r="BC31" s="82"/>
-      <c r="BD31" s="82"/>
-      <c r="BE31" s="82"/>
-      <c r="BF31" s="82"/>
-      <c r="BG31" s="82"/>
-      <c r="BH31" s="82"/>
-      <c r="BI31" s="82"/>
-      <c r="BJ31" s="82"/>
-      <c r="BK31" s="82"/>
-      <c r="BL31" s="82"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="72"/>
+      <c r="P31" s="72"/>
+      <c r="Q31" s="72"/>
+      <c r="R31" s="72"/>
+      <c r="S31" s="72"/>
+      <c r="T31" s="72"/>
+      <c r="U31" s="72"/>
+      <c r="V31" s="72"/>
+      <c r="W31" s="72"/>
+      <c r="X31" s="72"/>
+      <c r="Y31" s="72"/>
+      <c r="Z31" s="72"/>
+      <c r="AA31" s="72"/>
+      <c r="AB31" s="72"/>
+      <c r="AC31" s="72"/>
+      <c r="AD31" s="72"/>
+      <c r="AE31" s="72"/>
+      <c r="AF31" s="72"/>
+      <c r="AG31" s="72"/>
+      <c r="AH31" s="72"/>
+      <c r="AI31" s="72"/>
+      <c r="AJ31" s="72"/>
+      <c r="AK31" s="72"/>
+      <c r="AL31" s="72"/>
+      <c r="AM31" s="72"/>
+      <c r="AN31" s="72"/>
+      <c r="AO31" s="72"/>
+      <c r="AP31" s="72"/>
+      <c r="AQ31" s="72"/>
+      <c r="AR31" s="72"/>
+      <c r="AS31" s="72"/>
+      <c r="AT31" s="72"/>
+      <c r="AU31" s="72"/>
+      <c r="AV31" s="72"/>
+      <c r="AW31" s="72"/>
+      <c r="AX31" s="72"/>
+      <c r="AY31" s="72"/>
+      <c r="AZ31" s="72"/>
+      <c r="BA31" s="72"/>
+      <c r="BB31" s="72"/>
+      <c r="BC31" s="72"/>
+      <c r="BD31" s="72"/>
+      <c r="BE31" s="72"/>
+      <c r="BF31" s="72"/>
+      <c r="BG31" s="72"/>
+      <c r="BH31" s="72"/>
+      <c r="BI31" s="72"/>
+      <c r="BJ31" s="72"/>
+      <c r="BK31" s="72"/>
+      <c r="BL31" s="72"/>
     </row>
     <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="32"/>
-      <c r="B32" s="50" t="s">
-        <v>18</v>
+      <c r="B32" s="119" t="s">
+        <v>17</v>
       </c>
       <c r="C32" s="45"/>
       <c r="D32" s="25"/>
-      <c r="E32" s="66" t="s">
+      <c r="E32" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="66" t="s">
+      <c r="F32" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="82"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="82"/>
-      <c r="L32" s="82"/>
-      <c r="M32" s="82"/>
-      <c r="N32" s="82"/>
-      <c r="O32" s="82"/>
-      <c r="P32" s="82"/>
-      <c r="Q32" s="82"/>
-      <c r="R32" s="82"/>
-      <c r="S32" s="82"/>
-      <c r="T32" s="82"/>
-      <c r="U32" s="82"/>
-      <c r="V32" s="82"/>
-      <c r="W32" s="82"/>
-      <c r="X32" s="82"/>
-      <c r="Y32" s="82"/>
-      <c r="Z32" s="82"/>
-      <c r="AA32" s="82"/>
-      <c r="AB32" s="82"/>
-      <c r="AC32" s="82"/>
-      <c r="AD32" s="82"/>
-      <c r="AE32" s="82"/>
-      <c r="AF32" s="82"/>
-      <c r="AG32" s="82"/>
-      <c r="AH32" s="82"/>
-      <c r="AI32" s="82"/>
-      <c r="AJ32" s="82"/>
-      <c r="AK32" s="82"/>
-      <c r="AL32" s="82"/>
-      <c r="AM32" s="82"/>
-      <c r="AN32" s="82"/>
-      <c r="AO32" s="82"/>
-      <c r="AP32" s="82"/>
-      <c r="AQ32" s="82"/>
-      <c r="AR32" s="82"/>
-      <c r="AS32" s="82"/>
-      <c r="AT32" s="82"/>
-      <c r="AU32" s="82"/>
-      <c r="AV32" s="82"/>
-      <c r="AW32" s="82"/>
-      <c r="AX32" s="82"/>
-      <c r="AY32" s="82"/>
-      <c r="AZ32" s="82"/>
-      <c r="BA32" s="82"/>
-      <c r="BB32" s="82"/>
-      <c r="BC32" s="82"/>
-      <c r="BD32" s="82"/>
-      <c r="BE32" s="82"/>
-      <c r="BF32" s="82"/>
-      <c r="BG32" s="82"/>
-      <c r="BH32" s="82"/>
-      <c r="BI32" s="82"/>
-      <c r="BJ32" s="82"/>
-      <c r="BK32" s="82"/>
-      <c r="BL32" s="82"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="72"/>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="72"/>
+      <c r="S32" s="72"/>
+      <c r="T32" s="72"/>
+      <c r="U32" s="72"/>
+      <c r="V32" s="72"/>
+      <c r="W32" s="72"/>
+      <c r="X32" s="72"/>
+      <c r="Y32" s="72"/>
+      <c r="Z32" s="72"/>
+      <c r="AA32" s="72"/>
+      <c r="AB32" s="72"/>
+      <c r="AC32" s="72"/>
+      <c r="AD32" s="72"/>
+      <c r="AE32" s="72"/>
+      <c r="AF32" s="72"/>
+      <c r="AG32" s="72"/>
+      <c r="AH32" s="72"/>
+      <c r="AI32" s="72"/>
+      <c r="AJ32" s="72"/>
+      <c r="AK32" s="72"/>
+      <c r="AL32" s="72"/>
+      <c r="AM32" s="72"/>
+      <c r="AN32" s="72"/>
+      <c r="AO32" s="72"/>
+      <c r="AP32" s="72"/>
+      <c r="AQ32" s="72"/>
+      <c r="AR32" s="72"/>
+      <c r="AS32" s="72"/>
+      <c r="AT32" s="72"/>
+      <c r="AU32" s="72"/>
+      <c r="AV32" s="72"/>
+      <c r="AW32" s="72"/>
+      <c r="AX32" s="72"/>
+      <c r="AY32" s="72"/>
+      <c r="AZ32" s="72"/>
+      <c r="BA32" s="72"/>
+      <c r="BB32" s="72"/>
+      <c r="BC32" s="72"/>
+      <c r="BD32" s="72"/>
+      <c r="BE32" s="72"/>
+      <c r="BF32" s="72"/>
+      <c r="BG32" s="72"/>
+      <c r="BH32" s="72"/>
+      <c r="BI32" s="72"/>
+      <c r="BJ32" s="72"/>
+      <c r="BK32" s="72"/>
+      <c r="BL32" s="72"/>
     </row>
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="32"/>
-      <c r="B33" s="50" t="s">
-        <v>19</v>
+      <c r="B33" s="119" t="s">
+        <v>18</v>
       </c>
       <c r="C33" s="45"/>
       <c r="D33" s="25"/>
-      <c r="E33" s="66" t="s">
+      <c r="E33" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="66" t="s">
+      <c r="F33" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="82"/>
-      <c r="K33" s="82"/>
-      <c r="L33" s="82"/>
-      <c r="M33" s="82"/>
-      <c r="N33" s="82"/>
-      <c r="O33" s="82"/>
-      <c r="P33" s="82"/>
-      <c r="Q33" s="82"/>
-      <c r="R33" s="82"/>
-      <c r="S33" s="82"/>
-      <c r="T33" s="82"/>
-      <c r="U33" s="82"/>
-      <c r="V33" s="82"/>
-      <c r="W33" s="82"/>
-      <c r="X33" s="82"/>
-      <c r="Y33" s="82"/>
-      <c r="Z33" s="82"/>
-      <c r="AA33" s="82"/>
-      <c r="AB33" s="82"/>
-      <c r="AC33" s="82"/>
-      <c r="AD33" s="82"/>
-      <c r="AE33" s="82"/>
-      <c r="AF33" s="82"/>
-      <c r="AG33" s="82"/>
-      <c r="AH33" s="82"/>
-      <c r="AI33" s="82"/>
-      <c r="AJ33" s="82"/>
-      <c r="AK33" s="82"/>
-      <c r="AL33" s="82"/>
-      <c r="AM33" s="82"/>
-      <c r="AN33" s="82"/>
-      <c r="AO33" s="82"/>
-      <c r="AP33" s="82"/>
-      <c r="AQ33" s="82"/>
-      <c r="AR33" s="82"/>
-      <c r="AS33" s="82"/>
-      <c r="AT33" s="82"/>
-      <c r="AU33" s="82"/>
-      <c r="AV33" s="82"/>
-      <c r="AW33" s="82"/>
-      <c r="AX33" s="82"/>
-      <c r="AY33" s="82"/>
-      <c r="AZ33" s="82"/>
-      <c r="BA33" s="82"/>
-      <c r="BB33" s="82"/>
-      <c r="BC33" s="82"/>
-      <c r="BD33" s="82"/>
-      <c r="BE33" s="82"/>
-      <c r="BF33" s="82"/>
-      <c r="BG33" s="82"/>
-      <c r="BH33" s="82"/>
-      <c r="BI33" s="82"/>
-      <c r="BJ33" s="82"/>
-      <c r="BK33" s="82"/>
-      <c r="BL33" s="82"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="72"/>
+      <c r="Q33" s="72"/>
+      <c r="R33" s="72"/>
+      <c r="S33" s="72"/>
+      <c r="T33" s="72"/>
+      <c r="U33" s="72"/>
+      <c r="V33" s="72"/>
+      <c r="W33" s="72"/>
+      <c r="X33" s="72"/>
+      <c r="Y33" s="72"/>
+      <c r="Z33" s="72"/>
+      <c r="AA33" s="72"/>
+      <c r="AB33" s="72"/>
+      <c r="AC33" s="72"/>
+      <c r="AD33" s="72"/>
+      <c r="AE33" s="72"/>
+      <c r="AF33" s="72"/>
+      <c r="AG33" s="72"/>
+      <c r="AH33" s="72"/>
+      <c r="AI33" s="72"/>
+      <c r="AJ33" s="72"/>
+      <c r="AK33" s="72"/>
+      <c r="AL33" s="72"/>
+      <c r="AM33" s="72"/>
+      <c r="AN33" s="72"/>
+      <c r="AO33" s="72"/>
+      <c r="AP33" s="72"/>
+      <c r="AQ33" s="72"/>
+      <c r="AR33" s="72"/>
+      <c r="AS33" s="72"/>
+      <c r="AT33" s="72"/>
+      <c r="AU33" s="72"/>
+      <c r="AV33" s="72"/>
+      <c r="AW33" s="72"/>
+      <c r="AX33" s="72"/>
+      <c r="AY33" s="72"/>
+      <c r="AZ33" s="72"/>
+      <c r="BA33" s="72"/>
+      <c r="BB33" s="72"/>
+      <c r="BC33" s="72"/>
+      <c r="BD33" s="72"/>
+      <c r="BE33" s="72"/>
+      <c r="BF33" s="72"/>
+      <c r="BG33" s="72"/>
+      <c r="BH33" s="72"/>
+      <c r="BI33" s="72"/>
+      <c r="BJ33" s="72"/>
+      <c r="BK33" s="72"/>
+      <c r="BL33" s="72"/>
     </row>
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="51"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="80" t="str">
-        <f t="shared" ref="H34:H35" si="5">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
-        <v/>
-      </c>
-      <c r="I34" s="81"/>
-      <c r="J34" s="81"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="81"/>
-      <c r="M34" s="81"/>
-      <c r="N34" s="81"/>
-      <c r="O34" s="81"/>
-      <c r="P34" s="81"/>
-      <c r="Q34" s="81"/>
-      <c r="R34" s="81"/>
-      <c r="S34" s="81"/>
-      <c r="T34" s="81"/>
-      <c r="U34" s="81"/>
-      <c r="V34" s="81"/>
-      <c r="W34" s="81"/>
-      <c r="X34" s="81"/>
-      <c r="Y34" s="81"/>
-      <c r="Z34" s="81"/>
-      <c r="AA34" s="81"/>
-      <c r="AB34" s="81"/>
-      <c r="AC34" s="81"/>
-      <c r="AD34" s="81"/>
-      <c r="AE34" s="81"/>
-      <c r="AF34" s="81"/>
-      <c r="AG34" s="81"/>
-      <c r="AH34" s="81"/>
-      <c r="AI34" s="81"/>
-      <c r="AJ34" s="81"/>
-      <c r="AK34" s="81"/>
-      <c r="AL34" s="81"/>
-      <c r="AM34" s="81"/>
-      <c r="AN34" s="81"/>
-      <c r="AO34" s="81"/>
-      <c r="AP34" s="81"/>
-      <c r="AQ34" s="81"/>
-      <c r="AR34" s="81"/>
-      <c r="AS34" s="81"/>
-      <c r="AT34" s="81"/>
-      <c r="AU34" s="81"/>
-      <c r="AV34" s="81"/>
-      <c r="AW34" s="81"/>
-      <c r="AX34" s="81"/>
-      <c r="AY34" s="81"/>
-      <c r="AZ34" s="81"/>
-      <c r="BA34" s="81"/>
-      <c r="BB34" s="81"/>
-      <c r="BC34" s="81"/>
-      <c r="BD34" s="81"/>
-      <c r="BE34" s="81"/>
-      <c r="BF34" s="81"/>
-      <c r="BG34" s="81"/>
-      <c r="BH34" s="81"/>
-      <c r="BI34" s="81"/>
-      <c r="BJ34" s="81"/>
-      <c r="BK34" s="81"/>
-      <c r="BL34" s="81"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="119" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="45"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="72"/>
+      <c r="Q34" s="72"/>
+      <c r="R34" s="72"/>
+      <c r="S34" s="72"/>
+      <c r="T34" s="72"/>
+      <c r="U34" s="72"/>
+      <c r="V34" s="72"/>
+      <c r="W34" s="72"/>
+      <c r="X34" s="72"/>
+      <c r="Y34" s="72"/>
+      <c r="Z34" s="72"/>
+      <c r="AA34" s="72"/>
+      <c r="AB34" s="72"/>
+      <c r="AC34" s="72"/>
+      <c r="AD34" s="72"/>
+      <c r="AE34" s="72"/>
+      <c r="AF34" s="72"/>
+      <c r="AG34" s="72"/>
+      <c r="AH34" s="72"/>
+      <c r="AI34" s="72"/>
+      <c r="AJ34" s="72"/>
+      <c r="AK34" s="72"/>
+      <c r="AL34" s="72"/>
+      <c r="AM34" s="72"/>
+      <c r="AN34" s="72"/>
+      <c r="AO34" s="72"/>
+      <c r="AP34" s="72"/>
+      <c r="AQ34" s="72"/>
+      <c r="AR34" s="72"/>
+      <c r="AS34" s="72"/>
+      <c r="AT34" s="72"/>
+      <c r="AU34" s="72"/>
+      <c r="AV34" s="72"/>
+      <c r="AW34" s="72"/>
+      <c r="AX34" s="72"/>
+      <c r="AY34" s="72"/>
+      <c r="AZ34" s="72"/>
+      <c r="BA34" s="72"/>
+      <c r="BB34" s="72"/>
+      <c r="BC34" s="72"/>
+      <c r="BD34" s="72"/>
+      <c r="BE34" s="72"/>
+      <c r="BF34" s="72"/>
+      <c r="BG34" s="72"/>
+      <c r="BH34" s="72"/>
+      <c r="BI34" s="72"/>
+      <c r="BJ34" s="72"/>
+      <c r="BK34" s="72"/>
+      <c r="BL34" s="72"/>
     </row>
     <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="47"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="70" t="str">
+        <f t="shared" ref="H35:H36" si="5">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
+        <v/>
+      </c>
+      <c r="I35" s="71"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="71"/>
+      <c r="Q35" s="71"/>
+      <c r="R35" s="71"/>
+      <c r="S35" s="71"/>
+      <c r="T35" s="71"/>
+      <c r="U35" s="71"/>
+      <c r="V35" s="71"/>
+      <c r="W35" s="71"/>
+      <c r="X35" s="71"/>
+      <c r="Y35" s="71"/>
+      <c r="Z35" s="71"/>
+      <c r="AA35" s="71"/>
+      <c r="AB35" s="71"/>
+      <c r="AC35" s="71"/>
+      <c r="AD35" s="71"/>
+      <c r="AE35" s="71"/>
+      <c r="AF35" s="71"/>
+      <c r="AG35" s="71"/>
+      <c r="AH35" s="71"/>
+      <c r="AI35" s="71"/>
+      <c r="AJ35" s="71"/>
+      <c r="AK35" s="71"/>
+      <c r="AL35" s="71"/>
+      <c r="AM35" s="71"/>
+      <c r="AN35" s="71"/>
+      <c r="AO35" s="71"/>
+      <c r="AP35" s="71"/>
+      <c r="AQ35" s="71"/>
+      <c r="AR35" s="71"/>
+      <c r="AS35" s="71"/>
+      <c r="AT35" s="71"/>
+      <c r="AU35" s="71"/>
+      <c r="AV35" s="71"/>
+      <c r="AW35" s="71"/>
+      <c r="AX35" s="71"/>
+      <c r="AY35" s="71"/>
+      <c r="AZ35" s="71"/>
+      <c r="BA35" s="71"/>
+      <c r="BB35" s="71"/>
+      <c r="BC35" s="71"/>
+      <c r="BD35" s="71"/>
+      <c r="BE35" s="71"/>
+      <c r="BF35" s="71"/>
+      <c r="BG35" s="71"/>
+      <c r="BH35" s="71"/>
+      <c r="BI35" s="71"/>
+      <c r="BJ35" s="71"/>
+      <c r="BK35" s="71"/>
+      <c r="BL35" s="71"/>
+    </row>
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B36" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29" t="str">
+      <c r="C36" s="27"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="30"/>
-      <c r="V35" s="30"/>
-      <c r="W35" s="30"/>
-      <c r="X35" s="30"/>
-      <c r="Y35" s="30"/>
-      <c r="Z35" s="30"/>
-      <c r="AA35" s="30"/>
-      <c r="AB35" s="30"/>
-      <c r="AC35" s="30"/>
-      <c r="AD35" s="30"/>
-      <c r="AE35" s="30"/>
-      <c r="AF35" s="30"/>
-      <c r="AG35" s="30"/>
-      <c r="AH35" s="30"/>
-      <c r="AI35" s="30"/>
-      <c r="AJ35" s="30"/>
-      <c r="AK35" s="30"/>
-      <c r="AL35" s="30"/>
-      <c r="AM35" s="30"/>
-      <c r="AN35" s="30"/>
-      <c r="AO35" s="30"/>
-      <c r="AP35" s="30"/>
-      <c r="AQ35" s="30"/>
-      <c r="AR35" s="30"/>
-      <c r="AS35" s="30"/>
-      <c r="AT35" s="30"/>
-      <c r="AU35" s="30"/>
-      <c r="AV35" s="30"/>
-      <c r="AW35" s="30"/>
-      <c r="AX35" s="30"/>
-      <c r="AY35" s="30"/>
-      <c r="AZ35" s="30"/>
-      <c r="BA35" s="30"/>
-      <c r="BB35" s="30"/>
-      <c r="BC35" s="30"/>
-      <c r="BD35" s="30"/>
-      <c r="BE35" s="30"/>
-      <c r="BF35" s="30"/>
-      <c r="BG35" s="30"/>
-      <c r="BH35" s="30"/>
-      <c r="BI35" s="30"/>
-      <c r="BJ35" s="30"/>
-      <c r="BK35" s="30"/>
-      <c r="BL35" s="30"/>
-    </row>
-    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="6"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="30"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="30"/>
+      <c r="V36" s="30"/>
+      <c r="W36" s="30"/>
+      <c r="X36" s="30"/>
+      <c r="Y36" s="30"/>
+      <c r="Z36" s="30"/>
+      <c r="AA36" s="30"/>
+      <c r="AB36" s="30"/>
+      <c r="AC36" s="30"/>
+      <c r="AD36" s="30"/>
+      <c r="AE36" s="30"/>
+      <c r="AF36" s="30"/>
+      <c r="AG36" s="30"/>
+      <c r="AH36" s="30"/>
+      <c r="AI36" s="30"/>
+      <c r="AJ36" s="30"/>
+      <c r="AK36" s="30"/>
+      <c r="AL36" s="30"/>
+      <c r="AM36" s="30"/>
+      <c r="AN36" s="30"/>
+      <c r="AO36" s="30"/>
+      <c r="AP36" s="30"/>
+      <c r="AQ36" s="30"/>
+      <c r="AR36" s="30"/>
+      <c r="AS36" s="30"/>
+      <c r="AT36" s="30"/>
+      <c r="AU36" s="30"/>
+      <c r="AV36" s="30"/>
+      <c r="AW36" s="30"/>
+      <c r="AX36" s="30"/>
+      <c r="AY36" s="30"/>
+      <c r="AZ36" s="30"/>
+      <c r="BA36" s="30"/>
+      <c r="BB36" s="30"/>
+      <c r="BC36" s="30"/>
+      <c r="BD36" s="30"/>
+      <c r="BE36" s="30"/>
+      <c r="BF36" s="30"/>
+      <c r="BG36" s="30"/>
+      <c r="BH36" s="30"/>
+      <c r="BI36" s="30"/>
+      <c r="BJ36" s="30"/>
+      <c r="BK36" s="30"/>
+      <c r="BL36" s="30"/>
     </row>
     <row r="37" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="11"/>
-      <c r="F37" s="34"/>
+      <c r="G37" s="6"/>
     </row>
     <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="12"/>
+      <c r="C38" s="11"/>
+      <c r="F38" s="34"/>
+    </row>
+    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="BD8:BE27"/>
-    <mergeCell ref="BK8:BL27"/>
+  <mergeCells count="28">
     <mergeCell ref="W21:BC21"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="AB22:AC27"/>
-    <mergeCell ref="AI22:AJ27"/>
-    <mergeCell ref="AP22:AQ27"/>
-    <mergeCell ref="AW22:AX27"/>
     <mergeCell ref="AI8:AJ20"/>
     <mergeCell ref="AP8:AQ20"/>
     <mergeCell ref="AW8:AX20"/>
+    <mergeCell ref="I8:AC8"/>
+    <mergeCell ref="AB9:AC20"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="U9:V20"/>
+    <mergeCell ref="N15:O20"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="I10:M10"/>
     <mergeCell ref="R12:T12"/>
     <mergeCell ref="R13:T13"/>
-    <mergeCell ref="W13:AA13"/>
     <mergeCell ref="M14:T14"/>
     <mergeCell ref="P17:Q17"/>
     <mergeCell ref="N9:O13"/>
-    <mergeCell ref="U9:V20"/>
-    <mergeCell ref="N15:O20"/>
-    <mergeCell ref="I8:AC8"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="AB9:AC20"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="AK4:AQ4"/>
@@ -4949,7 +4955,7 @@
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D35">
+  <conditionalFormatting sqref="D7:D36">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4963,16 +4969,16 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL7 I34:BL35">
-    <cfRule type="expression" dxfId="11" priority="33">
+  <conditionalFormatting sqref="I5:BL7 I35:BL36">
+    <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL7 I34:BL35">
-    <cfRule type="expression" dxfId="10" priority="27">
+  <conditionalFormatting sqref="I7:BL7 I35:BL36">
+    <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(début_tâche&lt;=I$5,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="28" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$5,début_tâche&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4992,14 +4998,11 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="34" max="16383" man="1"/>
+    <brk id="35" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="3" max="1048575" man="1"/>
   </colBreaks>
-  <ignoredErrors>
-    <ignoredError sqref="F18 F23:F24 E24" formula="1"/>
-  </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -5016,7 +5019,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D35</xm:sqref>
+          <xm:sqref>D7:D36</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Gantt/Diagramme de Gantt simple.xlsx
+++ b/Gantt/Diagramme de Gantt simple.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF3DFDC-146F-4794-8618-13C557A2A062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3552E6-8B73-4381-A7F3-FB88428F7755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1407,6 +1407,39 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="47" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1425,26 +1458,47 @@
     <xf numFmtId="0" fontId="0" fillId="47" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1458,85 +1512,31 @@
     <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="47" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="47" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="47" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="47" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="47" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="47" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1596,7 +1596,79 @@
     <cellStyle name="Vérification" xfId="25" builtinId="23" customBuiltin="1"/>
     <cellStyle name="zTexteMasqué" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="18">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1723,15 +1795,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ListeTâches" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="11"/>
-      <tableStyleElement type="headerRow" dxfId="10"/>
-      <tableStyleElement type="totalRow" dxfId="9"/>
-      <tableStyleElement type="firstColumn" dxfId="8"/>
-      <tableStyleElement type="lastColumn" dxfId="7"/>
-      <tableStyleElement type="firstRowStripe" dxfId="6"/>
-      <tableStyleElement type="secondRowStripe" dxfId="5"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="4"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="3"/>
+      <tableStyleElement type="wholeTable" dxfId="17"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstColumn" dxfId="14"/>
+      <tableStyleElement type="lastColumn" dxfId="13"/>
+      <tableStyleElement type="firstRowStripe" dxfId="12"/>
+      <tableStyleElement type="secondRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="9"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1802,6 +1874,7 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FFC4D79B"/>
       <color rgb="FF969696"/>
       <color rgb="FF215881"/>
       <color rgb="FF42648A"/>
@@ -2087,14 +2160,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:BL39"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:DB39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="96" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK24" sqref="AK24"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="78" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BT11" sqref="BT11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2107,11 +2178,10 @@
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
     <col min="7" max="7" width="2.7109375" customWidth="1"/>
     <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5703125" customWidth="1"/>
-    <col min="69" max="70" width="10.28515625"/>
+    <col min="9" max="106" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:106" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -2127,7 +2197,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:106" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
@@ -2138,119 +2208,179 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:106" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="93">
+      <c r="D3" s="107"/>
+      <c r="E3" s="111">
         <f>DATE(2024,2,12)</f>
         <v>45334</v>
       </c>
-      <c r="F3" s="93"/>
+      <c r="F3" s="111"/>
     </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:106" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="95"/>
+      <c r="D4" s="107"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="90">
+      <c r="I4" s="108">
         <f>I5</f>
         <v>45334</v>
       </c>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="90">
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="108">
         <f>P5</f>
         <v>45341</v>
       </c>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="91"/>
-      <c r="S4" s="91"/>
-      <c r="T4" s="91"/>
-      <c r="U4" s="91"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="90">
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
+      <c r="U4" s="109"/>
+      <c r="V4" s="110"/>
+      <c r="W4" s="108">
         <f>W5</f>
         <v>45348</v>
       </c>
-      <c r="X4" s="91"/>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="91"/>
-      <c r="AA4" s="91"/>
-      <c r="AB4" s="91"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="90">
+      <c r="X4" s="109"/>
+      <c r="Y4" s="109"/>
+      <c r="Z4" s="109"/>
+      <c r="AA4" s="109"/>
+      <c r="AB4" s="109"/>
+      <c r="AC4" s="110"/>
+      <c r="AD4" s="108">
         <f>AD5</f>
         <v>45355</v>
       </c>
-      <c r="AE4" s="91"/>
-      <c r="AF4" s="91"/>
-      <c r="AG4" s="91"/>
-      <c r="AH4" s="91"/>
-      <c r="AI4" s="91"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="90">
+      <c r="AE4" s="109"/>
+      <c r="AF4" s="109"/>
+      <c r="AG4" s="109"/>
+      <c r="AH4" s="109"/>
+      <c r="AI4" s="109"/>
+      <c r="AJ4" s="110"/>
+      <c r="AK4" s="108">
         <f>AK5</f>
         <v>45362</v>
       </c>
-      <c r="AL4" s="91"/>
-      <c r="AM4" s="91"/>
-      <c r="AN4" s="91"/>
-      <c r="AO4" s="91"/>
-      <c r="AP4" s="91"/>
-      <c r="AQ4" s="92"/>
-      <c r="AR4" s="90">
+      <c r="AL4" s="109"/>
+      <c r="AM4" s="109"/>
+      <c r="AN4" s="109"/>
+      <c r="AO4" s="109"/>
+      <c r="AP4" s="109"/>
+      <c r="AQ4" s="110"/>
+      <c r="AR4" s="108">
         <f>AR5</f>
         <v>45369</v>
       </c>
-      <c r="AS4" s="91"/>
-      <c r="AT4" s="91"/>
-      <c r="AU4" s="91"/>
-      <c r="AV4" s="91"/>
-      <c r="AW4" s="91"/>
-      <c r="AX4" s="92"/>
-      <c r="AY4" s="90">
+      <c r="AS4" s="109"/>
+      <c r="AT4" s="109"/>
+      <c r="AU4" s="109"/>
+      <c r="AV4" s="109"/>
+      <c r="AW4" s="109"/>
+      <c r="AX4" s="110"/>
+      <c r="AY4" s="108">
         <f>AY5</f>
         <v>45376</v>
       </c>
-      <c r="AZ4" s="91"/>
-      <c r="BA4" s="91"/>
-      <c r="BB4" s="91"/>
-      <c r="BC4" s="91"/>
-      <c r="BD4" s="91"/>
-      <c r="BE4" s="92"/>
-      <c r="BF4" s="90">
+      <c r="AZ4" s="109"/>
+      <c r="BA4" s="109"/>
+      <c r="BB4" s="109"/>
+      <c r="BC4" s="109"/>
+      <c r="BD4" s="109"/>
+      <c r="BE4" s="110"/>
+      <c r="BF4" s="108">
         <f>BF5</f>
         <v>45383</v>
       </c>
-      <c r="BG4" s="91"/>
-      <c r="BH4" s="91"/>
-      <c r="BI4" s="91"/>
-      <c r="BJ4" s="91"/>
-      <c r="BK4" s="91"/>
-      <c r="BL4" s="92"/>
+      <c r="BG4" s="109"/>
+      <c r="BH4" s="109"/>
+      <c r="BI4" s="109"/>
+      <c r="BJ4" s="109"/>
+      <c r="BK4" s="109"/>
+      <c r="BL4" s="110"/>
+      <c r="BM4" s="108">
+        <f>BM5</f>
+        <v>45390</v>
+      </c>
+      <c r="BN4" s="109"/>
+      <c r="BO4" s="109"/>
+      <c r="BP4" s="109"/>
+      <c r="BQ4" s="109"/>
+      <c r="BR4" s="109"/>
+      <c r="BS4" s="110"/>
+      <c r="BT4" s="108">
+        <f>BT5</f>
+        <v>45397</v>
+      </c>
+      <c r="BU4" s="109"/>
+      <c r="BV4" s="109"/>
+      <c r="BW4" s="109"/>
+      <c r="BX4" s="109"/>
+      <c r="BY4" s="109"/>
+      <c r="BZ4" s="110"/>
+      <c r="CA4" s="108">
+        <f>CA5</f>
+        <v>45404</v>
+      </c>
+      <c r="CB4" s="109"/>
+      <c r="CC4" s="109"/>
+      <c r="CD4" s="109"/>
+      <c r="CE4" s="109"/>
+      <c r="CF4" s="109"/>
+      <c r="CG4" s="110"/>
+      <c r="CH4" s="108">
+        <f>CH5</f>
+        <v>45411</v>
+      </c>
+      <c r="CI4" s="109"/>
+      <c r="CJ4" s="109"/>
+      <c r="CK4" s="109"/>
+      <c r="CL4" s="109"/>
+      <c r="CM4" s="109"/>
+      <c r="CN4" s="110"/>
+      <c r="CO4" s="108">
+        <f>CO5</f>
+        <v>45418</v>
+      </c>
+      <c r="CP4" s="109"/>
+      <c r="CQ4" s="109"/>
+      <c r="CR4" s="109"/>
+      <c r="CS4" s="109"/>
+      <c r="CT4" s="109"/>
+      <c r="CU4" s="110"/>
+      <c r="CV4" s="108">
+        <f>CV5</f>
+        <v>45425</v>
+      </c>
+      <c r="CW4" s="109"/>
+      <c r="CX4" s="109"/>
+      <c r="CY4" s="109"/>
+      <c r="CZ4" s="109"/>
+      <c r="DA4" s="109"/>
+      <c r="DB4" s="110"/>
     </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:106" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>4</v>
       </c>
@@ -2484,8 +2614,176 @@
         <f t="shared" si="2"/>
         <v>45389</v>
       </c>
+      <c r="BM5" s="66">
+        <f>BL5+1</f>
+        <v>45390</v>
+      </c>
+      <c r="BN5" s="67">
+        <f>BM5+1</f>
+        <v>45391</v>
+      </c>
+      <c r="BO5" s="67">
+        <f t="shared" ref="BO5" si="3">BN5+1</f>
+        <v>45392</v>
+      </c>
+      <c r="BP5" s="67">
+        <f t="shared" ref="BP5" si="4">BO5+1</f>
+        <v>45393</v>
+      </c>
+      <c r="BQ5" s="67">
+        <f t="shared" ref="BQ5" si="5">BP5+1</f>
+        <v>45394</v>
+      </c>
+      <c r="BR5" s="67">
+        <f t="shared" ref="BR5" si="6">BQ5+1</f>
+        <v>45395</v>
+      </c>
+      <c r="BS5" s="68">
+        <f t="shared" ref="BS5" si="7">BR5+1</f>
+        <v>45396</v>
+      </c>
+      <c r="BT5" s="66">
+        <f>BS5+1</f>
+        <v>45397</v>
+      </c>
+      <c r="BU5" s="67">
+        <f>BT5+1</f>
+        <v>45398</v>
+      </c>
+      <c r="BV5" s="67">
+        <f t="shared" ref="BV5" si="8">BU5+1</f>
+        <v>45399</v>
+      </c>
+      <c r="BW5" s="67">
+        <f t="shared" ref="BW5" si="9">BV5+1</f>
+        <v>45400</v>
+      </c>
+      <c r="BX5" s="67">
+        <f t="shared" ref="BX5" si="10">BW5+1</f>
+        <v>45401</v>
+      </c>
+      <c r="BY5" s="67">
+        <f t="shared" ref="BY5" si="11">BX5+1</f>
+        <v>45402</v>
+      </c>
+      <c r="BZ5" s="68">
+        <f t="shared" ref="BZ5" si="12">BY5+1</f>
+        <v>45403</v>
+      </c>
+      <c r="CA5" s="66">
+        <f>BZ5+1</f>
+        <v>45404</v>
+      </c>
+      <c r="CB5" s="67">
+        <f>CA5+1</f>
+        <v>45405</v>
+      </c>
+      <c r="CC5" s="67">
+        <f t="shared" ref="CC5" si="13">CB5+1</f>
+        <v>45406</v>
+      </c>
+      <c r="CD5" s="67">
+        <f t="shared" ref="CD5" si="14">CC5+1</f>
+        <v>45407</v>
+      </c>
+      <c r="CE5" s="67">
+        <f t="shared" ref="CE5" si="15">CD5+1</f>
+        <v>45408</v>
+      </c>
+      <c r="CF5" s="67">
+        <f t="shared" ref="CF5" si="16">CE5+1</f>
+        <v>45409</v>
+      </c>
+      <c r="CG5" s="68">
+        <f t="shared" ref="CG5" si="17">CF5+1</f>
+        <v>45410</v>
+      </c>
+      <c r="CH5" s="66">
+        <f>CG5+1</f>
+        <v>45411</v>
+      </c>
+      <c r="CI5" s="67">
+        <f>CH5+1</f>
+        <v>45412</v>
+      </c>
+      <c r="CJ5" s="67">
+        <f t="shared" ref="CJ5" si="18">CI5+1</f>
+        <v>45413</v>
+      </c>
+      <c r="CK5" s="67">
+        <f t="shared" ref="CK5" si="19">CJ5+1</f>
+        <v>45414</v>
+      </c>
+      <c r="CL5" s="67">
+        <f t="shared" ref="CL5" si="20">CK5+1</f>
+        <v>45415</v>
+      </c>
+      <c r="CM5" s="67">
+        <f t="shared" ref="CM5" si="21">CL5+1</f>
+        <v>45416</v>
+      </c>
+      <c r="CN5" s="68">
+        <f t="shared" ref="CN5" si="22">CM5+1</f>
+        <v>45417</v>
+      </c>
+      <c r="CO5" s="66">
+        <f>CN5+1</f>
+        <v>45418</v>
+      </c>
+      <c r="CP5" s="67">
+        <f>CO5+1</f>
+        <v>45419</v>
+      </c>
+      <c r="CQ5" s="67">
+        <f t="shared" ref="CQ5" si="23">CP5+1</f>
+        <v>45420</v>
+      </c>
+      <c r="CR5" s="67">
+        <f t="shared" ref="CR5" si="24">CQ5+1</f>
+        <v>45421</v>
+      </c>
+      <c r="CS5" s="67">
+        <f t="shared" ref="CS5" si="25">CR5+1</f>
+        <v>45422</v>
+      </c>
+      <c r="CT5" s="67">
+        <f t="shared" ref="CT5" si="26">CS5+1</f>
+        <v>45423</v>
+      </c>
+      <c r="CU5" s="68">
+        <f t="shared" ref="CU5" si="27">CT5+1</f>
+        <v>45424</v>
+      </c>
+      <c r="CV5" s="66">
+        <f>CU5+1</f>
+        <v>45425</v>
+      </c>
+      <c r="CW5" s="67">
+        <f>CV5+1</f>
+        <v>45426</v>
+      </c>
+      <c r="CX5" s="67">
+        <f t="shared" ref="CX5" si="28">CW5+1</f>
+        <v>45427</v>
+      </c>
+      <c r="CY5" s="67">
+        <f t="shared" ref="CY5" si="29">CX5+1</f>
+        <v>45428</v>
+      </c>
+      <c r="CZ5" s="67">
+        <f t="shared" ref="CZ5" si="30">CY5+1</f>
+        <v>45429</v>
+      </c>
+      <c r="DA5" s="67">
+        <f t="shared" ref="DA5" si="31">CZ5+1</f>
+        <v>45430</v>
+      </c>
+      <c r="DB5" s="68">
+        <f t="shared" ref="DB5" si="32">DA5+1</f>
+        <v>45431</v>
+      </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:106" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
@@ -2507,231 +2805,399 @@
         <v>27</v>
       </c>
       <c r="I6" s="10" t="str">
-        <f t="shared" ref="I6:AN6" si="3">LEFT(TEXT(I5,"jjj"),1)</f>
+        <f t="shared" ref="I6:AN6" si="33">LEFT(TEXT(I5,"jjj"),1)</f>
         <v>l</v>
       </c>
       <c r="J6" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="33"/>
         <v>m</v>
       </c>
       <c r="K6" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="33"/>
         <v>m</v>
       </c>
       <c r="L6" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="33"/>
         <v>j</v>
       </c>
       <c r="M6" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="33"/>
         <v>v</v>
       </c>
       <c r="N6" s="74" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="33"/>
         <v>s</v>
       </c>
       <c r="O6" s="74" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="33"/>
         <v>d</v>
       </c>
       <c r="P6" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="33"/>
         <v>l</v>
       </c>
       <c r="Q6" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="33"/>
         <v>m</v>
       </c>
       <c r="R6" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="33"/>
         <v>m</v>
       </c>
       <c r="S6" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="33"/>
         <v>j</v>
       </c>
       <c r="T6" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="33"/>
         <v>v</v>
       </c>
       <c r="U6" s="74" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="33"/>
         <v>s</v>
       </c>
       <c r="V6" s="74" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="33"/>
         <v>d</v>
       </c>
       <c r="W6" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="33"/>
         <v>l</v>
       </c>
       <c r="X6" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="33"/>
         <v>m</v>
       </c>
       <c r="Y6" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="33"/>
         <v>m</v>
       </c>
       <c r="Z6" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="33"/>
         <v>j</v>
       </c>
       <c r="AA6" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="33"/>
         <v>v</v>
       </c>
       <c r="AB6" s="74" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="33"/>
         <v>s</v>
       </c>
       <c r="AC6" s="74" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="33"/>
         <v>d</v>
       </c>
       <c r="AD6" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="33"/>
         <v>l</v>
       </c>
       <c r="AE6" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="33"/>
         <v>m</v>
       </c>
       <c r="AF6" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="33"/>
         <v>m</v>
       </c>
       <c r="AG6" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="33"/>
         <v>j</v>
       </c>
       <c r="AH6" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="33"/>
         <v>v</v>
       </c>
       <c r="AI6" s="74" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="33"/>
         <v>s</v>
       </c>
       <c r="AJ6" s="74" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="33"/>
         <v>d</v>
       </c>
       <c r="AK6" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="33"/>
         <v>l</v>
       </c>
       <c r="AL6" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="33"/>
         <v>m</v>
       </c>
       <c r="AM6" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="33"/>
         <v>m</v>
       </c>
       <c r="AN6" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="33"/>
         <v>j</v>
       </c>
       <c r="AO6" s="10" t="str">
-        <f t="shared" ref="AO6:BL6" si="4">LEFT(TEXT(AO5,"jjj"),1)</f>
+        <f t="shared" ref="AO6:BL6" si="34">LEFT(TEXT(AO5,"jjj"),1)</f>
         <v>v</v>
       </c>
       <c r="AP6" s="74" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>s</v>
       </c>
       <c r="AQ6" s="74" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>d</v>
       </c>
       <c r="AR6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>l</v>
       </c>
       <c r="AS6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>m</v>
       </c>
       <c r="AT6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>m</v>
       </c>
       <c r="AU6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>j</v>
       </c>
       <c r="AV6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>v</v>
       </c>
       <c r="AW6" s="74" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>s</v>
       </c>
       <c r="AX6" s="74" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>d</v>
       </c>
       <c r="AY6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>l</v>
       </c>
       <c r="AZ6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>m</v>
       </c>
       <c r="BA6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>m</v>
       </c>
       <c r="BB6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>j</v>
       </c>
       <c r="BC6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>v</v>
       </c>
       <c r="BD6" s="74" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>s</v>
       </c>
       <c r="BE6" s="74" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>d</v>
       </c>
       <c r="BF6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>l</v>
       </c>
       <c r="BG6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>m</v>
       </c>
       <c r="BH6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>m</v>
       </c>
       <c r="BI6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>j</v>
       </c>
       <c r="BJ6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>v</v>
       </c>
       <c r="BK6" s="74" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>s</v>
       </c>
       <c r="BL6" s="74" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>d</v>
       </c>
+      <c r="BM6" s="10" t="str">
+        <f t="shared" ref="BM6:DB6" si="35">LEFT(TEXT(BM5,"jjj"),1)</f>
+        <v>l</v>
+      </c>
+      <c r="BN6" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>m</v>
+      </c>
+      <c r="BO6" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>m</v>
+      </c>
+      <c r="BP6" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>j</v>
+      </c>
+      <c r="BQ6" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>v</v>
+      </c>
+      <c r="BR6" s="74" t="str">
+        <f t="shared" si="35"/>
+        <v>s</v>
+      </c>
+      <c r="BS6" s="74" t="str">
+        <f t="shared" si="35"/>
+        <v>d</v>
+      </c>
+      <c r="BT6" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>l</v>
+      </c>
+      <c r="BU6" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>m</v>
+      </c>
+      <c r="BV6" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>m</v>
+      </c>
+      <c r="BW6" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>j</v>
+      </c>
+      <c r="BX6" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>v</v>
+      </c>
+      <c r="BY6" s="74" t="str">
+        <f t="shared" si="35"/>
+        <v>s</v>
+      </c>
+      <c r="BZ6" s="74" t="str">
+        <f t="shared" si="35"/>
+        <v>d</v>
+      </c>
+      <c r="CA6" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>l</v>
+      </c>
+      <c r="CB6" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>m</v>
+      </c>
+      <c r="CC6" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>m</v>
+      </c>
+      <c r="CD6" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>j</v>
+      </c>
+      <c r="CE6" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>v</v>
+      </c>
+      <c r="CF6" s="74" t="str">
+        <f t="shared" si="35"/>
+        <v>s</v>
+      </c>
+      <c r="CG6" s="74" t="str">
+        <f t="shared" si="35"/>
+        <v>d</v>
+      </c>
+      <c r="CH6" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>l</v>
+      </c>
+      <c r="CI6" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>m</v>
+      </c>
+      <c r="CJ6" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>m</v>
+      </c>
+      <c r="CK6" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>j</v>
+      </c>
+      <c r="CL6" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>v</v>
+      </c>
+      <c r="CM6" s="74" t="str">
+        <f t="shared" si="35"/>
+        <v>s</v>
+      </c>
+      <c r="CN6" s="74" t="str">
+        <f t="shared" si="35"/>
+        <v>d</v>
+      </c>
+      <c r="CO6" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>l</v>
+      </c>
+      <c r="CP6" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>m</v>
+      </c>
+      <c r="CQ6" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>m</v>
+      </c>
+      <c r="CR6" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>j</v>
+      </c>
+      <c r="CS6" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>v</v>
+      </c>
+      <c r="CT6" s="74" t="str">
+        <f t="shared" si="35"/>
+        <v>s</v>
+      </c>
+      <c r="CU6" s="74" t="str">
+        <f t="shared" si="35"/>
+        <v>d</v>
+      </c>
+      <c r="CV6" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>l</v>
+      </c>
+      <c r="CW6" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>m</v>
+      </c>
+      <c r="CX6" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>m</v>
+      </c>
+      <c r="CY6" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>j</v>
+      </c>
+      <c r="CZ6" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>v</v>
+      </c>
+      <c r="DA6" s="74" t="str">
+        <f t="shared" si="35"/>
+        <v>s</v>
+      </c>
+      <c r="DB6" s="74" t="str">
+        <f t="shared" si="35"/>
+        <v>d</v>
+      </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:106" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
         <v>6</v>
       </c>
@@ -2797,8 +3263,50 @@
       <c r="BJ7" s="69"/>
       <c r="BK7" s="69"/>
       <c r="BL7" s="69"/>
+      <c r="BM7" s="69"/>
+      <c r="BN7" s="69"/>
+      <c r="BO7" s="69"/>
+      <c r="BP7" s="69"/>
+      <c r="BQ7" s="69"/>
+      <c r="BR7" s="69"/>
+      <c r="BS7" s="69"/>
+      <c r="BT7" s="69"/>
+      <c r="BU7" s="69"/>
+      <c r="BV7" s="69"/>
+      <c r="BW7" s="69"/>
+      <c r="BX7" s="69"/>
+      <c r="BY7" s="69"/>
+      <c r="BZ7" s="69"/>
+      <c r="CA7" s="69"/>
+      <c r="CB7" s="69"/>
+      <c r="CC7" s="69"/>
+      <c r="CD7" s="69"/>
+      <c r="CE7" s="69"/>
+      <c r="CF7" s="69"/>
+      <c r="CG7" s="69"/>
+      <c r="CH7" s="69"/>
+      <c r="CI7" s="69"/>
+      <c r="CJ7" s="69"/>
+      <c r="CK7" s="69"/>
+      <c r="CL7" s="69"/>
+      <c r="CM7" s="69"/>
+      <c r="CN7" s="69"/>
+      <c r="CO7" s="69"/>
+      <c r="CP7" s="69"/>
+      <c r="CQ7" s="69"/>
+      <c r="CR7" s="69"/>
+      <c r="CS7" s="69"/>
+      <c r="CT7" s="69"/>
+      <c r="CU7" s="69"/>
+      <c r="CV7" s="69"/>
+      <c r="CW7" s="69"/>
+      <c r="CX7" s="69"/>
+      <c r="CY7" s="69"/>
+      <c r="CZ7" s="69"/>
+      <c r="DA7" s="69"/>
+      <c r="DB7" s="69"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
         <v>7</v>
       </c>
@@ -2811,68 +3319,110 @@
       <c r="F8" s="52"/>
       <c r="G8" s="72"/>
       <c r="H8" s="72"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="115"/>
-      <c r="Y8" s="115"/>
-      <c r="Z8" s="115"/>
-      <c r="AA8" s="115"/>
-      <c r="AB8" s="115"/>
-      <c r="AC8" s="116"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="95"/>
+      <c r="S8" s="95"/>
+      <c r="T8" s="95"/>
+      <c r="U8" s="95"/>
+      <c r="V8" s="95"/>
+      <c r="W8" s="95"/>
+      <c r="X8" s="95"/>
+      <c r="Y8" s="95"/>
+      <c r="Z8" s="95"/>
+      <c r="AA8" s="95"/>
+      <c r="AB8" s="95"/>
+      <c r="AC8" s="96"/>
       <c r="AD8" s="72"/>
       <c r="AE8" s="72"/>
       <c r="AF8" s="72"/>
       <c r="AG8" s="72"/>
       <c r="AH8" s="72"/>
-      <c r="AI8" s="102"/>
-      <c r="AJ8" s="103"/>
+      <c r="AI8" s="88"/>
+      <c r="AJ8" s="89"/>
       <c r="AK8" s="72"/>
       <c r="AL8" s="72"/>
       <c r="AM8" s="72"/>
       <c r="AN8" s="72"/>
       <c r="AO8" s="72"/>
-      <c r="AP8" s="102"/>
-      <c r="AQ8" s="103"/>
+      <c r="AP8" s="88"/>
+      <c r="AQ8" s="89"/>
       <c r="AR8" s="72"/>
       <c r="AS8" s="72"/>
       <c r="AT8" s="72"/>
       <c r="AU8" s="72"/>
       <c r="AV8" s="72"/>
-      <c r="AW8" s="102"/>
-      <c r="AX8" s="103"/>
+      <c r="AW8" s="88"/>
+      <c r="AX8" s="89"/>
       <c r="AY8" s="72"/>
       <c r="AZ8" s="72"/>
       <c r="BA8" s="72"/>
       <c r="BB8" s="72"/>
       <c r="BC8" s="72"/>
-      <c r="BD8" s="77"/>
-      <c r="BE8" s="78"/>
+      <c r="BD8" s="88"/>
+      <c r="BE8" s="89"/>
       <c r="BF8" s="72"/>
       <c r="BG8" s="72"/>
       <c r="BH8" s="72"/>
       <c r="BI8" s="72"/>
       <c r="BJ8" s="72"/>
-      <c r="BK8" s="77"/>
-      <c r="BL8" s="78"/>
+      <c r="BK8" s="88"/>
+      <c r="BL8" s="89"/>
+      <c r="BM8" s="72"/>
+      <c r="BN8" s="72"/>
+      <c r="BO8" s="72"/>
+      <c r="BP8" s="72"/>
+      <c r="BQ8" s="72"/>
+      <c r="BR8" s="88"/>
+      <c r="BS8" s="89"/>
+      <c r="BT8" s="72"/>
+      <c r="BU8" s="72"/>
+      <c r="BV8" s="72"/>
+      <c r="BW8" s="72"/>
+      <c r="BX8" s="72"/>
+      <c r="BY8" s="88"/>
+      <c r="BZ8" s="89"/>
+      <c r="CA8" s="72"/>
+      <c r="CB8" s="72"/>
+      <c r="CC8" s="72"/>
+      <c r="CD8" s="72"/>
+      <c r="CE8" s="72"/>
+      <c r="CF8" s="88"/>
+      <c r="CG8" s="89"/>
+      <c r="CH8" s="72"/>
+      <c r="CI8" s="72"/>
+      <c r="CJ8" s="72"/>
+      <c r="CK8" s="72"/>
+      <c r="CL8" s="72"/>
+      <c r="CM8" s="88"/>
+      <c r="CN8" s="89"/>
+      <c r="CO8" s="72"/>
+      <c r="CP8" s="72"/>
+      <c r="CQ8" s="72"/>
+      <c r="CR8" s="72"/>
+      <c r="CS8" s="72"/>
+      <c r="CT8" s="88"/>
+      <c r="CU8" s="89"/>
+      <c r="CV8" s="72"/>
+      <c r="CW8" s="72"/>
+      <c r="CX8" s="72"/>
+      <c r="CY8" s="72"/>
+      <c r="CZ8" s="72"/>
+      <c r="DA8" s="88"/>
+      <c r="DB8" s="89"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="87" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="39"/>
@@ -2888,69 +3438,111 @@
         <v>45338</v>
       </c>
       <c r="G9" s="72"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="102"/>
-      <c r="O9" s="103"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="89"/>
       <c r="P9" s="72"/>
       <c r="Q9" s="72"/>
       <c r="R9" s="72"/>
       <c r="S9" s="72"/>
       <c r="T9" s="72"/>
-      <c r="U9" s="102"/>
-      <c r="V9" s="103"/>
+      <c r="U9" s="88"/>
+      <c r="V9" s="89"/>
       <c r="W9" s="72"/>
       <c r="X9" s="72"/>
       <c r="Y9" s="72"/>
       <c r="Z9" s="72"/>
       <c r="AA9" s="72"/>
-      <c r="AB9" s="102"/>
-      <c r="AC9" s="103"/>
+      <c r="AB9" s="88"/>
+      <c r="AC9" s="89"/>
       <c r="AD9" s="72"/>
       <c r="AE9" s="72"/>
       <c r="AF9" s="72"/>
       <c r="AG9" s="72"/>
       <c r="AH9" s="72"/>
-      <c r="AI9" s="104"/>
-      <c r="AJ9" s="105"/>
+      <c r="AI9" s="90"/>
+      <c r="AJ9" s="91"/>
       <c r="AK9" s="72"/>
       <c r="AL9" s="72"/>
       <c r="AM9" s="72"/>
       <c r="AN9" s="72"/>
       <c r="AO9" s="72"/>
-      <c r="AP9" s="104"/>
-      <c r="AQ9" s="105"/>
+      <c r="AP9" s="90"/>
+      <c r="AQ9" s="91"/>
       <c r="AR9" s="72"/>
       <c r="AS9" s="72"/>
       <c r="AT9" s="72"/>
       <c r="AU9" s="72"/>
       <c r="AV9" s="72"/>
-      <c r="AW9" s="104"/>
-      <c r="AX9" s="105"/>
+      <c r="AW9" s="90"/>
+      <c r="AX9" s="91"/>
       <c r="AY9" s="72"/>
       <c r="AZ9" s="72"/>
       <c r="BA9" s="72"/>
       <c r="BB9" s="72"/>
       <c r="BC9" s="72"/>
-      <c r="BD9" s="79"/>
-      <c r="BE9" s="80"/>
+      <c r="BD9" s="90"/>
+      <c r="BE9" s="91"/>
       <c r="BF9" s="72"/>
       <c r="BG9" s="72"/>
       <c r="BH9" s="72"/>
       <c r="BI9" s="72"/>
       <c r="BJ9" s="72"/>
-      <c r="BK9" s="79"/>
-      <c r="BL9" s="80"/>
+      <c r="BK9" s="90"/>
+      <c r="BL9" s="91"/>
+      <c r="BM9" s="72"/>
+      <c r="BN9" s="72"/>
+      <c r="BO9" s="72"/>
+      <c r="BP9" s="72"/>
+      <c r="BQ9" s="72"/>
+      <c r="BR9" s="90"/>
+      <c r="BS9" s="91"/>
+      <c r="BT9" s="72"/>
+      <c r="BU9" s="72"/>
+      <c r="BV9" s="72"/>
+      <c r="BW9" s="72"/>
+      <c r="BX9" s="72"/>
+      <c r="BY9" s="90"/>
+      <c r="BZ9" s="91"/>
+      <c r="CA9" s="72"/>
+      <c r="CB9" s="72"/>
+      <c r="CC9" s="72"/>
+      <c r="CD9" s="72"/>
+      <c r="CE9" s="72"/>
+      <c r="CF9" s="90"/>
+      <c r="CG9" s="91"/>
+      <c r="CH9" s="72"/>
+      <c r="CI9" s="72"/>
+      <c r="CJ9" s="72"/>
+      <c r="CK9" s="72"/>
+      <c r="CL9" s="72"/>
+      <c r="CM9" s="90"/>
+      <c r="CN9" s="91"/>
+      <c r="CO9" s="72"/>
+      <c r="CP9" s="72"/>
+      <c r="CQ9" s="72"/>
+      <c r="CR9" s="72"/>
+      <c r="CS9" s="72"/>
+      <c r="CT9" s="90"/>
+      <c r="CU9" s="91"/>
+      <c r="CV9" s="72"/>
+      <c r="CW9" s="72"/>
+      <c r="CX9" s="72"/>
+      <c r="CY9" s="72"/>
+      <c r="CZ9" s="72"/>
+      <c r="DA9" s="90"/>
+      <c r="DB9" s="91"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="120" t="s">
+      <c r="B10" s="87" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="39"/>
@@ -2967,66 +3559,108 @@
       </c>
       <c r="G10" s="72"/>
       <c r="H10" s="72"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="97"/>
-      <c r="L10" s="97"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="105"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="91"/>
       <c r="P10" s="72"/>
       <c r="Q10" s="72"/>
       <c r="R10" s="72"/>
       <c r="S10" s="72"/>
       <c r="T10" s="72"/>
-      <c r="U10" s="104"/>
-      <c r="V10" s="105"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="91"/>
       <c r="W10" s="72"/>
       <c r="X10" s="72"/>
       <c r="Y10" s="72"/>
       <c r="Z10" s="72"/>
       <c r="AA10" s="72"/>
-      <c r="AB10" s="104"/>
-      <c r="AC10" s="105"/>
+      <c r="AB10" s="90"/>
+      <c r="AC10" s="91"/>
       <c r="AD10" s="72"/>
       <c r="AE10" s="72"/>
       <c r="AF10" s="72"/>
       <c r="AG10" s="72"/>
       <c r="AH10" s="72"/>
-      <c r="AI10" s="104"/>
-      <c r="AJ10" s="105"/>
+      <c r="AI10" s="90"/>
+      <c r="AJ10" s="91"/>
       <c r="AK10" s="72"/>
       <c r="AL10" s="72"/>
       <c r="AM10" s="72"/>
       <c r="AN10" s="72"/>
       <c r="AO10" s="72"/>
-      <c r="AP10" s="104"/>
-      <c r="AQ10" s="105"/>
+      <c r="AP10" s="90"/>
+      <c r="AQ10" s="91"/>
       <c r="AR10" s="72"/>
       <c r="AS10" s="72"/>
       <c r="AT10" s="72"/>
       <c r="AU10" s="72"/>
       <c r="AV10" s="72"/>
-      <c r="AW10" s="104"/>
-      <c r="AX10" s="105"/>
+      <c r="AW10" s="90"/>
+      <c r="AX10" s="91"/>
       <c r="AY10" s="72"/>
       <c r="AZ10" s="72"/>
       <c r="BA10" s="72"/>
       <c r="BB10" s="72"/>
       <c r="BC10" s="72"/>
-      <c r="BD10" s="79"/>
-      <c r="BE10" s="80"/>
+      <c r="BD10" s="90"/>
+      <c r="BE10" s="91"/>
       <c r="BF10" s="72"/>
       <c r="BG10" s="72"/>
       <c r="BH10" s="72"/>
       <c r="BI10" s="72"/>
       <c r="BJ10" s="72"/>
-      <c r="BK10" s="79"/>
-      <c r="BL10" s="80"/>
+      <c r="BK10" s="90"/>
+      <c r="BL10" s="91"/>
+      <c r="BM10" s="72"/>
+      <c r="BN10" s="72"/>
+      <c r="BO10" s="72"/>
+      <c r="BP10" s="72"/>
+      <c r="BQ10" s="72"/>
+      <c r="BR10" s="90"/>
+      <c r="BS10" s="91"/>
+      <c r="BT10" s="72"/>
+      <c r="BU10" s="72"/>
+      <c r="BV10" s="72"/>
+      <c r="BW10" s="72"/>
+      <c r="BX10" s="72"/>
+      <c r="BY10" s="90"/>
+      <c r="BZ10" s="91"/>
+      <c r="CA10" s="72"/>
+      <c r="CB10" s="72"/>
+      <c r="CC10" s="72"/>
+      <c r="CD10" s="72"/>
+      <c r="CE10" s="72"/>
+      <c r="CF10" s="90"/>
+      <c r="CG10" s="91"/>
+      <c r="CH10" s="72"/>
+      <c r="CI10" s="72"/>
+      <c r="CJ10" s="72"/>
+      <c r="CK10" s="72"/>
+      <c r="CL10" s="72"/>
+      <c r="CM10" s="90"/>
+      <c r="CN10" s="91"/>
+      <c r="CO10" s="72"/>
+      <c r="CP10" s="72"/>
+      <c r="CQ10" s="72"/>
+      <c r="CR10" s="72"/>
+      <c r="CS10" s="72"/>
+      <c r="CT10" s="90"/>
+      <c r="CU10" s="91"/>
+      <c r="CV10" s="72"/>
+      <c r="CW10" s="72"/>
+      <c r="CX10" s="72"/>
+      <c r="CY10" s="72"/>
+      <c r="CZ10" s="72"/>
+      <c r="DA10" s="90"/>
+      <c r="DB10" s="91"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="32"/>
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="87" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="39"/>
@@ -3048,61 +3682,103 @@
       <c r="K11" s="72"/>
       <c r="L11" s="72"/>
       <c r="M11" s="73"/>
-      <c r="N11" s="104"/>
-      <c r="O11" s="105"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="97"/>
-      <c r="R11" s="98"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="100"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="102"/>
       <c r="S11" s="72"/>
       <c r="T11" s="72"/>
-      <c r="U11" s="104"/>
-      <c r="V11" s="105"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="91"/>
       <c r="W11" s="72"/>
       <c r="X11" s="72"/>
       <c r="Y11" s="72"/>
       <c r="Z11" s="72"/>
       <c r="AA11" s="72"/>
-      <c r="AB11" s="104"/>
-      <c r="AC11" s="105"/>
+      <c r="AB11" s="90"/>
+      <c r="AC11" s="91"/>
       <c r="AD11" s="72"/>
       <c r="AE11" s="72"/>
       <c r="AF11" s="72"/>
       <c r="AG11" s="72"/>
       <c r="AH11" s="72"/>
-      <c r="AI11" s="104"/>
-      <c r="AJ11" s="105"/>
+      <c r="AI11" s="90"/>
+      <c r="AJ11" s="91"/>
       <c r="AK11" s="72"/>
       <c r="AL11" s="72"/>
       <c r="AM11" s="72"/>
       <c r="AN11" s="72"/>
       <c r="AO11" s="72"/>
-      <c r="AP11" s="104"/>
-      <c r="AQ11" s="105"/>
+      <c r="AP11" s="90"/>
+      <c r="AQ11" s="91"/>
       <c r="AR11" s="72"/>
       <c r="AS11" s="72"/>
       <c r="AT11" s="72"/>
       <c r="AU11" s="72"/>
       <c r="AV11" s="72"/>
-      <c r="AW11" s="104"/>
-      <c r="AX11" s="105"/>
+      <c r="AW11" s="90"/>
+      <c r="AX11" s="91"/>
       <c r="AY11" s="72"/>
       <c r="AZ11" s="72"/>
       <c r="BA11" s="72"/>
       <c r="BB11" s="72"/>
       <c r="BC11" s="72"/>
-      <c r="BD11" s="79"/>
-      <c r="BE11" s="80"/>
+      <c r="BD11" s="90"/>
+      <c r="BE11" s="91"/>
       <c r="BF11" s="72"/>
       <c r="BG11" s="72"/>
       <c r="BH11" s="72"/>
       <c r="BI11" s="72"/>
       <c r="BJ11" s="72"/>
-      <c r="BK11" s="79"/>
-      <c r="BL11" s="80"/>
+      <c r="BK11" s="90"/>
+      <c r="BL11" s="91"/>
+      <c r="BM11" s="72"/>
+      <c r="BN11" s="72"/>
+      <c r="BO11" s="72"/>
+      <c r="BP11" s="72"/>
+      <c r="BQ11" s="72"/>
+      <c r="BR11" s="90"/>
+      <c r="BS11" s="91"/>
+      <c r="BT11" s="72"/>
+      <c r="BU11" s="72"/>
+      <c r="BV11" s="72"/>
+      <c r="BW11" s="72"/>
+      <c r="BX11" s="72"/>
+      <c r="BY11" s="90"/>
+      <c r="BZ11" s="91"/>
+      <c r="CA11" s="72"/>
+      <c r="CB11" s="72"/>
+      <c r="CC11" s="72"/>
+      <c r="CD11" s="72"/>
+      <c r="CE11" s="72"/>
+      <c r="CF11" s="90"/>
+      <c r="CG11" s="91"/>
+      <c r="CH11" s="72"/>
+      <c r="CI11" s="72"/>
+      <c r="CJ11" s="72"/>
+      <c r="CK11" s="72"/>
+      <c r="CL11" s="72"/>
+      <c r="CM11" s="90"/>
+      <c r="CN11" s="91"/>
+      <c r="CO11" s="72"/>
+      <c r="CP11" s="72"/>
+      <c r="CQ11" s="72"/>
+      <c r="CR11" s="72"/>
+      <c r="CS11" s="72"/>
+      <c r="CT11" s="90"/>
+      <c r="CU11" s="91"/>
+      <c r="CV11" s="72"/>
+      <c r="CW11" s="72"/>
+      <c r="CX11" s="72"/>
+      <c r="CY11" s="72"/>
+      <c r="CZ11" s="72"/>
+      <c r="DA11" s="90"/>
+      <c r="DB11" s="91"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="32"/>
-      <c r="B12" s="120" t="s">
+      <c r="B12" s="87" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="39"/>
@@ -3124,61 +3800,103 @@
       <c r="K12" s="72"/>
       <c r="L12" s="72"/>
       <c r="M12" s="72"/>
-      <c r="N12" s="104"/>
-      <c r="O12" s="105"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="91"/>
       <c r="P12" s="72"/>
       <c r="Q12" s="72"/>
-      <c r="R12" s="96"/>
-      <c r="S12" s="97"/>
-      <c r="T12" s="98"/>
-      <c r="U12" s="104"/>
-      <c r="V12" s="105"/>
+      <c r="R12" s="100"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="102"/>
+      <c r="U12" s="90"/>
+      <c r="V12" s="91"/>
       <c r="W12" s="72"/>
       <c r="X12" s="72"/>
       <c r="Y12" s="72"/>
       <c r="Z12" s="72"/>
       <c r="AA12" s="72"/>
-      <c r="AB12" s="104"/>
-      <c r="AC12" s="105"/>
+      <c r="AB12" s="90"/>
+      <c r="AC12" s="91"/>
       <c r="AD12" s="72"/>
       <c r="AE12" s="72"/>
       <c r="AF12" s="72"/>
       <c r="AG12" s="72"/>
       <c r="AH12" s="72"/>
-      <c r="AI12" s="104"/>
-      <c r="AJ12" s="105"/>
+      <c r="AI12" s="90"/>
+      <c r="AJ12" s="91"/>
       <c r="AK12" s="72"/>
       <c r="AL12" s="72"/>
       <c r="AM12" s="72"/>
       <c r="AN12" s="72"/>
       <c r="AO12" s="72"/>
-      <c r="AP12" s="104"/>
-      <c r="AQ12" s="105"/>
+      <c r="AP12" s="90"/>
+      <c r="AQ12" s="91"/>
       <c r="AR12" s="72"/>
       <c r="AS12" s="72"/>
       <c r="AT12" s="72"/>
       <c r="AU12" s="72"/>
       <c r="AV12" s="72"/>
-      <c r="AW12" s="104"/>
-      <c r="AX12" s="105"/>
+      <c r="AW12" s="90"/>
+      <c r="AX12" s="91"/>
       <c r="AY12" s="72"/>
       <c r="AZ12" s="72"/>
       <c r="BA12" s="72"/>
       <c r="BB12" s="72"/>
       <c r="BC12" s="72"/>
-      <c r="BD12" s="79"/>
-      <c r="BE12" s="80"/>
+      <c r="BD12" s="90"/>
+      <c r="BE12" s="91"/>
       <c r="BF12" s="72"/>
       <c r="BG12" s="72"/>
       <c r="BH12" s="72"/>
       <c r="BI12" s="72"/>
       <c r="BJ12" s="72"/>
-      <c r="BK12" s="79"/>
-      <c r="BL12" s="80"/>
+      <c r="BK12" s="90"/>
+      <c r="BL12" s="91"/>
+      <c r="BM12" s="72"/>
+      <c r="BN12" s="72"/>
+      <c r="BO12" s="72"/>
+      <c r="BP12" s="72"/>
+      <c r="BQ12" s="72"/>
+      <c r="BR12" s="90"/>
+      <c r="BS12" s="91"/>
+      <c r="BT12" s="72"/>
+      <c r="BU12" s="72"/>
+      <c r="BV12" s="72"/>
+      <c r="BW12" s="72"/>
+      <c r="BX12" s="72"/>
+      <c r="BY12" s="90"/>
+      <c r="BZ12" s="91"/>
+      <c r="CA12" s="72"/>
+      <c r="CB12" s="72"/>
+      <c r="CC12" s="72"/>
+      <c r="CD12" s="72"/>
+      <c r="CE12" s="72"/>
+      <c r="CF12" s="90"/>
+      <c r="CG12" s="91"/>
+      <c r="CH12" s="72"/>
+      <c r="CI12" s="72"/>
+      <c r="CJ12" s="72"/>
+      <c r="CK12" s="72"/>
+      <c r="CL12" s="72"/>
+      <c r="CM12" s="90"/>
+      <c r="CN12" s="91"/>
+      <c r="CO12" s="72"/>
+      <c r="CP12" s="72"/>
+      <c r="CQ12" s="72"/>
+      <c r="CR12" s="72"/>
+      <c r="CS12" s="72"/>
+      <c r="CT12" s="90"/>
+      <c r="CU12" s="91"/>
+      <c r="CV12" s="72"/>
+      <c r="CW12" s="72"/>
+      <c r="CX12" s="72"/>
+      <c r="CY12" s="72"/>
+      <c r="CZ12" s="72"/>
+      <c r="DA12" s="90"/>
+      <c r="DB12" s="91"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="32"/>
-      <c r="B13" s="120" t="s">
+      <c r="B13" s="87" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="39"/>
@@ -3200,59 +3918,101 @@
       <c r="K13" s="72"/>
       <c r="L13" s="72"/>
       <c r="M13" s="72"/>
-      <c r="N13" s="106"/>
-      <c r="O13" s="107"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="93"/>
       <c r="P13" s="72"/>
       <c r="Q13" s="72"/>
-      <c r="R13" s="96"/>
-      <c r="S13" s="97"/>
-      <c r="T13" s="98"/>
-      <c r="U13" s="104"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="89"/>
-      <c r="X13" s="88"/>
-      <c r="Y13" s="88"/>
-      <c r="Z13" s="88"/>
-      <c r="AA13" s="88"/>
-      <c r="AB13" s="104"/>
-      <c r="AC13" s="105"/>
+      <c r="R13" s="100"/>
+      <c r="S13" s="101"/>
+      <c r="T13" s="102"/>
+      <c r="U13" s="90"/>
+      <c r="V13" s="91"/>
+      <c r="W13" s="83"/>
+      <c r="X13" s="82"/>
+      <c r="Y13" s="82"/>
+      <c r="Z13" s="82"/>
+      <c r="AA13" s="82"/>
+      <c r="AB13" s="90"/>
+      <c r="AC13" s="91"/>
       <c r="AD13" s="72"/>
       <c r="AE13" s="72"/>
       <c r="AF13" s="72"/>
       <c r="AG13" s="72"/>
       <c r="AH13" s="72"/>
-      <c r="AI13" s="104"/>
-      <c r="AJ13" s="105"/>
+      <c r="AI13" s="90"/>
+      <c r="AJ13" s="91"/>
       <c r="AK13" s="72"/>
       <c r="AL13" s="72"/>
       <c r="AM13" s="72"/>
       <c r="AN13" s="72"/>
       <c r="AO13" s="72"/>
-      <c r="AP13" s="104"/>
-      <c r="AQ13" s="105"/>
+      <c r="AP13" s="90"/>
+      <c r="AQ13" s="91"/>
       <c r="AR13" s="72"/>
       <c r="AS13" s="72"/>
       <c r="AT13" s="72"/>
       <c r="AU13" s="72"/>
       <c r="AV13" s="72"/>
-      <c r="AW13" s="104"/>
-      <c r="AX13" s="105"/>
+      <c r="AW13" s="90"/>
+      <c r="AX13" s="91"/>
       <c r="AY13" s="72"/>
       <c r="AZ13" s="72"/>
       <c r="BA13" s="72"/>
       <c r="BB13" s="72"/>
       <c r="BC13" s="72"/>
-      <c r="BD13" s="79"/>
-      <c r="BE13" s="80"/>
+      <c r="BD13" s="90"/>
+      <c r="BE13" s="91"/>
       <c r="BF13" s="72"/>
       <c r="BG13" s="72"/>
       <c r="BH13" s="72"/>
       <c r="BI13" s="72"/>
       <c r="BJ13" s="72"/>
-      <c r="BK13" s="79"/>
-      <c r="BL13" s="80"/>
+      <c r="BK13" s="90"/>
+      <c r="BL13" s="91"/>
+      <c r="BM13" s="72"/>
+      <c r="BN13" s="72"/>
+      <c r="BO13" s="72"/>
+      <c r="BP13" s="72"/>
+      <c r="BQ13" s="72"/>
+      <c r="BR13" s="90"/>
+      <c r="BS13" s="91"/>
+      <c r="BT13" s="72"/>
+      <c r="BU13" s="72"/>
+      <c r="BV13" s="72"/>
+      <c r="BW13" s="72"/>
+      <c r="BX13" s="72"/>
+      <c r="BY13" s="90"/>
+      <c r="BZ13" s="91"/>
+      <c r="CA13" s="72"/>
+      <c r="CB13" s="72"/>
+      <c r="CC13" s="72"/>
+      <c r="CD13" s="72"/>
+      <c r="CE13" s="72"/>
+      <c r="CF13" s="90"/>
+      <c r="CG13" s="91"/>
+      <c r="CH13" s="72"/>
+      <c r="CI13" s="72"/>
+      <c r="CJ13" s="72"/>
+      <c r="CK13" s="72"/>
+      <c r="CL13" s="72"/>
+      <c r="CM13" s="90"/>
+      <c r="CN13" s="91"/>
+      <c r="CO13" s="72"/>
+      <c r="CP13" s="72"/>
+      <c r="CQ13" s="72"/>
+      <c r="CR13" s="72"/>
+      <c r="CS13" s="72"/>
+      <c r="CT13" s="90"/>
+      <c r="CU13" s="91"/>
+      <c r="CV13" s="72"/>
+      <c r="CW13" s="72"/>
+      <c r="CX13" s="72"/>
+      <c r="CY13" s="72"/>
+      <c r="CZ13" s="72"/>
+      <c r="DA13" s="90"/>
+      <c r="DB13" s="91"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
         <v>10</v>
       </c>
@@ -3271,62 +4031,104 @@
       <c r="J14" s="72"/>
       <c r="K14" s="72"/>
       <c r="L14" s="72"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="100"/>
-      <c r="P14" s="100"/>
-      <c r="Q14" s="100"/>
-      <c r="R14" s="100"/>
-      <c r="S14" s="100"/>
-      <c r="T14" s="101"/>
-      <c r="U14" s="104"/>
-      <c r="V14" s="105"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="104"/>
+      <c r="P14" s="104"/>
+      <c r="Q14" s="104"/>
+      <c r="R14" s="104"/>
+      <c r="S14" s="104"/>
+      <c r="T14" s="105"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="91"/>
       <c r="W14" s="72"/>
       <c r="X14" s="72"/>
       <c r="Y14" s="72"/>
       <c r="Z14" s="72"/>
       <c r="AA14" s="72"/>
-      <c r="AB14" s="104"/>
-      <c r="AC14" s="105"/>
+      <c r="AB14" s="90"/>
+      <c r="AC14" s="91"/>
       <c r="AD14" s="72"/>
       <c r="AE14" s="72"/>
       <c r="AF14" s="72"/>
       <c r="AG14" s="72"/>
       <c r="AH14" s="72"/>
-      <c r="AI14" s="104"/>
-      <c r="AJ14" s="105"/>
+      <c r="AI14" s="90"/>
+      <c r="AJ14" s="91"/>
       <c r="AK14" s="72"/>
       <c r="AL14" s="72"/>
       <c r="AM14" s="72"/>
       <c r="AN14" s="72"/>
       <c r="AO14" s="72"/>
-      <c r="AP14" s="104"/>
-      <c r="AQ14" s="105"/>
+      <c r="AP14" s="90"/>
+      <c r="AQ14" s="91"/>
       <c r="AR14" s="72"/>
       <c r="AS14" s="72"/>
       <c r="AT14" s="72"/>
       <c r="AU14" s="72"/>
       <c r="AV14" s="72"/>
-      <c r="AW14" s="104"/>
-      <c r="AX14" s="105"/>
+      <c r="AW14" s="90"/>
+      <c r="AX14" s="91"/>
       <c r="AY14" s="72"/>
       <c r="AZ14" s="72"/>
       <c r="BA14" s="72"/>
       <c r="BB14" s="72"/>
       <c r="BC14" s="72"/>
-      <c r="BD14" s="79"/>
-      <c r="BE14" s="80"/>
+      <c r="BD14" s="90"/>
+      <c r="BE14" s="91"/>
       <c r="BF14" s="72"/>
       <c r="BG14" s="72"/>
       <c r="BH14" s="72"/>
       <c r="BI14" s="72"/>
       <c r="BJ14" s="72"/>
-      <c r="BK14" s="79"/>
-      <c r="BL14" s="80"/>
+      <c r="BK14" s="90"/>
+      <c r="BL14" s="91"/>
+      <c r="BM14" s="72"/>
+      <c r="BN14" s="72"/>
+      <c r="BO14" s="72"/>
+      <c r="BP14" s="72"/>
+      <c r="BQ14" s="72"/>
+      <c r="BR14" s="90"/>
+      <c r="BS14" s="91"/>
+      <c r="BT14" s="72"/>
+      <c r="BU14" s="72"/>
+      <c r="BV14" s="72"/>
+      <c r="BW14" s="72"/>
+      <c r="BX14" s="72"/>
+      <c r="BY14" s="90"/>
+      <c r="BZ14" s="91"/>
+      <c r="CA14" s="72"/>
+      <c r="CB14" s="72"/>
+      <c r="CC14" s="72"/>
+      <c r="CD14" s="72"/>
+      <c r="CE14" s="72"/>
+      <c r="CF14" s="90"/>
+      <c r="CG14" s="91"/>
+      <c r="CH14" s="72"/>
+      <c r="CI14" s="72"/>
+      <c r="CJ14" s="72"/>
+      <c r="CK14" s="72"/>
+      <c r="CL14" s="72"/>
+      <c r="CM14" s="90"/>
+      <c r="CN14" s="91"/>
+      <c r="CO14" s="72"/>
+      <c r="CP14" s="72"/>
+      <c r="CQ14" s="72"/>
+      <c r="CR14" s="72"/>
+      <c r="CS14" s="72"/>
+      <c r="CT14" s="90"/>
+      <c r="CU14" s="91"/>
+      <c r="CV14" s="72"/>
+      <c r="CW14" s="72"/>
+      <c r="CX14" s="72"/>
+      <c r="CY14" s="72"/>
+      <c r="CZ14" s="72"/>
+      <c r="DA14" s="90"/>
+      <c r="DB14" s="91"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33"/>
-      <c r="B15" s="117" t="s">
+      <c r="B15" s="84" t="s">
         <v>51</v>
       </c>
       <c r="C15" s="41"/>
@@ -3348,61 +4150,103 @@
       <c r="K15" s="72"/>
       <c r="L15" s="72"/>
       <c r="M15" s="73"/>
-      <c r="N15" s="102"/>
-      <c r="O15" s="103"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="89"/>
       <c r="P15" s="72"/>
       <c r="Q15" s="72"/>
       <c r="R15" s="72"/>
       <c r="S15" s="72"/>
       <c r="T15" s="72"/>
-      <c r="U15" s="104"/>
-      <c r="V15" s="105"/>
+      <c r="U15" s="90"/>
+      <c r="V15" s="91"/>
       <c r="W15" s="72"/>
       <c r="X15" s="72"/>
       <c r="Y15" s="72"/>
       <c r="Z15" s="72"/>
       <c r="AA15" s="72"/>
-      <c r="AB15" s="104"/>
-      <c r="AC15" s="105"/>
+      <c r="AB15" s="90"/>
+      <c r="AC15" s="91"/>
       <c r="AD15" s="72"/>
       <c r="AE15" s="72"/>
       <c r="AF15" s="72"/>
       <c r="AG15" s="72"/>
       <c r="AH15" s="72"/>
-      <c r="AI15" s="104"/>
-      <c r="AJ15" s="105"/>
+      <c r="AI15" s="90"/>
+      <c r="AJ15" s="91"/>
       <c r="AK15" s="72"/>
       <c r="AL15" s="72"/>
       <c r="AM15" s="72"/>
       <c r="AN15" s="72"/>
       <c r="AO15" s="72"/>
-      <c r="AP15" s="104"/>
-      <c r="AQ15" s="105"/>
+      <c r="AP15" s="90"/>
+      <c r="AQ15" s="91"/>
       <c r="AR15" s="72"/>
       <c r="AS15" s="72"/>
       <c r="AT15" s="72"/>
       <c r="AU15" s="72"/>
       <c r="AV15" s="72"/>
-      <c r="AW15" s="104"/>
-      <c r="AX15" s="105"/>
+      <c r="AW15" s="90"/>
+      <c r="AX15" s="91"/>
       <c r="AY15" s="72"/>
       <c r="AZ15" s="72"/>
       <c r="BA15" s="72"/>
       <c r="BB15" s="72"/>
       <c r="BC15" s="72"/>
-      <c r="BD15" s="79"/>
-      <c r="BE15" s="80"/>
+      <c r="BD15" s="90"/>
+      <c r="BE15" s="91"/>
       <c r="BF15" s="72"/>
       <c r="BG15" s="72"/>
       <c r="BH15" s="72"/>
       <c r="BI15" s="72"/>
       <c r="BJ15" s="72"/>
-      <c r="BK15" s="79"/>
-      <c r="BL15" s="80"/>
+      <c r="BK15" s="90"/>
+      <c r="BL15" s="91"/>
+      <c r="BM15" s="72"/>
+      <c r="BN15" s="72"/>
+      <c r="BO15" s="72"/>
+      <c r="BP15" s="72"/>
+      <c r="BQ15" s="72"/>
+      <c r="BR15" s="90"/>
+      <c r="BS15" s="91"/>
+      <c r="BT15" s="72"/>
+      <c r="BU15" s="72"/>
+      <c r="BV15" s="72"/>
+      <c r="BW15" s="72"/>
+      <c r="BX15" s="72"/>
+      <c r="BY15" s="90"/>
+      <c r="BZ15" s="91"/>
+      <c r="CA15" s="72"/>
+      <c r="CB15" s="72"/>
+      <c r="CC15" s="72"/>
+      <c r="CD15" s="72"/>
+      <c r="CE15" s="72"/>
+      <c r="CF15" s="90"/>
+      <c r="CG15" s="91"/>
+      <c r="CH15" s="72"/>
+      <c r="CI15" s="72"/>
+      <c r="CJ15" s="72"/>
+      <c r="CK15" s="72"/>
+      <c r="CL15" s="72"/>
+      <c r="CM15" s="90"/>
+      <c r="CN15" s="91"/>
+      <c r="CO15" s="72"/>
+      <c r="CP15" s="72"/>
+      <c r="CQ15" s="72"/>
+      <c r="CR15" s="72"/>
+      <c r="CS15" s="72"/>
+      <c r="CT15" s="90"/>
+      <c r="CU15" s="91"/>
+      <c r="CV15" s="72"/>
+      <c r="CW15" s="72"/>
+      <c r="CX15" s="72"/>
+      <c r="CY15" s="72"/>
+      <c r="CZ15" s="72"/>
+      <c r="DA15" s="90"/>
+      <c r="DB15" s="91"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="32"/>
-      <c r="B16" s="117" t="s">
+      <c r="B16" s="84" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="41"/>
@@ -3424,61 +4268,103 @@
       <c r="K16" s="72"/>
       <c r="L16" s="72"/>
       <c r="M16" s="73"/>
-      <c r="N16" s="104"/>
-      <c r="O16" s="105"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="91"/>
       <c r="P16" s="72"/>
       <c r="Q16" s="72"/>
       <c r="R16" s="72"/>
       <c r="S16" s="72"/>
       <c r="T16" s="72"/>
-      <c r="U16" s="104"/>
-      <c r="V16" s="105"/>
+      <c r="U16" s="90"/>
+      <c r="V16" s="91"/>
       <c r="W16" s="72"/>
       <c r="X16" s="72"/>
       <c r="Y16" s="72"/>
       <c r="Z16" s="72"/>
       <c r="AA16" s="72"/>
-      <c r="AB16" s="104"/>
-      <c r="AC16" s="105"/>
+      <c r="AB16" s="90"/>
+      <c r="AC16" s="91"/>
       <c r="AD16" s="72"/>
       <c r="AE16" s="72"/>
       <c r="AF16" s="72"/>
       <c r="AG16" s="72"/>
       <c r="AH16" s="72"/>
-      <c r="AI16" s="104"/>
-      <c r="AJ16" s="105"/>
+      <c r="AI16" s="90"/>
+      <c r="AJ16" s="91"/>
       <c r="AK16" s="72"/>
       <c r="AL16" s="72"/>
       <c r="AM16" s="72"/>
       <c r="AN16" s="72"/>
       <c r="AO16" s="72"/>
-      <c r="AP16" s="104"/>
-      <c r="AQ16" s="105"/>
+      <c r="AP16" s="90"/>
+      <c r="AQ16" s="91"/>
       <c r="AR16" s="72"/>
       <c r="AS16" s="72"/>
       <c r="AT16" s="72"/>
       <c r="AU16" s="72"/>
       <c r="AV16" s="72"/>
-      <c r="AW16" s="104"/>
-      <c r="AX16" s="105"/>
+      <c r="AW16" s="90"/>
+      <c r="AX16" s="91"/>
       <c r="AY16" s="72"/>
       <c r="AZ16" s="72"/>
       <c r="BA16" s="72"/>
       <c r="BB16" s="72"/>
       <c r="BC16" s="72"/>
-      <c r="BD16" s="79"/>
-      <c r="BE16" s="80"/>
+      <c r="BD16" s="90"/>
+      <c r="BE16" s="91"/>
       <c r="BF16" s="72"/>
       <c r="BG16" s="72"/>
       <c r="BH16" s="72"/>
       <c r="BI16" s="72"/>
       <c r="BJ16" s="72"/>
-      <c r="BK16" s="79"/>
-      <c r="BL16" s="80"/>
+      <c r="BK16" s="90"/>
+      <c r="BL16" s="91"/>
+      <c r="BM16" s="72"/>
+      <c r="BN16" s="72"/>
+      <c r="BO16" s="72"/>
+      <c r="BP16" s="72"/>
+      <c r="BQ16" s="72"/>
+      <c r="BR16" s="90"/>
+      <c r="BS16" s="91"/>
+      <c r="BT16" s="72"/>
+      <c r="BU16" s="72"/>
+      <c r="BV16" s="72"/>
+      <c r="BW16" s="72"/>
+      <c r="BX16" s="72"/>
+      <c r="BY16" s="90"/>
+      <c r="BZ16" s="91"/>
+      <c r="CA16" s="72"/>
+      <c r="CB16" s="72"/>
+      <c r="CC16" s="72"/>
+      <c r="CD16" s="72"/>
+      <c r="CE16" s="72"/>
+      <c r="CF16" s="90"/>
+      <c r="CG16" s="91"/>
+      <c r="CH16" s="72"/>
+      <c r="CI16" s="72"/>
+      <c r="CJ16" s="72"/>
+      <c r="CK16" s="72"/>
+      <c r="CL16" s="72"/>
+      <c r="CM16" s="90"/>
+      <c r="CN16" s="91"/>
+      <c r="CO16" s="72"/>
+      <c r="CP16" s="72"/>
+      <c r="CQ16" s="72"/>
+      <c r="CR16" s="72"/>
+      <c r="CS16" s="72"/>
+      <c r="CT16" s="90"/>
+      <c r="CU16" s="91"/>
+      <c r="CV16" s="72"/>
+      <c r="CW16" s="72"/>
+      <c r="CX16" s="72"/>
+      <c r="CY16" s="72"/>
+      <c r="CZ16" s="72"/>
+      <c r="DA16" s="90"/>
+      <c r="DB16" s="91"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="32"/>
-      <c r="B17" s="117" t="s">
+      <c r="B17" s="84" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="41"/>
@@ -3500,61 +4386,103 @@
       <c r="K17" s="72"/>
       <c r="L17" s="72"/>
       <c r="M17" s="72"/>
-      <c r="N17" s="104"/>
-      <c r="O17" s="105"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="98"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="100"/>
+      <c r="Q17" s="102"/>
       <c r="R17" s="72"/>
       <c r="S17" s="72"/>
       <c r="T17" s="72"/>
-      <c r="U17" s="104"/>
-      <c r="V17" s="105"/>
+      <c r="U17" s="90"/>
+      <c r="V17" s="91"/>
       <c r="W17" s="72"/>
       <c r="X17" s="72"/>
       <c r="Y17" s="72"/>
       <c r="Z17" s="72"/>
       <c r="AA17" s="72"/>
-      <c r="AB17" s="104"/>
-      <c r="AC17" s="105"/>
+      <c r="AB17" s="90"/>
+      <c r="AC17" s="91"/>
       <c r="AD17" s="72"/>
       <c r="AE17" s="72"/>
       <c r="AF17" s="72"/>
       <c r="AG17" s="72"/>
       <c r="AH17" s="72"/>
-      <c r="AI17" s="104"/>
-      <c r="AJ17" s="105"/>
+      <c r="AI17" s="90"/>
+      <c r="AJ17" s="91"/>
       <c r="AK17" s="72"/>
       <c r="AL17" s="72"/>
       <c r="AM17" s="72"/>
       <c r="AN17" s="72"/>
       <c r="AO17" s="72"/>
-      <c r="AP17" s="104"/>
-      <c r="AQ17" s="105"/>
+      <c r="AP17" s="90"/>
+      <c r="AQ17" s="91"/>
       <c r="AR17" s="72"/>
       <c r="AS17" s="72"/>
       <c r="AT17" s="72"/>
       <c r="AU17" s="72"/>
       <c r="AV17" s="72"/>
-      <c r="AW17" s="104"/>
-      <c r="AX17" s="105"/>
+      <c r="AW17" s="90"/>
+      <c r="AX17" s="91"/>
       <c r="AY17" s="72"/>
       <c r="AZ17" s="72"/>
       <c r="BA17" s="72"/>
       <c r="BB17" s="72"/>
       <c r="BC17" s="72"/>
-      <c r="BD17" s="79"/>
-      <c r="BE17" s="80"/>
+      <c r="BD17" s="90"/>
+      <c r="BE17" s="91"/>
       <c r="BF17" s="72"/>
       <c r="BG17" s="72"/>
       <c r="BH17" s="72"/>
       <c r="BI17" s="72"/>
       <c r="BJ17" s="72"/>
-      <c r="BK17" s="79"/>
-      <c r="BL17" s="80"/>
+      <c r="BK17" s="90"/>
+      <c r="BL17" s="91"/>
+      <c r="BM17" s="72"/>
+      <c r="BN17" s="72"/>
+      <c r="BO17" s="72"/>
+      <c r="BP17" s="72"/>
+      <c r="BQ17" s="72"/>
+      <c r="BR17" s="90"/>
+      <c r="BS17" s="91"/>
+      <c r="BT17" s="72"/>
+      <c r="BU17" s="72"/>
+      <c r="BV17" s="72"/>
+      <c r="BW17" s="72"/>
+      <c r="BX17" s="72"/>
+      <c r="BY17" s="90"/>
+      <c r="BZ17" s="91"/>
+      <c r="CA17" s="72"/>
+      <c r="CB17" s="72"/>
+      <c r="CC17" s="72"/>
+      <c r="CD17" s="72"/>
+      <c r="CE17" s="72"/>
+      <c r="CF17" s="90"/>
+      <c r="CG17" s="91"/>
+      <c r="CH17" s="72"/>
+      <c r="CI17" s="72"/>
+      <c r="CJ17" s="72"/>
+      <c r="CK17" s="72"/>
+      <c r="CL17" s="72"/>
+      <c r="CM17" s="90"/>
+      <c r="CN17" s="91"/>
+      <c r="CO17" s="72"/>
+      <c r="CP17" s="72"/>
+      <c r="CQ17" s="72"/>
+      <c r="CR17" s="72"/>
+      <c r="CS17" s="72"/>
+      <c r="CT17" s="90"/>
+      <c r="CU17" s="91"/>
+      <c r="CV17" s="72"/>
+      <c r="CW17" s="72"/>
+      <c r="CX17" s="72"/>
+      <c r="CY17" s="72"/>
+      <c r="CZ17" s="72"/>
+      <c r="DA17" s="90"/>
+      <c r="DB17" s="91"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="32"/>
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="84" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="41"/>
@@ -3576,61 +4504,103 @@
       <c r="K18" s="72"/>
       <c r="L18" s="72"/>
       <c r="M18" s="72"/>
-      <c r="N18" s="104"/>
-      <c r="O18" s="105"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="91"/>
       <c r="P18" s="72"/>
       <c r="Q18" s="72"/>
       <c r="R18" s="73"/>
       <c r="S18" s="72"/>
       <c r="T18" s="72"/>
-      <c r="U18" s="104"/>
-      <c r="V18" s="105"/>
+      <c r="U18" s="90"/>
+      <c r="V18" s="91"/>
       <c r="W18" s="72"/>
       <c r="X18" s="72"/>
       <c r="Y18" s="72"/>
       <c r="Z18" s="72"/>
       <c r="AA18" s="72"/>
-      <c r="AB18" s="104"/>
-      <c r="AC18" s="105"/>
+      <c r="AB18" s="90"/>
+      <c r="AC18" s="91"/>
       <c r="AD18" s="72"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="72"/>
       <c r="AG18" s="72"/>
       <c r="AH18" s="72"/>
-      <c r="AI18" s="104"/>
-      <c r="AJ18" s="105"/>
+      <c r="AI18" s="90"/>
+      <c r="AJ18" s="91"/>
       <c r="AK18" s="72"/>
       <c r="AL18" s="72"/>
       <c r="AM18" s="72"/>
       <c r="AN18" s="72"/>
       <c r="AO18" s="72"/>
-      <c r="AP18" s="104"/>
-      <c r="AQ18" s="105"/>
+      <c r="AP18" s="90"/>
+      <c r="AQ18" s="91"/>
       <c r="AR18" s="72"/>
       <c r="AS18" s="72"/>
       <c r="AT18" s="72"/>
       <c r="AU18" s="72"/>
       <c r="AV18" s="72"/>
-      <c r="AW18" s="104"/>
-      <c r="AX18" s="105"/>
+      <c r="AW18" s="90"/>
+      <c r="AX18" s="91"/>
       <c r="AY18" s="72"/>
       <c r="AZ18" s="72"/>
       <c r="BA18" s="72"/>
       <c r="BB18" s="72"/>
       <c r="BC18" s="72"/>
-      <c r="BD18" s="79"/>
-      <c r="BE18" s="80"/>
+      <c r="BD18" s="90"/>
+      <c r="BE18" s="91"/>
       <c r="BF18" s="72"/>
       <c r="BG18" s="72"/>
       <c r="BH18" s="72"/>
       <c r="BI18" s="72"/>
       <c r="BJ18" s="72"/>
-      <c r="BK18" s="79"/>
-      <c r="BL18" s="80"/>
+      <c r="BK18" s="90"/>
+      <c r="BL18" s="91"/>
+      <c r="BM18" s="72"/>
+      <c r="BN18" s="72"/>
+      <c r="BO18" s="72"/>
+      <c r="BP18" s="72"/>
+      <c r="BQ18" s="72"/>
+      <c r="BR18" s="90"/>
+      <c r="BS18" s="91"/>
+      <c r="BT18" s="72"/>
+      <c r="BU18" s="72"/>
+      <c r="BV18" s="72"/>
+      <c r="BW18" s="72"/>
+      <c r="BX18" s="72"/>
+      <c r="BY18" s="90"/>
+      <c r="BZ18" s="91"/>
+      <c r="CA18" s="72"/>
+      <c r="CB18" s="72"/>
+      <c r="CC18" s="72"/>
+      <c r="CD18" s="72"/>
+      <c r="CE18" s="72"/>
+      <c r="CF18" s="90"/>
+      <c r="CG18" s="91"/>
+      <c r="CH18" s="72"/>
+      <c r="CI18" s="72"/>
+      <c r="CJ18" s="72"/>
+      <c r="CK18" s="72"/>
+      <c r="CL18" s="72"/>
+      <c r="CM18" s="90"/>
+      <c r="CN18" s="91"/>
+      <c r="CO18" s="72"/>
+      <c r="CP18" s="72"/>
+      <c r="CQ18" s="72"/>
+      <c r="CR18" s="72"/>
+      <c r="CS18" s="72"/>
+      <c r="CT18" s="90"/>
+      <c r="CU18" s="91"/>
+      <c r="CV18" s="72"/>
+      <c r="CW18" s="72"/>
+      <c r="CX18" s="72"/>
+      <c r="CY18" s="72"/>
+      <c r="CZ18" s="72"/>
+      <c r="DA18" s="90"/>
+      <c r="DB18" s="91"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="32"/>
-      <c r="B19" s="117" t="s">
+      <c r="B19" s="84" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="41"/>
@@ -3652,61 +4622,103 @@
       <c r="K19" s="72"/>
       <c r="L19" s="72"/>
       <c r="M19" s="72"/>
-      <c r="N19" s="104"/>
-      <c r="O19" s="105"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="91"/>
       <c r="P19" s="72"/>
       <c r="Q19" s="72"/>
       <c r="R19" s="72"/>
       <c r="S19" s="73"/>
       <c r="T19" s="72"/>
-      <c r="U19" s="104"/>
-      <c r="V19" s="105"/>
+      <c r="U19" s="90"/>
+      <c r="V19" s="91"/>
       <c r="W19" s="72"/>
       <c r="X19" s="72"/>
       <c r="Y19" s="72"/>
       <c r="Z19" s="72"/>
       <c r="AA19" s="72"/>
-      <c r="AB19" s="104"/>
-      <c r="AC19" s="105"/>
+      <c r="AB19" s="90"/>
+      <c r="AC19" s="91"/>
       <c r="AD19" s="72"/>
       <c r="AE19" s="72"/>
       <c r="AF19" s="72"/>
       <c r="AG19" s="72"/>
       <c r="AH19" s="72"/>
-      <c r="AI19" s="104"/>
-      <c r="AJ19" s="105"/>
+      <c r="AI19" s="90"/>
+      <c r="AJ19" s="91"/>
       <c r="AK19" s="72"/>
       <c r="AL19" s="72"/>
       <c r="AM19" s="72"/>
       <c r="AN19" s="72"/>
       <c r="AO19" s="72"/>
-      <c r="AP19" s="104"/>
-      <c r="AQ19" s="105"/>
+      <c r="AP19" s="90"/>
+      <c r="AQ19" s="91"/>
       <c r="AR19" s="72"/>
       <c r="AS19" s="72"/>
       <c r="AT19" s="72"/>
       <c r="AU19" s="72"/>
       <c r="AV19" s="72"/>
-      <c r="AW19" s="104"/>
-      <c r="AX19" s="105"/>
+      <c r="AW19" s="90"/>
+      <c r="AX19" s="91"/>
       <c r="AY19" s="72"/>
       <c r="AZ19" s="72"/>
       <c r="BA19" s="72"/>
       <c r="BB19" s="72"/>
       <c r="BC19" s="72"/>
-      <c r="BD19" s="79"/>
-      <c r="BE19" s="80"/>
+      <c r="BD19" s="90"/>
+      <c r="BE19" s="91"/>
       <c r="BF19" s="72"/>
       <c r="BG19" s="72"/>
       <c r="BH19" s="72"/>
       <c r="BI19" s="72"/>
       <c r="BJ19" s="72"/>
-      <c r="BK19" s="79"/>
-      <c r="BL19" s="80"/>
+      <c r="BK19" s="90"/>
+      <c r="BL19" s="91"/>
+      <c r="BM19" s="72"/>
+      <c r="BN19" s="72"/>
+      <c r="BO19" s="72"/>
+      <c r="BP19" s="72"/>
+      <c r="BQ19" s="72"/>
+      <c r="BR19" s="90"/>
+      <c r="BS19" s="91"/>
+      <c r="BT19" s="72"/>
+      <c r="BU19" s="72"/>
+      <c r="BV19" s="72"/>
+      <c r="BW19" s="72"/>
+      <c r="BX19" s="72"/>
+      <c r="BY19" s="90"/>
+      <c r="BZ19" s="91"/>
+      <c r="CA19" s="72"/>
+      <c r="CB19" s="72"/>
+      <c r="CC19" s="72"/>
+      <c r="CD19" s="72"/>
+      <c r="CE19" s="72"/>
+      <c r="CF19" s="90"/>
+      <c r="CG19" s="91"/>
+      <c r="CH19" s="72"/>
+      <c r="CI19" s="72"/>
+      <c r="CJ19" s="72"/>
+      <c r="CK19" s="72"/>
+      <c r="CL19" s="72"/>
+      <c r="CM19" s="90"/>
+      <c r="CN19" s="91"/>
+      <c r="CO19" s="72"/>
+      <c r="CP19" s="72"/>
+      <c r="CQ19" s="72"/>
+      <c r="CR19" s="72"/>
+      <c r="CS19" s="72"/>
+      <c r="CT19" s="90"/>
+      <c r="CU19" s="91"/>
+      <c r="CV19" s="72"/>
+      <c r="CW19" s="72"/>
+      <c r="CX19" s="72"/>
+      <c r="CY19" s="72"/>
+      <c r="CZ19" s="72"/>
+      <c r="DA19" s="90"/>
+      <c r="DB19" s="91"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="32"/>
-      <c r="B20" s="117" t="s">
+      <c r="B20" s="84" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="41"/>
@@ -3728,59 +4740,101 @@
       <c r="K20" s="72"/>
       <c r="L20" s="72"/>
       <c r="M20" s="72"/>
-      <c r="N20" s="106"/>
-      <c r="O20" s="107"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="91"/>
       <c r="P20" s="72"/>
       <c r="Q20" s="72"/>
       <c r="R20" s="72"/>
       <c r="S20" s="72"/>
       <c r="T20" s="73"/>
-      <c r="U20" s="106"/>
-      <c r="V20" s="107"/>
+      <c r="U20" s="90"/>
+      <c r="V20" s="91"/>
       <c r="W20" s="72"/>
       <c r="X20" s="72"/>
       <c r="Y20" s="72"/>
       <c r="Z20" s="72"/>
       <c r="AA20" s="72"/>
-      <c r="AB20" s="106"/>
-      <c r="AC20" s="107"/>
+      <c r="AB20" s="92"/>
+      <c r="AC20" s="93"/>
       <c r="AD20" s="72"/>
       <c r="AE20" s="72"/>
       <c r="AF20" s="72"/>
       <c r="AG20" s="72"/>
       <c r="AH20" s="72"/>
-      <c r="AI20" s="106"/>
-      <c r="AJ20" s="107"/>
+      <c r="AI20" s="92"/>
+      <c r="AJ20" s="93"/>
       <c r="AK20" s="72"/>
       <c r="AL20" s="72"/>
       <c r="AM20" s="72"/>
       <c r="AN20" s="72"/>
       <c r="AO20" s="72"/>
-      <c r="AP20" s="106"/>
-      <c r="AQ20" s="107"/>
+      <c r="AP20" s="92"/>
+      <c r="AQ20" s="93"/>
       <c r="AR20" s="72"/>
       <c r="AS20" s="72"/>
       <c r="AT20" s="72"/>
       <c r="AU20" s="72"/>
       <c r="AV20" s="72"/>
-      <c r="AW20" s="106"/>
-      <c r="AX20" s="107"/>
+      <c r="AW20" s="92"/>
+      <c r="AX20" s="93"/>
       <c r="AY20" s="72"/>
       <c r="AZ20" s="72"/>
       <c r="BA20" s="72"/>
       <c r="BB20" s="72"/>
       <c r="BC20" s="72"/>
-      <c r="BD20" s="79"/>
-      <c r="BE20" s="80"/>
+      <c r="BD20" s="90"/>
+      <c r="BE20" s="91"/>
       <c r="BF20" s="72"/>
       <c r="BG20" s="72"/>
       <c r="BH20" s="72"/>
       <c r="BI20" s="72"/>
       <c r="BJ20" s="72"/>
-      <c r="BK20" s="79"/>
-      <c r="BL20" s="80"/>
+      <c r="BK20" s="90"/>
+      <c r="BL20" s="91"/>
+      <c r="BM20" s="72"/>
+      <c r="BN20" s="72"/>
+      <c r="BO20" s="72"/>
+      <c r="BP20" s="72"/>
+      <c r="BQ20" s="72"/>
+      <c r="BR20" s="90"/>
+      <c r="BS20" s="91"/>
+      <c r="BT20" s="72"/>
+      <c r="BU20" s="72"/>
+      <c r="BV20" s="72"/>
+      <c r="BW20" s="72"/>
+      <c r="BX20" s="72"/>
+      <c r="BY20" s="90"/>
+      <c r="BZ20" s="91"/>
+      <c r="CA20" s="72"/>
+      <c r="CB20" s="72"/>
+      <c r="CC20" s="72"/>
+      <c r="CD20" s="72"/>
+      <c r="CE20" s="72"/>
+      <c r="CF20" s="90"/>
+      <c r="CG20" s="91"/>
+      <c r="CH20" s="72"/>
+      <c r="CI20" s="72"/>
+      <c r="CJ20" s="72"/>
+      <c r="CK20" s="72"/>
+      <c r="CL20" s="72"/>
+      <c r="CM20" s="90"/>
+      <c r="CN20" s="91"/>
+      <c r="CO20" s="72"/>
+      <c r="CP20" s="72"/>
+      <c r="CQ20" s="72"/>
+      <c r="CR20" s="72"/>
+      <c r="CS20" s="72"/>
+      <c r="CT20" s="90"/>
+      <c r="CU20" s="91"/>
+      <c r="CV20" s="72"/>
+      <c r="CW20" s="72"/>
+      <c r="CX20" s="72"/>
+      <c r="CY20" s="72"/>
+      <c r="CZ20" s="72"/>
+      <c r="DA20" s="90"/>
+      <c r="DB20" s="91"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="32" t="s">
         <v>11</v>
       </c>
@@ -3800,61 +4854,103 @@
       <c r="K21" s="72"/>
       <c r="L21" s="72"/>
       <c r="M21" s="72"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="72"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="91"/>
       <c r="P21" s="72"/>
       <c r="Q21" s="72"/>
       <c r="R21" s="72"/>
       <c r="S21" s="72"/>
       <c r="T21" s="72"/>
-      <c r="U21" s="72"/>
-      <c r="V21" s="72"/>
-      <c r="W21" s="108"/>
-      <c r="X21" s="109"/>
-      <c r="Y21" s="109"/>
-      <c r="Z21" s="109"/>
-      <c r="AA21" s="109"/>
-      <c r="AB21" s="109"/>
-      <c r="AC21" s="109"/>
-      <c r="AD21" s="109"/>
-      <c r="AE21" s="109"/>
-      <c r="AF21" s="109"/>
-      <c r="AG21" s="109"/>
-      <c r="AH21" s="109"/>
-      <c r="AI21" s="109"/>
-      <c r="AJ21" s="109"/>
-      <c r="AK21" s="109"/>
-      <c r="AL21" s="109"/>
-      <c r="AM21" s="109"/>
-      <c r="AN21" s="109"/>
-      <c r="AO21" s="109"/>
-      <c r="AP21" s="109"/>
-      <c r="AQ21" s="109"/>
-      <c r="AR21" s="109"/>
-      <c r="AS21" s="109"/>
-      <c r="AT21" s="109"/>
-      <c r="AU21" s="109"/>
-      <c r="AV21" s="109"/>
-      <c r="AW21" s="109"/>
-      <c r="AX21" s="109"/>
-      <c r="AY21" s="109"/>
-      <c r="AZ21" s="109"/>
-      <c r="BA21" s="109"/>
-      <c r="BB21" s="109"/>
-      <c r="BC21" s="110"/>
-      <c r="BD21" s="79"/>
-      <c r="BE21" s="80"/>
-      <c r="BF21" s="72"/>
-      <c r="BG21" s="72"/>
-      <c r="BH21" s="72"/>
-      <c r="BI21" s="72"/>
+      <c r="U21" s="90"/>
+      <c r="V21" s="91"/>
+      <c r="W21" s="112"/>
+      <c r="X21" s="113"/>
+      <c r="Y21" s="113"/>
+      <c r="Z21" s="113"/>
+      <c r="AA21" s="113"/>
+      <c r="AB21" s="113"/>
+      <c r="AC21" s="113"/>
+      <c r="AD21" s="113"/>
+      <c r="AE21" s="113"/>
+      <c r="AF21" s="113"/>
+      <c r="AG21" s="113"/>
+      <c r="AH21" s="113"/>
+      <c r="AI21" s="113"/>
+      <c r="AJ21" s="113"/>
+      <c r="AK21" s="113"/>
+      <c r="AL21" s="113"/>
+      <c r="AM21" s="113"/>
+      <c r="AN21" s="113"/>
+      <c r="AO21" s="113"/>
+      <c r="AP21" s="113"/>
+      <c r="AQ21" s="113"/>
+      <c r="AR21" s="113"/>
+      <c r="AS21" s="113"/>
+      <c r="AT21" s="113"/>
+      <c r="AU21" s="113"/>
+      <c r="AV21" s="113"/>
+      <c r="AW21" s="113"/>
+      <c r="AX21" s="113"/>
+      <c r="AY21" s="113"/>
+      <c r="AZ21" s="113"/>
+      <c r="BA21" s="113"/>
+      <c r="BB21" s="113"/>
+      <c r="BC21" s="113"/>
+      <c r="BD21" s="113"/>
+      <c r="BE21" s="113"/>
+      <c r="BF21" s="113"/>
+      <c r="BG21" s="113"/>
+      <c r="BH21" s="113"/>
+      <c r="BI21" s="114"/>
       <c r="BJ21" s="72"/>
-      <c r="BK21" s="79"/>
-      <c r="BL21" s="80"/>
+      <c r="BK21" s="90"/>
+      <c r="BL21" s="91"/>
+      <c r="BM21" s="72"/>
+      <c r="BN21" s="72"/>
+      <c r="BO21" s="72"/>
+      <c r="BP21" s="72"/>
+      <c r="BQ21" s="72"/>
+      <c r="BR21" s="90"/>
+      <c r="BS21" s="91"/>
+      <c r="BT21" s="72"/>
+      <c r="BU21" s="72"/>
+      <c r="BV21" s="72"/>
+      <c r="BW21" s="72"/>
+      <c r="BX21" s="72"/>
+      <c r="BY21" s="90"/>
+      <c r="BZ21" s="91"/>
+      <c r="CA21" s="72"/>
+      <c r="CB21" s="72"/>
+      <c r="CC21" s="72"/>
+      <c r="CD21" s="72"/>
+      <c r="CE21" s="72"/>
+      <c r="CF21" s="90"/>
+      <c r="CG21" s="91"/>
+      <c r="CH21" s="72"/>
+      <c r="CI21" s="72"/>
+      <c r="CJ21" s="72"/>
+      <c r="CK21" s="72"/>
+      <c r="CL21" s="72"/>
+      <c r="CM21" s="90"/>
+      <c r="CN21" s="91"/>
+      <c r="CO21" s="72"/>
+      <c r="CP21" s="72"/>
+      <c r="CQ21" s="72"/>
+      <c r="CR21" s="72"/>
+      <c r="CS21" s="72"/>
+      <c r="CT21" s="90"/>
+      <c r="CU21" s="91"/>
+      <c r="CV21" s="72"/>
+      <c r="CW21" s="72"/>
+      <c r="CX21" s="72"/>
+      <c r="CY21" s="72"/>
+      <c r="CZ21" s="72"/>
+      <c r="DA21" s="90"/>
+      <c r="DB21" s="91"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="32"/>
-      <c r="B22" s="118" t="s">
+      <c r="B22" s="85" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="43"/>
@@ -3874,61 +4970,103 @@
       <c r="K22" s="72"/>
       <c r="L22" s="72"/>
       <c r="M22" s="72"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="72"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="91"/>
       <c r="P22" s="72"/>
       <c r="Q22" s="72"/>
       <c r="R22" s="72"/>
       <c r="S22" s="72"/>
       <c r="T22" s="72"/>
-      <c r="U22" s="72"/>
-      <c r="V22" s="72"/>
-      <c r="W22" s="83"/>
-      <c r="X22" s="84"/>
-      <c r="Y22" s="85"/>
-      <c r="Z22" s="86"/>
-      <c r="AA22" s="87"/>
-      <c r="AB22" s="77"/>
-      <c r="AC22" s="78"/>
+      <c r="U22" s="90"/>
+      <c r="V22" s="91"/>
+      <c r="W22" s="77"/>
+      <c r="X22" s="78"/>
+      <c r="Y22" s="79"/>
+      <c r="Z22" s="80"/>
+      <c r="AA22" s="81"/>
+      <c r="AB22" s="115"/>
+      <c r="AC22" s="116"/>
       <c r="AD22" s="72"/>
       <c r="AE22" s="72"/>
       <c r="AF22" s="72"/>
       <c r="AG22" s="72"/>
       <c r="AH22" s="72"/>
-      <c r="AI22" s="77"/>
-      <c r="AJ22" s="78"/>
+      <c r="AI22" s="88"/>
+      <c r="AJ22" s="89"/>
       <c r="AK22" s="72"/>
       <c r="AL22" s="72"/>
       <c r="AM22" s="72"/>
       <c r="AN22" s="72"/>
       <c r="AO22" s="72"/>
-      <c r="AP22" s="77"/>
-      <c r="AQ22" s="78"/>
+      <c r="AP22" s="88"/>
+      <c r="AQ22" s="89"/>
       <c r="AR22" s="72"/>
       <c r="AS22" s="72"/>
       <c r="AT22" s="72"/>
       <c r="AU22" s="72"/>
       <c r="AV22" s="72"/>
-      <c r="AW22" s="77"/>
-      <c r="AX22" s="78"/>
+      <c r="AW22" s="88"/>
+      <c r="AX22" s="89"/>
       <c r="AY22" s="72"/>
       <c r="AZ22" s="72"/>
       <c r="BA22" s="72"/>
       <c r="BB22" s="72"/>
       <c r="BC22" s="72"/>
-      <c r="BD22" s="79"/>
-      <c r="BE22" s="80"/>
+      <c r="BD22" s="90"/>
+      <c r="BE22" s="91"/>
       <c r="BF22" s="72"/>
       <c r="BG22" s="72"/>
       <c r="BH22" s="72"/>
       <c r="BI22" s="72"/>
       <c r="BJ22" s="72"/>
-      <c r="BK22" s="79"/>
-      <c r="BL22" s="80"/>
+      <c r="BK22" s="90"/>
+      <c r="BL22" s="91"/>
+      <c r="BM22" s="72"/>
+      <c r="BN22" s="72"/>
+      <c r="BO22" s="72"/>
+      <c r="BP22" s="72"/>
+      <c r="BQ22" s="72"/>
+      <c r="BR22" s="90"/>
+      <c r="BS22" s="91"/>
+      <c r="BT22" s="72"/>
+      <c r="BU22" s="72"/>
+      <c r="BV22" s="72"/>
+      <c r="BW22" s="72"/>
+      <c r="BX22" s="72"/>
+      <c r="BY22" s="90"/>
+      <c r="BZ22" s="91"/>
+      <c r="CA22" s="72"/>
+      <c r="CB22" s="72"/>
+      <c r="CC22" s="72"/>
+      <c r="CD22" s="72"/>
+      <c r="CE22" s="72"/>
+      <c r="CF22" s="90"/>
+      <c r="CG22" s="91"/>
+      <c r="CH22" s="72"/>
+      <c r="CI22" s="72"/>
+      <c r="CJ22" s="72"/>
+      <c r="CK22" s="72"/>
+      <c r="CL22" s="72"/>
+      <c r="CM22" s="90"/>
+      <c r="CN22" s="91"/>
+      <c r="CO22" s="72"/>
+      <c r="CP22" s="72"/>
+      <c r="CQ22" s="72"/>
+      <c r="CR22" s="72"/>
+      <c r="CS22" s="72"/>
+      <c r="CT22" s="90"/>
+      <c r="CU22" s="91"/>
+      <c r="CV22" s="72"/>
+      <c r="CW22" s="72"/>
+      <c r="CX22" s="72"/>
+      <c r="CY22" s="72"/>
+      <c r="CZ22" s="72"/>
+      <c r="DA22" s="90"/>
+      <c r="DB22" s="91"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="32"/>
-      <c r="B23" s="118" t="s">
+      <c r="B23" s="85" t="s">
         <v>57</v>
       </c>
       <c r="C23" s="43"/>
@@ -3948,61 +5086,103 @@
       <c r="K23" s="72"/>
       <c r="L23" s="72"/>
       <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="72"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="91"/>
       <c r="P23" s="72"/>
       <c r="Q23" s="72"/>
       <c r="R23" s="72"/>
       <c r="S23" s="72"/>
       <c r="T23" s="72"/>
-      <c r="U23" s="72"/>
-      <c r="V23" s="72"/>
+      <c r="U23" s="90"/>
+      <c r="V23" s="91"/>
       <c r="W23" s="72"/>
       <c r="X23" s="73"/>
-      <c r="Y23" s="111"/>
-      <c r="Z23" s="112"/>
-      <c r="AA23" s="113"/>
-      <c r="AB23" s="79"/>
-      <c r="AC23" s="80"/>
+      <c r="Y23" s="97"/>
+      <c r="Z23" s="98"/>
+      <c r="AA23" s="99"/>
+      <c r="AB23" s="117"/>
+      <c r="AC23" s="118"/>
       <c r="AD23" s="72"/>
       <c r="AE23" s="72"/>
       <c r="AF23" s="72"/>
       <c r="AG23" s="72"/>
       <c r="AH23" s="72"/>
-      <c r="AI23" s="79"/>
-      <c r="AJ23" s="80"/>
+      <c r="AI23" s="90"/>
+      <c r="AJ23" s="91"/>
       <c r="AK23" s="72"/>
       <c r="AL23" s="72"/>
       <c r="AM23" s="72"/>
       <c r="AN23" s="72"/>
       <c r="AO23" s="72"/>
-      <c r="AP23" s="79"/>
-      <c r="AQ23" s="80"/>
+      <c r="AP23" s="90"/>
+      <c r="AQ23" s="91"/>
       <c r="AR23" s="72"/>
       <c r="AS23" s="72"/>
       <c r="AT23" s="72"/>
       <c r="AU23" s="72"/>
       <c r="AV23" s="72"/>
-      <c r="AW23" s="79"/>
-      <c r="AX23" s="80"/>
+      <c r="AW23" s="90"/>
+      <c r="AX23" s="91"/>
       <c r="AY23" s="72"/>
       <c r="AZ23" s="72"/>
       <c r="BA23" s="72"/>
       <c r="BB23" s="72"/>
       <c r="BC23" s="72"/>
-      <c r="BD23" s="79"/>
-      <c r="BE23" s="80"/>
+      <c r="BD23" s="90"/>
+      <c r="BE23" s="91"/>
       <c r="BF23" s="72"/>
       <c r="BG23" s="72"/>
       <c r="BH23" s="72"/>
       <c r="BI23" s="72"/>
       <c r="BJ23" s="72"/>
-      <c r="BK23" s="79"/>
-      <c r="BL23" s="80"/>
+      <c r="BK23" s="90"/>
+      <c r="BL23" s="91"/>
+      <c r="BM23" s="72"/>
+      <c r="BN23" s="72"/>
+      <c r="BO23" s="72"/>
+      <c r="BP23" s="72"/>
+      <c r="BQ23" s="72"/>
+      <c r="BR23" s="90"/>
+      <c r="BS23" s="91"/>
+      <c r="BT23" s="72"/>
+      <c r="BU23" s="72"/>
+      <c r="BV23" s="72"/>
+      <c r="BW23" s="72"/>
+      <c r="BX23" s="72"/>
+      <c r="BY23" s="90"/>
+      <c r="BZ23" s="91"/>
+      <c r="CA23" s="72"/>
+      <c r="CB23" s="72"/>
+      <c r="CC23" s="72"/>
+      <c r="CD23" s="72"/>
+      <c r="CE23" s="72"/>
+      <c r="CF23" s="90"/>
+      <c r="CG23" s="91"/>
+      <c r="CH23" s="72"/>
+      <c r="CI23" s="72"/>
+      <c r="CJ23" s="72"/>
+      <c r="CK23" s="72"/>
+      <c r="CL23" s="72"/>
+      <c r="CM23" s="90"/>
+      <c r="CN23" s="91"/>
+      <c r="CO23" s="72"/>
+      <c r="CP23" s="72"/>
+      <c r="CQ23" s="72"/>
+      <c r="CR23" s="72"/>
+      <c r="CS23" s="72"/>
+      <c r="CT23" s="90"/>
+      <c r="CU23" s="91"/>
+      <c r="CV23" s="72"/>
+      <c r="CW23" s="72"/>
+      <c r="CX23" s="72"/>
+      <c r="CY23" s="72"/>
+      <c r="CZ23" s="72"/>
+      <c r="DA23" s="90"/>
+      <c r="DB23" s="91"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="32"/>
-      <c r="B24" s="118" t="s">
+      <c r="B24" s="85" t="s">
         <v>48</v>
       </c>
       <c r="C24" s="43"/>
@@ -4016,61 +5196,103 @@
       <c r="K24" s="72"/>
       <c r="L24" s="72"/>
       <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="91"/>
       <c r="P24" s="72"/>
       <c r="Q24" s="72"/>
       <c r="R24" s="72"/>
       <c r="S24" s="72"/>
       <c r="T24" s="72"/>
-      <c r="U24" s="72"/>
-      <c r="V24" s="72"/>
+      <c r="U24" s="90"/>
+      <c r="V24" s="91"/>
       <c r="W24" s="72"/>
       <c r="X24" s="72"/>
       <c r="Y24" s="72"/>
       <c r="Z24" s="72"/>
       <c r="AA24" s="72"/>
-      <c r="AB24" s="79"/>
-      <c r="AC24" s="80"/>
+      <c r="AB24" s="117"/>
+      <c r="AC24" s="118"/>
       <c r="AD24" s="72"/>
       <c r="AE24" s="72"/>
       <c r="AF24" s="72"/>
       <c r="AG24" s="72"/>
       <c r="AH24" s="72"/>
-      <c r="AI24" s="79"/>
-      <c r="AJ24" s="80"/>
+      <c r="AI24" s="90"/>
+      <c r="AJ24" s="91"/>
       <c r="AK24" s="72"/>
       <c r="AL24" s="72"/>
       <c r="AM24" s="72"/>
       <c r="AN24" s="72"/>
       <c r="AO24" s="72"/>
-      <c r="AP24" s="79"/>
-      <c r="AQ24" s="80"/>
+      <c r="AP24" s="90"/>
+      <c r="AQ24" s="91"/>
       <c r="AR24" s="72"/>
       <c r="AS24" s="72"/>
       <c r="AT24" s="72"/>
       <c r="AU24" s="72"/>
       <c r="AV24" s="72"/>
-      <c r="AW24" s="79"/>
-      <c r="AX24" s="80"/>
+      <c r="AW24" s="90"/>
+      <c r="AX24" s="91"/>
       <c r="AY24" s="72"/>
       <c r="AZ24" s="72"/>
       <c r="BA24" s="72"/>
       <c r="BB24" s="72"/>
       <c r="BC24" s="72"/>
-      <c r="BD24" s="79"/>
-      <c r="BE24" s="80"/>
+      <c r="BD24" s="90"/>
+      <c r="BE24" s="91"/>
       <c r="BF24" s="72"/>
       <c r="BG24" s="72"/>
       <c r="BH24" s="72"/>
       <c r="BI24" s="72"/>
       <c r="BJ24" s="72"/>
-      <c r="BK24" s="79"/>
-      <c r="BL24" s="80"/>
+      <c r="BK24" s="90"/>
+      <c r="BL24" s="91"/>
+      <c r="BM24" s="72"/>
+      <c r="BN24" s="72"/>
+      <c r="BO24" s="72"/>
+      <c r="BP24" s="72"/>
+      <c r="BQ24" s="72"/>
+      <c r="BR24" s="90"/>
+      <c r="BS24" s="91"/>
+      <c r="BT24" s="72"/>
+      <c r="BU24" s="72"/>
+      <c r="BV24" s="72"/>
+      <c r="BW24" s="72"/>
+      <c r="BX24" s="72"/>
+      <c r="BY24" s="90"/>
+      <c r="BZ24" s="91"/>
+      <c r="CA24" s="72"/>
+      <c r="CB24" s="72"/>
+      <c r="CC24" s="72"/>
+      <c r="CD24" s="72"/>
+      <c r="CE24" s="72"/>
+      <c r="CF24" s="90"/>
+      <c r="CG24" s="91"/>
+      <c r="CH24" s="72"/>
+      <c r="CI24" s="72"/>
+      <c r="CJ24" s="72"/>
+      <c r="CK24" s="72"/>
+      <c r="CL24" s="72"/>
+      <c r="CM24" s="90"/>
+      <c r="CN24" s="91"/>
+      <c r="CO24" s="72"/>
+      <c r="CP24" s="72"/>
+      <c r="CQ24" s="72"/>
+      <c r="CR24" s="72"/>
+      <c r="CS24" s="72"/>
+      <c r="CT24" s="90"/>
+      <c r="CU24" s="91"/>
+      <c r="CV24" s="72"/>
+      <c r="CW24" s="72"/>
+      <c r="CX24" s="72"/>
+      <c r="CY24" s="72"/>
+      <c r="CZ24" s="72"/>
+      <c r="DA24" s="90"/>
+      <c r="DB24" s="91"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="32"/>
-      <c r="B25" s="118" t="s">
+      <c r="B25" s="85" t="s">
         <v>49</v>
       </c>
       <c r="C25" s="43"/>
@@ -4084,61 +5306,103 @@
       <c r="K25" s="72"/>
       <c r="L25" s="72"/>
       <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="72"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="91"/>
       <c r="P25" s="72"/>
       <c r="Q25" s="72"/>
       <c r="R25" s="72"/>
       <c r="S25" s="72"/>
       <c r="T25" s="72"/>
-      <c r="U25" s="72"/>
-      <c r="V25" s="72"/>
+      <c r="U25" s="90"/>
+      <c r="V25" s="91"/>
       <c r="W25" s="72"/>
       <c r="X25" s="72"/>
       <c r="Y25" s="72"/>
       <c r="Z25" s="72"/>
       <c r="AA25" s="72"/>
-      <c r="AB25" s="79"/>
-      <c r="AC25" s="80"/>
+      <c r="AB25" s="117"/>
+      <c r="AC25" s="118"/>
       <c r="AD25" s="72"/>
       <c r="AE25" s="72"/>
       <c r="AF25" s="72"/>
       <c r="AG25" s="72"/>
       <c r="AH25" s="72"/>
-      <c r="AI25" s="79"/>
-      <c r="AJ25" s="80"/>
+      <c r="AI25" s="90"/>
+      <c r="AJ25" s="91"/>
       <c r="AK25" s="72"/>
       <c r="AL25" s="72"/>
       <c r="AM25" s="72"/>
       <c r="AN25" s="72"/>
       <c r="AO25" s="72"/>
-      <c r="AP25" s="79"/>
-      <c r="AQ25" s="80"/>
+      <c r="AP25" s="90"/>
+      <c r="AQ25" s="91"/>
       <c r="AR25" s="72"/>
       <c r="AS25" s="72"/>
       <c r="AT25" s="72"/>
       <c r="AU25" s="72"/>
       <c r="AV25" s="72"/>
-      <c r="AW25" s="79"/>
-      <c r="AX25" s="80"/>
+      <c r="AW25" s="90"/>
+      <c r="AX25" s="91"/>
       <c r="AY25" s="72"/>
       <c r="AZ25" s="72"/>
       <c r="BA25" s="72"/>
       <c r="BB25" s="72"/>
       <c r="BC25" s="72"/>
-      <c r="BD25" s="79"/>
-      <c r="BE25" s="80"/>
+      <c r="BD25" s="90"/>
+      <c r="BE25" s="91"/>
       <c r="BF25" s="72"/>
       <c r="BG25" s="72"/>
       <c r="BH25" s="72"/>
       <c r="BI25" s="72"/>
       <c r="BJ25" s="72"/>
-      <c r="BK25" s="79"/>
-      <c r="BL25" s="80"/>
+      <c r="BK25" s="90"/>
+      <c r="BL25" s="91"/>
+      <c r="BM25" s="72"/>
+      <c r="BN25" s="72"/>
+      <c r="BO25" s="72"/>
+      <c r="BP25" s="72"/>
+      <c r="BQ25" s="72"/>
+      <c r="BR25" s="90"/>
+      <c r="BS25" s="91"/>
+      <c r="BT25" s="72"/>
+      <c r="BU25" s="72"/>
+      <c r="BV25" s="72"/>
+      <c r="BW25" s="72"/>
+      <c r="BX25" s="72"/>
+      <c r="BY25" s="90"/>
+      <c r="BZ25" s="91"/>
+      <c r="CA25" s="72"/>
+      <c r="CB25" s="72"/>
+      <c r="CC25" s="72"/>
+      <c r="CD25" s="72"/>
+      <c r="CE25" s="72"/>
+      <c r="CF25" s="90"/>
+      <c r="CG25" s="91"/>
+      <c r="CH25" s="72"/>
+      <c r="CI25" s="72"/>
+      <c r="CJ25" s="72"/>
+      <c r="CK25" s="72"/>
+      <c r="CL25" s="72"/>
+      <c r="CM25" s="90"/>
+      <c r="CN25" s="91"/>
+      <c r="CO25" s="72"/>
+      <c r="CP25" s="72"/>
+      <c r="CQ25" s="72"/>
+      <c r="CR25" s="72"/>
+      <c r="CS25" s="72"/>
+      <c r="CT25" s="90"/>
+      <c r="CU25" s="91"/>
+      <c r="CV25" s="72"/>
+      <c r="CW25" s="72"/>
+      <c r="CX25" s="72"/>
+      <c r="CY25" s="72"/>
+      <c r="CZ25" s="72"/>
+      <c r="DA25" s="90"/>
+      <c r="DB25" s="91"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="32"/>
-      <c r="B26" s="118" t="s">
+      <c r="B26" s="85" t="s">
         <v>50</v>
       </c>
       <c r="C26" s="43"/>
@@ -4152,61 +5416,103 @@
       <c r="K26" s="72"/>
       <c r="L26" s="72"/>
       <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="72"/>
+      <c r="N26" s="90"/>
+      <c r="O26" s="91"/>
       <c r="P26" s="72"/>
       <c r="Q26" s="72"/>
       <c r="R26" s="72"/>
       <c r="S26" s="72"/>
       <c r="T26" s="72"/>
-      <c r="U26" s="72"/>
-      <c r="V26" s="72"/>
+      <c r="U26" s="90"/>
+      <c r="V26" s="91"/>
       <c r="W26" s="72"/>
       <c r="X26" s="72"/>
       <c r="Y26" s="72"/>
       <c r="Z26" s="72"/>
       <c r="AA26" s="72"/>
-      <c r="AB26" s="79"/>
-      <c r="AC26" s="80"/>
+      <c r="AB26" s="117"/>
+      <c r="AC26" s="118"/>
       <c r="AD26" s="72"/>
       <c r="AE26" s="72"/>
       <c r="AF26" s="72"/>
       <c r="AG26" s="72"/>
       <c r="AH26" s="72"/>
-      <c r="AI26" s="79"/>
-      <c r="AJ26" s="80"/>
+      <c r="AI26" s="90"/>
+      <c r="AJ26" s="91"/>
       <c r="AK26" s="72"/>
       <c r="AL26" s="72"/>
       <c r="AM26" s="72"/>
       <c r="AN26" s="72"/>
       <c r="AO26" s="72"/>
-      <c r="AP26" s="79"/>
-      <c r="AQ26" s="80"/>
+      <c r="AP26" s="90"/>
+      <c r="AQ26" s="91"/>
       <c r="AR26" s="72"/>
       <c r="AS26" s="72"/>
       <c r="AT26" s="72"/>
       <c r="AU26" s="72"/>
       <c r="AV26" s="72"/>
-      <c r="AW26" s="79"/>
-      <c r="AX26" s="80"/>
+      <c r="AW26" s="90"/>
+      <c r="AX26" s="91"/>
       <c r="AY26" s="72"/>
       <c r="AZ26" s="72"/>
       <c r="BA26" s="72"/>
       <c r="BB26" s="72"/>
       <c r="BC26" s="72"/>
-      <c r="BD26" s="79"/>
-      <c r="BE26" s="80"/>
+      <c r="BD26" s="90"/>
+      <c r="BE26" s="91"/>
       <c r="BF26" s="72"/>
       <c r="BG26" s="72"/>
       <c r="BH26" s="72"/>
       <c r="BI26" s="72"/>
       <c r="BJ26" s="72"/>
-      <c r="BK26" s="79"/>
-      <c r="BL26" s="80"/>
+      <c r="BK26" s="90"/>
+      <c r="BL26" s="91"/>
+      <c r="BM26" s="72"/>
+      <c r="BN26" s="72"/>
+      <c r="BO26" s="72"/>
+      <c r="BP26" s="72"/>
+      <c r="BQ26" s="72"/>
+      <c r="BR26" s="90"/>
+      <c r="BS26" s="91"/>
+      <c r="BT26" s="72"/>
+      <c r="BU26" s="72"/>
+      <c r="BV26" s="72"/>
+      <c r="BW26" s="72"/>
+      <c r="BX26" s="72"/>
+      <c r="BY26" s="90"/>
+      <c r="BZ26" s="91"/>
+      <c r="CA26" s="72"/>
+      <c r="CB26" s="72"/>
+      <c r="CC26" s="72"/>
+      <c r="CD26" s="72"/>
+      <c r="CE26" s="72"/>
+      <c r="CF26" s="90"/>
+      <c r="CG26" s="91"/>
+      <c r="CH26" s="72"/>
+      <c r="CI26" s="72"/>
+      <c r="CJ26" s="72"/>
+      <c r="CK26" s="72"/>
+      <c r="CL26" s="72"/>
+      <c r="CM26" s="90"/>
+      <c r="CN26" s="91"/>
+      <c r="CO26" s="72"/>
+      <c r="CP26" s="72"/>
+      <c r="CQ26" s="72"/>
+      <c r="CR26" s="72"/>
+      <c r="CS26" s="72"/>
+      <c r="CT26" s="90"/>
+      <c r="CU26" s="91"/>
+      <c r="CV26" s="72"/>
+      <c r="CW26" s="72"/>
+      <c r="CX26" s="72"/>
+      <c r="CY26" s="72"/>
+      <c r="CZ26" s="72"/>
+      <c r="DA26" s="90"/>
+      <c r="DB26" s="91"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="32"/>
-      <c r="B27" s="118" t="s">
+      <c r="B27" s="85" t="s">
         <v>46</v>
       </c>
       <c r="C27" s="43"/>
@@ -4220,61 +5526,103 @@
       <c r="K27" s="72"/>
       <c r="L27" s="72"/>
       <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="72"/>
+      <c r="N27" s="90"/>
+      <c r="O27" s="91"/>
       <c r="P27" s="72"/>
       <c r="Q27" s="72"/>
       <c r="R27" s="72"/>
       <c r="S27" s="72"/>
       <c r="T27" s="72"/>
-      <c r="U27" s="72"/>
-      <c r="V27" s="72"/>
+      <c r="U27" s="90"/>
+      <c r="V27" s="91"/>
       <c r="W27" s="72"/>
       <c r="X27" s="72"/>
       <c r="Y27" s="72"/>
       <c r="Z27" s="72"/>
       <c r="AA27" s="72"/>
-      <c r="AB27" s="79"/>
-      <c r="AC27" s="80"/>
+      <c r="AB27" s="117"/>
+      <c r="AC27" s="118"/>
       <c r="AD27" s="72"/>
       <c r="AE27" s="72"/>
       <c r="AF27" s="72"/>
       <c r="AG27" s="72"/>
       <c r="AH27" s="72"/>
-      <c r="AI27" s="79"/>
-      <c r="AJ27" s="80"/>
+      <c r="AI27" s="90"/>
+      <c r="AJ27" s="91"/>
       <c r="AK27" s="72"/>
       <c r="AL27" s="72"/>
       <c r="AM27" s="72"/>
       <c r="AN27" s="72"/>
       <c r="AO27" s="72"/>
-      <c r="AP27" s="79"/>
-      <c r="AQ27" s="80"/>
+      <c r="AP27" s="90"/>
+      <c r="AQ27" s="91"/>
       <c r="AR27" s="72"/>
       <c r="AS27" s="72"/>
       <c r="AT27" s="72"/>
       <c r="AU27" s="72"/>
       <c r="AV27" s="72"/>
-      <c r="AW27" s="79"/>
-      <c r="AX27" s="80"/>
+      <c r="AW27" s="90"/>
+      <c r="AX27" s="91"/>
       <c r="AY27" s="72"/>
       <c r="AZ27" s="72"/>
       <c r="BA27" s="72"/>
       <c r="BB27" s="72"/>
       <c r="BC27" s="72"/>
-      <c r="BD27" s="79"/>
-      <c r="BE27" s="80"/>
+      <c r="BD27" s="90"/>
+      <c r="BE27" s="91"/>
       <c r="BF27" s="72"/>
       <c r="BG27" s="72"/>
       <c r="BH27" s="72"/>
       <c r="BI27" s="72"/>
       <c r="BJ27" s="72"/>
-      <c r="BK27" s="79"/>
-      <c r="BL27" s="80"/>
+      <c r="BK27" s="90"/>
+      <c r="BL27" s="91"/>
+      <c r="BM27" s="72"/>
+      <c r="BN27" s="72"/>
+      <c r="BO27" s="72"/>
+      <c r="BP27" s="72"/>
+      <c r="BQ27" s="72"/>
+      <c r="BR27" s="90"/>
+      <c r="BS27" s="91"/>
+      <c r="BT27" s="72"/>
+      <c r="BU27" s="72"/>
+      <c r="BV27" s="72"/>
+      <c r="BW27" s="72"/>
+      <c r="BX27" s="72"/>
+      <c r="BY27" s="90"/>
+      <c r="BZ27" s="91"/>
+      <c r="CA27" s="72"/>
+      <c r="CB27" s="72"/>
+      <c r="CC27" s="72"/>
+      <c r="CD27" s="72"/>
+      <c r="CE27" s="72"/>
+      <c r="CF27" s="90"/>
+      <c r="CG27" s="91"/>
+      <c r="CH27" s="72"/>
+      <c r="CI27" s="72"/>
+      <c r="CJ27" s="72"/>
+      <c r="CK27" s="72"/>
+      <c r="CL27" s="72"/>
+      <c r="CM27" s="90"/>
+      <c r="CN27" s="91"/>
+      <c r="CO27" s="72"/>
+      <c r="CP27" s="72"/>
+      <c r="CQ27" s="72"/>
+      <c r="CR27" s="72"/>
+      <c r="CS27" s="72"/>
+      <c r="CT27" s="90"/>
+      <c r="CU27" s="91"/>
+      <c r="CV27" s="72"/>
+      <c r="CW27" s="72"/>
+      <c r="CX27" s="72"/>
+      <c r="CY27" s="72"/>
+      <c r="CZ27" s="72"/>
+      <c r="DA27" s="90"/>
+      <c r="DB27" s="91"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="32"/>
-      <c r="B28" s="118" t="s">
+      <c r="B28" s="85" t="s">
         <v>47</v>
       </c>
       <c r="C28" s="43"/>
@@ -4288,59 +5636,101 @@
       <c r="K28" s="72"/>
       <c r="L28" s="72"/>
       <c r="M28" s="72"/>
-      <c r="N28" s="72"/>
-      <c r="O28" s="72"/>
+      <c r="N28" s="90"/>
+      <c r="O28" s="91"/>
       <c r="P28" s="72"/>
       <c r="Q28" s="72"/>
       <c r="R28" s="72"/>
       <c r="S28" s="72"/>
       <c r="T28" s="72"/>
-      <c r="U28" s="72"/>
-      <c r="V28" s="72"/>
+      <c r="U28" s="90"/>
+      <c r="V28" s="91"/>
       <c r="W28" s="72"/>
       <c r="X28" s="72"/>
       <c r="Y28" s="72"/>
       <c r="Z28" s="72"/>
       <c r="AA28" s="72"/>
-      <c r="AB28" s="81"/>
-      <c r="AC28" s="82"/>
+      <c r="AB28" s="117"/>
+      <c r="AC28" s="118"/>
       <c r="AD28" s="72"/>
       <c r="AE28" s="72"/>
       <c r="AF28" s="72"/>
       <c r="AG28" s="72"/>
       <c r="AH28" s="72"/>
-      <c r="AI28" s="81"/>
-      <c r="AJ28" s="82"/>
+      <c r="AI28" s="90"/>
+      <c r="AJ28" s="91"/>
       <c r="AK28" s="72"/>
       <c r="AL28" s="72"/>
       <c r="AM28" s="72"/>
       <c r="AN28" s="72"/>
       <c r="AO28" s="72"/>
-      <c r="AP28" s="81"/>
-      <c r="AQ28" s="82"/>
+      <c r="AP28" s="90"/>
+      <c r="AQ28" s="91"/>
       <c r="AR28" s="72"/>
       <c r="AS28" s="72"/>
       <c r="AT28" s="72"/>
       <c r="AU28" s="72"/>
       <c r="AV28" s="72"/>
-      <c r="AW28" s="81"/>
-      <c r="AX28" s="82"/>
+      <c r="AW28" s="90"/>
+      <c r="AX28" s="91"/>
       <c r="AY28" s="72"/>
       <c r="AZ28" s="72"/>
       <c r="BA28" s="72"/>
       <c r="BB28" s="72"/>
       <c r="BC28" s="72"/>
-      <c r="BD28" s="81"/>
-      <c r="BE28" s="82"/>
+      <c r="BD28" s="90"/>
+      <c r="BE28" s="91"/>
       <c r="BF28" s="72"/>
       <c r="BG28" s="72"/>
       <c r="BH28" s="72"/>
       <c r="BI28" s="72"/>
       <c r="BJ28" s="72"/>
-      <c r="BK28" s="81"/>
-      <c r="BL28" s="82"/>
+      <c r="BK28" s="90"/>
+      <c r="BL28" s="91"/>
+      <c r="BM28" s="72"/>
+      <c r="BN28" s="72"/>
+      <c r="BO28" s="72"/>
+      <c r="BP28" s="72"/>
+      <c r="BQ28" s="72"/>
+      <c r="BR28" s="90"/>
+      <c r="BS28" s="91"/>
+      <c r="BT28" s="72"/>
+      <c r="BU28" s="72"/>
+      <c r="BV28" s="72"/>
+      <c r="BW28" s="72"/>
+      <c r="BX28" s="72"/>
+      <c r="BY28" s="90"/>
+      <c r="BZ28" s="91"/>
+      <c r="CA28" s="72"/>
+      <c r="CB28" s="72"/>
+      <c r="CC28" s="72"/>
+      <c r="CD28" s="72"/>
+      <c r="CE28" s="72"/>
+      <c r="CF28" s="90"/>
+      <c r="CG28" s="91"/>
+      <c r="CH28" s="72"/>
+      <c r="CI28" s="72"/>
+      <c r="CJ28" s="72"/>
+      <c r="CK28" s="72"/>
+      <c r="CL28" s="72"/>
+      <c r="CM28" s="90"/>
+      <c r="CN28" s="91"/>
+      <c r="CO28" s="72"/>
+      <c r="CP28" s="72"/>
+      <c r="CQ28" s="72"/>
+      <c r="CR28" s="72"/>
+      <c r="CS28" s="72"/>
+      <c r="CT28" s="90"/>
+      <c r="CU28" s="91"/>
+      <c r="CV28" s="72"/>
+      <c r="CW28" s="72"/>
+      <c r="CX28" s="72"/>
+      <c r="CY28" s="72"/>
+      <c r="CZ28" s="72"/>
+      <c r="DA28" s="90"/>
+      <c r="DB28" s="91"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="32" t="s">
         <v>11</v>
       </c>
@@ -4358,61 +5748,103 @@
       <c r="K29" s="72"/>
       <c r="L29" s="72"/>
       <c r="M29" s="72"/>
-      <c r="N29" s="72"/>
-      <c r="O29" s="72"/>
+      <c r="N29" s="90"/>
+      <c r="O29" s="91"/>
       <c r="P29" s="72"/>
       <c r="Q29" s="72"/>
       <c r="R29" s="72"/>
       <c r="S29" s="72"/>
       <c r="T29" s="72"/>
-      <c r="U29" s="72"/>
-      <c r="V29" s="72"/>
+      <c r="U29" s="90"/>
+      <c r="V29" s="91"/>
       <c r="W29" s="72"/>
       <c r="X29" s="72"/>
       <c r="Y29" s="72"/>
       <c r="Z29" s="72"/>
       <c r="AA29" s="72"/>
-      <c r="AB29" s="72"/>
-      <c r="AC29" s="72"/>
+      <c r="AB29" s="117"/>
+      <c r="AC29" s="118"/>
       <c r="AD29" s="72"/>
       <c r="AE29" s="72"/>
       <c r="AF29" s="72"/>
       <c r="AG29" s="72"/>
       <c r="AH29" s="72"/>
-      <c r="AI29" s="72"/>
-      <c r="AJ29" s="72"/>
+      <c r="AI29" s="90"/>
+      <c r="AJ29" s="91"/>
       <c r="AK29" s="72"/>
       <c r="AL29" s="72"/>
       <c r="AM29" s="72"/>
       <c r="AN29" s="72"/>
       <c r="AO29" s="72"/>
-      <c r="AP29" s="72"/>
-      <c r="AQ29" s="72"/>
+      <c r="AP29" s="90"/>
+      <c r="AQ29" s="91"/>
       <c r="AR29" s="72"/>
       <c r="AS29" s="72"/>
       <c r="AT29" s="72"/>
       <c r="AU29" s="72"/>
       <c r="AV29" s="72"/>
-      <c r="AW29" s="72"/>
-      <c r="AX29" s="72"/>
+      <c r="AW29" s="90"/>
+      <c r="AX29" s="91"/>
       <c r="AY29" s="72"/>
       <c r="AZ29" s="72"/>
       <c r="BA29" s="72"/>
       <c r="BB29" s="72"/>
       <c r="BC29" s="72"/>
-      <c r="BD29" s="72"/>
-      <c r="BE29" s="72"/>
+      <c r="BD29" s="90"/>
+      <c r="BE29" s="91"/>
       <c r="BF29" s="72"/>
       <c r="BG29" s="72"/>
       <c r="BH29" s="72"/>
       <c r="BI29" s="72"/>
       <c r="BJ29" s="72"/>
-      <c r="BK29" s="72"/>
-      <c r="BL29" s="72"/>
+      <c r="BK29" s="90"/>
+      <c r="BL29" s="91"/>
+      <c r="BM29" s="72"/>
+      <c r="BN29" s="72"/>
+      <c r="BO29" s="72"/>
+      <c r="BP29" s="72"/>
+      <c r="BQ29" s="72"/>
+      <c r="BR29" s="90"/>
+      <c r="BS29" s="91"/>
+      <c r="BT29" s="72"/>
+      <c r="BU29" s="72"/>
+      <c r="BV29" s="72"/>
+      <c r="BW29" s="72"/>
+      <c r="BX29" s="72"/>
+      <c r="BY29" s="90"/>
+      <c r="BZ29" s="91"/>
+      <c r="CA29" s="72"/>
+      <c r="CB29" s="72"/>
+      <c r="CC29" s="72"/>
+      <c r="CD29" s="72"/>
+      <c r="CE29" s="72"/>
+      <c r="CF29" s="90"/>
+      <c r="CG29" s="91"/>
+      <c r="CH29" s="72"/>
+      <c r="CI29" s="72"/>
+      <c r="CJ29" s="72"/>
+      <c r="CK29" s="72"/>
+      <c r="CL29" s="72"/>
+      <c r="CM29" s="90"/>
+      <c r="CN29" s="91"/>
+      <c r="CO29" s="72"/>
+      <c r="CP29" s="72"/>
+      <c r="CQ29" s="72"/>
+      <c r="CR29" s="72"/>
+      <c r="CS29" s="72"/>
+      <c r="CT29" s="90"/>
+      <c r="CU29" s="91"/>
+      <c r="CV29" s="72"/>
+      <c r="CW29" s="72"/>
+      <c r="CX29" s="72"/>
+      <c r="CY29" s="72"/>
+      <c r="CZ29" s="72"/>
+      <c r="DA29" s="90"/>
+      <c r="DB29" s="91"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="32"/>
-      <c r="B30" s="119" t="s">
+      <c r="B30" s="86" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="45"/>
@@ -4430,61 +5862,103 @@
       <c r="K30" s="72"/>
       <c r="L30" s="72"/>
       <c r="M30" s="72"/>
-      <c r="N30" s="72"/>
-      <c r="O30" s="72"/>
+      <c r="N30" s="90"/>
+      <c r="O30" s="91"/>
       <c r="P30" s="72"/>
       <c r="Q30" s="72"/>
       <c r="R30" s="72"/>
       <c r="S30" s="72"/>
       <c r="T30" s="72"/>
-      <c r="U30" s="72"/>
-      <c r="V30" s="72"/>
+      <c r="U30" s="90"/>
+      <c r="V30" s="91"/>
       <c r="W30" s="72"/>
       <c r="X30" s="72"/>
       <c r="Y30" s="72"/>
       <c r="Z30" s="72"/>
       <c r="AA30" s="72"/>
-      <c r="AB30" s="72"/>
-      <c r="AC30" s="72"/>
+      <c r="AB30" s="117"/>
+      <c r="AC30" s="118"/>
       <c r="AD30" s="72"/>
       <c r="AE30" s="72"/>
       <c r="AF30" s="72"/>
       <c r="AG30" s="72"/>
       <c r="AH30" s="72"/>
-      <c r="AI30" s="72"/>
-      <c r="AJ30" s="72"/>
+      <c r="AI30" s="90"/>
+      <c r="AJ30" s="91"/>
       <c r="AK30" s="72"/>
       <c r="AL30" s="72"/>
       <c r="AM30" s="72"/>
       <c r="AN30" s="72"/>
       <c r="AO30" s="72"/>
-      <c r="AP30" s="72"/>
-      <c r="AQ30" s="72"/>
+      <c r="AP30" s="90"/>
+      <c r="AQ30" s="91"/>
       <c r="AR30" s="72"/>
       <c r="AS30" s="72"/>
       <c r="AT30" s="72"/>
       <c r="AU30" s="72"/>
       <c r="AV30" s="72"/>
-      <c r="AW30" s="72"/>
-      <c r="AX30" s="72"/>
+      <c r="AW30" s="90"/>
+      <c r="AX30" s="91"/>
       <c r="AY30" s="72"/>
       <c r="AZ30" s="72"/>
       <c r="BA30" s="72"/>
       <c r="BB30" s="72"/>
       <c r="BC30" s="72"/>
-      <c r="BD30" s="72"/>
-      <c r="BE30" s="72"/>
+      <c r="BD30" s="90"/>
+      <c r="BE30" s="91"/>
       <c r="BF30" s="72"/>
       <c r="BG30" s="72"/>
       <c r="BH30" s="72"/>
       <c r="BI30" s="72"/>
       <c r="BJ30" s="72"/>
-      <c r="BK30" s="72"/>
-      <c r="BL30" s="72"/>
+      <c r="BK30" s="90"/>
+      <c r="BL30" s="91"/>
+      <c r="BM30" s="72"/>
+      <c r="BN30" s="72"/>
+      <c r="BO30" s="72"/>
+      <c r="BP30" s="72"/>
+      <c r="BQ30" s="72"/>
+      <c r="BR30" s="90"/>
+      <c r="BS30" s="91"/>
+      <c r="BT30" s="72"/>
+      <c r="BU30" s="72"/>
+      <c r="BV30" s="72"/>
+      <c r="BW30" s="72"/>
+      <c r="BX30" s="72"/>
+      <c r="BY30" s="90"/>
+      <c r="BZ30" s="91"/>
+      <c r="CA30" s="72"/>
+      <c r="CB30" s="72"/>
+      <c r="CC30" s="72"/>
+      <c r="CD30" s="72"/>
+      <c r="CE30" s="72"/>
+      <c r="CF30" s="90"/>
+      <c r="CG30" s="91"/>
+      <c r="CH30" s="72"/>
+      <c r="CI30" s="72"/>
+      <c r="CJ30" s="72"/>
+      <c r="CK30" s="72"/>
+      <c r="CL30" s="72"/>
+      <c r="CM30" s="90"/>
+      <c r="CN30" s="91"/>
+      <c r="CO30" s="72"/>
+      <c r="CP30" s="72"/>
+      <c r="CQ30" s="72"/>
+      <c r="CR30" s="72"/>
+      <c r="CS30" s="72"/>
+      <c r="CT30" s="90"/>
+      <c r="CU30" s="91"/>
+      <c r="CV30" s="72"/>
+      <c r="CW30" s="72"/>
+      <c r="CX30" s="72"/>
+      <c r="CY30" s="72"/>
+      <c r="CZ30" s="72"/>
+      <c r="DA30" s="90"/>
+      <c r="DB30" s="91"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="32"/>
-      <c r="B31" s="119" t="s">
+      <c r="B31" s="86" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="45"/>
@@ -4502,61 +5976,103 @@
       <c r="K31" s="72"/>
       <c r="L31" s="72"/>
       <c r="M31" s="72"/>
-      <c r="N31" s="72"/>
-      <c r="O31" s="72"/>
+      <c r="N31" s="90"/>
+      <c r="O31" s="91"/>
       <c r="P31" s="72"/>
       <c r="Q31" s="72"/>
       <c r="R31" s="72"/>
       <c r="S31" s="72"/>
       <c r="T31" s="72"/>
-      <c r="U31" s="72"/>
-      <c r="V31" s="72"/>
+      <c r="U31" s="90"/>
+      <c r="V31" s="91"/>
       <c r="W31" s="72"/>
       <c r="X31" s="72"/>
       <c r="Y31" s="72"/>
       <c r="Z31" s="72"/>
       <c r="AA31" s="72"/>
-      <c r="AB31" s="72"/>
-      <c r="AC31" s="72"/>
+      <c r="AB31" s="117"/>
+      <c r="AC31" s="118"/>
       <c r="AD31" s="72"/>
       <c r="AE31" s="72"/>
       <c r="AF31" s="72"/>
       <c r="AG31" s="72"/>
       <c r="AH31" s="72"/>
-      <c r="AI31" s="72"/>
-      <c r="AJ31" s="72"/>
+      <c r="AI31" s="90"/>
+      <c r="AJ31" s="91"/>
       <c r="AK31" s="72"/>
       <c r="AL31" s="72"/>
       <c r="AM31" s="72"/>
       <c r="AN31" s="72"/>
       <c r="AO31" s="72"/>
-      <c r="AP31" s="72"/>
-      <c r="AQ31" s="72"/>
+      <c r="AP31" s="90"/>
+      <c r="AQ31" s="91"/>
       <c r="AR31" s="72"/>
       <c r="AS31" s="72"/>
       <c r="AT31" s="72"/>
       <c r="AU31" s="72"/>
       <c r="AV31" s="72"/>
-      <c r="AW31" s="72"/>
-      <c r="AX31" s="72"/>
+      <c r="AW31" s="90"/>
+      <c r="AX31" s="91"/>
       <c r="AY31" s="72"/>
       <c r="AZ31" s="72"/>
       <c r="BA31" s="72"/>
       <c r="BB31" s="72"/>
       <c r="BC31" s="72"/>
-      <c r="BD31" s="72"/>
-      <c r="BE31" s="72"/>
+      <c r="BD31" s="90"/>
+      <c r="BE31" s="91"/>
       <c r="BF31" s="72"/>
       <c r="BG31" s="72"/>
       <c r="BH31" s="72"/>
       <c r="BI31" s="72"/>
       <c r="BJ31" s="72"/>
-      <c r="BK31" s="72"/>
-      <c r="BL31" s="72"/>
+      <c r="BK31" s="90"/>
+      <c r="BL31" s="91"/>
+      <c r="BM31" s="72"/>
+      <c r="BN31" s="72"/>
+      <c r="BO31" s="72"/>
+      <c r="BP31" s="72"/>
+      <c r="BQ31" s="72"/>
+      <c r="BR31" s="90"/>
+      <c r="BS31" s="91"/>
+      <c r="BT31" s="72"/>
+      <c r="BU31" s="72"/>
+      <c r="BV31" s="72"/>
+      <c r="BW31" s="72"/>
+      <c r="BX31" s="72"/>
+      <c r="BY31" s="90"/>
+      <c r="BZ31" s="91"/>
+      <c r="CA31" s="72"/>
+      <c r="CB31" s="72"/>
+      <c r="CC31" s="72"/>
+      <c r="CD31" s="72"/>
+      <c r="CE31" s="72"/>
+      <c r="CF31" s="90"/>
+      <c r="CG31" s="91"/>
+      <c r="CH31" s="72"/>
+      <c r="CI31" s="72"/>
+      <c r="CJ31" s="72"/>
+      <c r="CK31" s="72"/>
+      <c r="CL31" s="72"/>
+      <c r="CM31" s="90"/>
+      <c r="CN31" s="91"/>
+      <c r="CO31" s="72"/>
+      <c r="CP31" s="72"/>
+      <c r="CQ31" s="72"/>
+      <c r="CR31" s="72"/>
+      <c r="CS31" s="72"/>
+      <c r="CT31" s="90"/>
+      <c r="CU31" s="91"/>
+      <c r="CV31" s="72"/>
+      <c r="CW31" s="72"/>
+      <c r="CX31" s="72"/>
+      <c r="CY31" s="72"/>
+      <c r="CZ31" s="72"/>
+      <c r="DA31" s="90"/>
+      <c r="DB31" s="91"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="32"/>
-      <c r="B32" s="119" t="s">
+      <c r="B32" s="86" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="45"/>
@@ -4574,61 +6090,103 @@
       <c r="K32" s="72"/>
       <c r="L32" s="72"/>
       <c r="M32" s="72"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="72"/>
+      <c r="N32" s="90"/>
+      <c r="O32" s="91"/>
       <c r="P32" s="72"/>
       <c r="Q32" s="72"/>
       <c r="R32" s="72"/>
       <c r="S32" s="72"/>
       <c r="T32" s="72"/>
-      <c r="U32" s="72"/>
-      <c r="V32" s="72"/>
+      <c r="U32" s="90"/>
+      <c r="V32" s="91"/>
       <c r="W32" s="72"/>
       <c r="X32" s="72"/>
       <c r="Y32" s="72"/>
       <c r="Z32" s="72"/>
       <c r="AA32" s="72"/>
-      <c r="AB32" s="72"/>
-      <c r="AC32" s="72"/>
+      <c r="AB32" s="117"/>
+      <c r="AC32" s="118"/>
       <c r="AD32" s="72"/>
       <c r="AE32" s="72"/>
       <c r="AF32" s="72"/>
       <c r="AG32" s="72"/>
       <c r="AH32" s="72"/>
-      <c r="AI32" s="72"/>
-      <c r="AJ32" s="72"/>
+      <c r="AI32" s="90"/>
+      <c r="AJ32" s="91"/>
       <c r="AK32" s="72"/>
       <c r="AL32" s="72"/>
       <c r="AM32" s="72"/>
       <c r="AN32" s="72"/>
       <c r="AO32" s="72"/>
-      <c r="AP32" s="72"/>
-      <c r="AQ32" s="72"/>
+      <c r="AP32" s="90"/>
+      <c r="AQ32" s="91"/>
       <c r="AR32" s="72"/>
       <c r="AS32" s="72"/>
       <c r="AT32" s="72"/>
       <c r="AU32" s="72"/>
       <c r="AV32" s="72"/>
-      <c r="AW32" s="72"/>
-      <c r="AX32" s="72"/>
+      <c r="AW32" s="90"/>
+      <c r="AX32" s="91"/>
       <c r="AY32" s="72"/>
       <c r="AZ32" s="72"/>
       <c r="BA32" s="72"/>
       <c r="BB32" s="72"/>
       <c r="BC32" s="72"/>
-      <c r="BD32" s="72"/>
-      <c r="BE32" s="72"/>
+      <c r="BD32" s="90"/>
+      <c r="BE32" s="91"/>
       <c r="BF32" s="72"/>
       <c r="BG32" s="72"/>
       <c r="BH32" s="72"/>
       <c r="BI32" s="72"/>
       <c r="BJ32" s="72"/>
-      <c r="BK32" s="72"/>
-      <c r="BL32" s="72"/>
+      <c r="BK32" s="90"/>
+      <c r="BL32" s="91"/>
+      <c r="BM32" s="72"/>
+      <c r="BN32" s="72"/>
+      <c r="BO32" s="72"/>
+      <c r="BP32" s="72"/>
+      <c r="BQ32" s="72"/>
+      <c r="BR32" s="90"/>
+      <c r="BS32" s="91"/>
+      <c r="BT32" s="72"/>
+      <c r="BU32" s="72"/>
+      <c r="BV32" s="72"/>
+      <c r="BW32" s="72"/>
+      <c r="BX32" s="72"/>
+      <c r="BY32" s="90"/>
+      <c r="BZ32" s="91"/>
+      <c r="CA32" s="72"/>
+      <c r="CB32" s="72"/>
+      <c r="CC32" s="72"/>
+      <c r="CD32" s="72"/>
+      <c r="CE32" s="72"/>
+      <c r="CF32" s="90"/>
+      <c r="CG32" s="91"/>
+      <c r="CH32" s="72"/>
+      <c r="CI32" s="72"/>
+      <c r="CJ32" s="72"/>
+      <c r="CK32" s="72"/>
+      <c r="CL32" s="72"/>
+      <c r="CM32" s="90"/>
+      <c r="CN32" s="91"/>
+      <c r="CO32" s="72"/>
+      <c r="CP32" s="72"/>
+      <c r="CQ32" s="72"/>
+      <c r="CR32" s="72"/>
+      <c r="CS32" s="72"/>
+      <c r="CT32" s="90"/>
+      <c r="CU32" s="91"/>
+      <c r="CV32" s="72"/>
+      <c r="CW32" s="72"/>
+      <c r="CX32" s="72"/>
+      <c r="CY32" s="72"/>
+      <c r="CZ32" s="72"/>
+      <c r="DA32" s="90"/>
+      <c r="DB32" s="91"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="32"/>
-      <c r="B33" s="119" t="s">
+      <c r="B33" s="86" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="45"/>
@@ -4646,61 +6204,103 @@
       <c r="K33" s="72"/>
       <c r="L33" s="72"/>
       <c r="M33" s="72"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="72"/>
+      <c r="N33" s="90"/>
+      <c r="O33" s="91"/>
       <c r="P33" s="72"/>
       <c r="Q33" s="72"/>
       <c r="R33" s="72"/>
       <c r="S33" s="72"/>
       <c r="T33" s="72"/>
-      <c r="U33" s="72"/>
-      <c r="V33" s="72"/>
+      <c r="U33" s="90"/>
+      <c r="V33" s="91"/>
       <c r="W33" s="72"/>
       <c r="X33" s="72"/>
       <c r="Y33" s="72"/>
       <c r="Z33" s="72"/>
       <c r="AA33" s="72"/>
-      <c r="AB33" s="72"/>
-      <c r="AC33" s="72"/>
+      <c r="AB33" s="117"/>
+      <c r="AC33" s="118"/>
       <c r="AD33" s="72"/>
       <c r="AE33" s="72"/>
       <c r="AF33" s="72"/>
       <c r="AG33" s="72"/>
       <c r="AH33" s="72"/>
-      <c r="AI33" s="72"/>
-      <c r="AJ33" s="72"/>
+      <c r="AI33" s="90"/>
+      <c r="AJ33" s="91"/>
       <c r="AK33" s="72"/>
       <c r="AL33" s="72"/>
       <c r="AM33" s="72"/>
       <c r="AN33" s="72"/>
       <c r="AO33" s="72"/>
-      <c r="AP33" s="72"/>
-      <c r="AQ33" s="72"/>
+      <c r="AP33" s="90"/>
+      <c r="AQ33" s="91"/>
       <c r="AR33" s="72"/>
       <c r="AS33" s="72"/>
       <c r="AT33" s="72"/>
       <c r="AU33" s="72"/>
       <c r="AV33" s="72"/>
-      <c r="AW33" s="72"/>
-      <c r="AX33" s="72"/>
+      <c r="AW33" s="90"/>
+      <c r="AX33" s="91"/>
       <c r="AY33" s="72"/>
       <c r="AZ33" s="72"/>
       <c r="BA33" s="72"/>
       <c r="BB33" s="72"/>
       <c r="BC33" s="72"/>
-      <c r="BD33" s="72"/>
-      <c r="BE33" s="72"/>
+      <c r="BD33" s="90"/>
+      <c r="BE33" s="91"/>
       <c r="BF33" s="72"/>
       <c r="BG33" s="72"/>
       <c r="BH33" s="72"/>
       <c r="BI33" s="72"/>
       <c r="BJ33" s="72"/>
-      <c r="BK33" s="72"/>
-      <c r="BL33" s="72"/>
+      <c r="BK33" s="90"/>
+      <c r="BL33" s="91"/>
+      <c r="BM33" s="72"/>
+      <c r="BN33" s="72"/>
+      <c r="BO33" s="72"/>
+      <c r="BP33" s="72"/>
+      <c r="BQ33" s="72"/>
+      <c r="BR33" s="90"/>
+      <c r="BS33" s="91"/>
+      <c r="BT33" s="72"/>
+      <c r="BU33" s="72"/>
+      <c r="BV33" s="72"/>
+      <c r="BW33" s="72"/>
+      <c r="BX33" s="72"/>
+      <c r="BY33" s="90"/>
+      <c r="BZ33" s="91"/>
+      <c r="CA33" s="72"/>
+      <c r="CB33" s="72"/>
+      <c r="CC33" s="72"/>
+      <c r="CD33" s="72"/>
+      <c r="CE33" s="72"/>
+      <c r="CF33" s="90"/>
+      <c r="CG33" s="91"/>
+      <c r="CH33" s="72"/>
+      <c r="CI33" s="72"/>
+      <c r="CJ33" s="72"/>
+      <c r="CK33" s="72"/>
+      <c r="CL33" s="72"/>
+      <c r="CM33" s="90"/>
+      <c r="CN33" s="91"/>
+      <c r="CO33" s="72"/>
+      <c r="CP33" s="72"/>
+      <c r="CQ33" s="72"/>
+      <c r="CR33" s="72"/>
+      <c r="CS33" s="72"/>
+      <c r="CT33" s="90"/>
+      <c r="CU33" s="91"/>
+      <c r="CV33" s="72"/>
+      <c r="CW33" s="72"/>
+      <c r="CX33" s="72"/>
+      <c r="CY33" s="72"/>
+      <c r="CZ33" s="72"/>
+      <c r="DA33" s="90"/>
+      <c r="DB33" s="91"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="32"/>
-      <c r="B34" s="119" t="s">
+      <c r="B34" s="86" t="s">
         <v>19</v>
       </c>
       <c r="C34" s="45"/>
@@ -4718,59 +6318,101 @@
       <c r="K34" s="72"/>
       <c r="L34" s="72"/>
       <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="72"/>
+      <c r="N34" s="92"/>
+      <c r="O34" s="93"/>
       <c r="P34" s="72"/>
       <c r="Q34" s="72"/>
       <c r="R34" s="72"/>
       <c r="S34" s="72"/>
       <c r="T34" s="72"/>
-      <c r="U34" s="72"/>
-      <c r="V34" s="72"/>
+      <c r="U34" s="92"/>
+      <c r="V34" s="93"/>
       <c r="W34" s="72"/>
       <c r="X34" s="72"/>
       <c r="Y34" s="72"/>
       <c r="Z34" s="72"/>
       <c r="AA34" s="72"/>
-      <c r="AB34" s="72"/>
-      <c r="AC34" s="72"/>
+      <c r="AB34" s="119"/>
+      <c r="AC34" s="120"/>
       <c r="AD34" s="72"/>
       <c r="AE34" s="72"/>
       <c r="AF34" s="72"/>
       <c r="AG34" s="72"/>
       <c r="AH34" s="72"/>
-      <c r="AI34" s="72"/>
-      <c r="AJ34" s="72"/>
+      <c r="AI34" s="92"/>
+      <c r="AJ34" s="93"/>
       <c r="AK34" s="72"/>
       <c r="AL34" s="72"/>
       <c r="AM34" s="72"/>
       <c r="AN34" s="72"/>
       <c r="AO34" s="72"/>
-      <c r="AP34" s="72"/>
-      <c r="AQ34" s="72"/>
+      <c r="AP34" s="92"/>
+      <c r="AQ34" s="93"/>
       <c r="AR34" s="72"/>
       <c r="AS34" s="72"/>
       <c r="AT34" s="72"/>
       <c r="AU34" s="72"/>
       <c r="AV34" s="72"/>
-      <c r="AW34" s="72"/>
-      <c r="AX34" s="72"/>
+      <c r="AW34" s="92"/>
+      <c r="AX34" s="93"/>
       <c r="AY34" s="72"/>
       <c r="AZ34" s="72"/>
       <c r="BA34" s="72"/>
       <c r="BB34" s="72"/>
       <c r="BC34" s="72"/>
-      <c r="BD34" s="72"/>
-      <c r="BE34" s="72"/>
+      <c r="BD34" s="92"/>
+      <c r="BE34" s="93"/>
       <c r="BF34" s="72"/>
       <c r="BG34" s="72"/>
       <c r="BH34" s="72"/>
       <c r="BI34" s="72"/>
       <c r="BJ34" s="72"/>
-      <c r="BK34" s="72"/>
-      <c r="BL34" s="72"/>
+      <c r="BK34" s="92"/>
+      <c r="BL34" s="93"/>
+      <c r="BM34" s="72"/>
+      <c r="BN34" s="72"/>
+      <c r="BO34" s="72"/>
+      <c r="BP34" s="72"/>
+      <c r="BQ34" s="72"/>
+      <c r="BR34" s="92"/>
+      <c r="BS34" s="93"/>
+      <c r="BT34" s="72"/>
+      <c r="BU34" s="72"/>
+      <c r="BV34" s="72"/>
+      <c r="BW34" s="72"/>
+      <c r="BX34" s="72"/>
+      <c r="BY34" s="92"/>
+      <c r="BZ34" s="93"/>
+      <c r="CA34" s="72"/>
+      <c r="CB34" s="72"/>
+      <c r="CC34" s="72"/>
+      <c r="CD34" s="72"/>
+      <c r="CE34" s="72"/>
+      <c r="CF34" s="92"/>
+      <c r="CG34" s="93"/>
+      <c r="CH34" s="72"/>
+      <c r="CI34" s="72"/>
+      <c r="CJ34" s="72"/>
+      <c r="CK34" s="72"/>
+      <c r="CL34" s="72"/>
+      <c r="CM34" s="92"/>
+      <c r="CN34" s="93"/>
+      <c r="CO34" s="72"/>
+      <c r="CP34" s="72"/>
+      <c r="CQ34" s="72"/>
+      <c r="CR34" s="72"/>
+      <c r="CS34" s="72"/>
+      <c r="CT34" s="92"/>
+      <c r="CU34" s="93"/>
+      <c r="CV34" s="72"/>
+      <c r="CW34" s="72"/>
+      <c r="CX34" s="72"/>
+      <c r="CY34" s="72"/>
+      <c r="CZ34" s="72"/>
+      <c r="DA34" s="92"/>
+      <c r="DB34" s="93"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="32" t="s">
         <v>12</v>
       </c>
@@ -4781,7 +6423,7 @@
       <c r="F35" s="63"/>
       <c r="G35" s="70"/>
       <c r="H35" s="70" t="str">
-        <f t="shared" ref="H35:H36" si="5">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
+        <f t="shared" ref="H35:H36" si="36">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
         <v/>
       </c>
       <c r="I35" s="71"/>
@@ -4840,8 +6482,50 @@
       <c r="BJ35" s="71"/>
       <c r="BK35" s="71"/>
       <c r="BL35" s="71"/>
+      <c r="BM35" s="71"/>
+      <c r="BN35" s="71"/>
+      <c r="BO35" s="71"/>
+      <c r="BP35" s="71"/>
+      <c r="BQ35" s="71"/>
+      <c r="BR35" s="71"/>
+      <c r="BS35" s="71"/>
+      <c r="BT35" s="71"/>
+      <c r="BU35" s="71"/>
+      <c r="BV35" s="71"/>
+      <c r="BW35" s="71"/>
+      <c r="BX35" s="71"/>
+      <c r="BY35" s="71"/>
+      <c r="BZ35" s="71"/>
+      <c r="CA35" s="71"/>
+      <c r="CB35" s="71"/>
+      <c r="CC35" s="71"/>
+      <c r="CD35" s="71"/>
+      <c r="CE35" s="71"/>
+      <c r="CF35" s="71"/>
+      <c r="CG35" s="71"/>
+      <c r="CH35" s="71"/>
+      <c r="CI35" s="71"/>
+      <c r="CJ35" s="71"/>
+      <c r="CK35" s="71"/>
+      <c r="CL35" s="71"/>
+      <c r="CM35" s="71"/>
+      <c r="CN35" s="71"/>
+      <c r="CO35" s="71"/>
+      <c r="CP35" s="71"/>
+      <c r="CQ35" s="71"/>
+      <c r="CR35" s="71"/>
+      <c r="CS35" s="71"/>
+      <c r="CT35" s="71"/>
+      <c r="CU35" s="71"/>
+      <c r="CV35" s="71"/>
+      <c r="CW35" s="71"/>
+      <c r="CX35" s="71"/>
+      <c r="CY35" s="71"/>
+      <c r="CZ35" s="71"/>
+      <c r="DA35" s="71"/>
+      <c r="DB35" s="71"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="33" t="s">
         <v>13</v>
       </c>
@@ -4854,7 +6538,7 @@
       <c r="F36" s="65"/>
       <c r="G36" s="29"/>
       <c r="H36" s="29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="I36" s="30"/>
@@ -4913,28 +6597,94 @@
       <c r="BJ36" s="30"/>
       <c r="BK36" s="30"/>
       <c r="BL36" s="30"/>
+      <c r="BM36" s="30"/>
+      <c r="BN36" s="30"/>
+      <c r="BO36" s="30"/>
+      <c r="BP36" s="30"/>
+      <c r="BQ36" s="30"/>
+      <c r="BR36" s="30"/>
+      <c r="BS36" s="30"/>
+      <c r="BT36" s="30"/>
+      <c r="BU36" s="30"/>
+      <c r="BV36" s="30"/>
+      <c r="BW36" s="30"/>
+      <c r="BX36" s="30"/>
+      <c r="BY36" s="30"/>
+      <c r="BZ36" s="30"/>
+      <c r="CA36" s="30"/>
+      <c r="CB36" s="30"/>
+      <c r="CC36" s="30"/>
+      <c r="CD36" s="30"/>
+      <c r="CE36" s="30"/>
+      <c r="CF36" s="30"/>
+      <c r="CG36" s="30"/>
+      <c r="CH36" s="30"/>
+      <c r="CI36" s="30"/>
+      <c r="CJ36" s="30"/>
+      <c r="CK36" s="30"/>
+      <c r="CL36" s="30"/>
+      <c r="CM36" s="30"/>
+      <c r="CN36" s="30"/>
+      <c r="CO36" s="30"/>
+      <c r="CP36" s="30"/>
+      <c r="CQ36" s="30"/>
+      <c r="CR36" s="30"/>
+      <c r="CS36" s="30"/>
+      <c r="CT36" s="30"/>
+      <c r="CU36" s="30"/>
+      <c r="CV36" s="30"/>
+      <c r="CW36" s="30"/>
+      <c r="CX36" s="30"/>
+      <c r="CY36" s="30"/>
+      <c r="CZ36" s="30"/>
+      <c r="DA36" s="30"/>
+      <c r="DB36" s="30"/>
     </row>
-    <row r="37" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:106" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:106" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="11"/>
       <c r="F38" s="34"/>
     </row>
-    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:106" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="W21:BC21"/>
-    <mergeCell ref="AI8:AJ20"/>
-    <mergeCell ref="AP8:AQ20"/>
-    <mergeCell ref="AW8:AX20"/>
-    <mergeCell ref="I8:AC8"/>
-    <mergeCell ref="AB9:AC20"/>
+  <mergeCells count="46">
+    <mergeCell ref="CT8:CU34"/>
+    <mergeCell ref="DA8:DB34"/>
+    <mergeCell ref="CV4:DB4"/>
+    <mergeCell ref="W21:BI21"/>
+    <mergeCell ref="N15:O34"/>
+    <mergeCell ref="U9:V34"/>
+    <mergeCell ref="AI22:AJ34"/>
+    <mergeCell ref="AP22:AQ34"/>
+    <mergeCell ref="AW22:AX34"/>
+    <mergeCell ref="BD22:BE34"/>
+    <mergeCell ref="BD8:BE20"/>
+    <mergeCell ref="BK8:BL34"/>
+    <mergeCell ref="BR8:BS34"/>
+    <mergeCell ref="BY8:BZ34"/>
+    <mergeCell ref="CF8:CG34"/>
+    <mergeCell ref="CM8:CN34"/>
+    <mergeCell ref="BM4:BS4"/>
+    <mergeCell ref="BT4:BZ4"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="CO4:CU4"/>
+    <mergeCell ref="BF4:BL4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="U9:V20"/>
-    <mergeCell ref="N15:O20"/>
     <mergeCell ref="P11:R11"/>
     <mergeCell ref="H9:M9"/>
     <mergeCell ref="I10:M10"/>
@@ -4943,20 +6693,14 @@
     <mergeCell ref="M14:T14"/>
     <mergeCell ref="P17:Q17"/>
     <mergeCell ref="N9:O13"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="BF4:BL4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="AI8:AJ20"/>
+    <mergeCell ref="AP8:AQ20"/>
+    <mergeCell ref="AW8:AX20"/>
+    <mergeCell ref="I8:AC8"/>
+    <mergeCell ref="AB9:AC20"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D36">
-    <cfRule type="dataBar" priority="14">
+    <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4970,16 +6714,46 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:BL7 I35:BL36">
-    <cfRule type="expression" dxfId="2" priority="33">
+    <cfRule type="expression" dxfId="8" priority="39">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL7 I35:BL36">
-    <cfRule type="expression" dxfId="1" priority="27">
+  <conditionalFormatting sqref="I7:DB7 I35:DB36">
+    <cfRule type="expression" dxfId="7" priority="33">
       <formula>AND(début_tâche&lt;=I$5,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="34" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$5,début_tâche&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BM5:BS7 BM35:BS36">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>AND(TODAY()&gt;=BM$5,TODAY()&lt;BN$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BT5:BZ7 BT35:BZ36">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>AND(TODAY()&gt;=BT$5,TODAY()&lt;BU$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CA5:CG7 CA35:CG36">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;CB$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CH5:CN7 CH35:CN36">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND(TODAY()&gt;=CH$5,TODAY()&lt;CI$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CO5:CU7 CO35:CU36">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND(TODAY()&gt;=CO$5,TODAY()&lt;CP$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CV5:DB7 CV35:DB36">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(TODAY()&gt;=CV$5,TODAY()&lt;CW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
@@ -4993,7 +6767,7 @@
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="landscape" r:id="rId3"/>
+  <pageSetup paperSize="9" scale="59" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId3"/>
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -5028,23 +6802,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5336,22 +7099,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5378,9 +7148,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>